--- a/RAW CALCULATION.xlsx
+++ b/RAW CALCULATION.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N. Shahbazi\Desktop\pakbaz\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Time /Number of profits/stops</t>
   </si>
@@ -78,26 +73,26 @@
     <t>Unemployment</t>
   </si>
   <si>
-    <t>MON</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
     <t>ppi</t>
   </si>
   <si>
     <t>CPI</t>
   </si>
+  <si>
+    <t>Homesale</t>
+  </si>
+  <si>
+    <t>consumer sentiment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -275,13 +270,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -297,9 +391,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -314,9 +405,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -326,25 +414,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -354,6 +424,51 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -468,7 +583,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -503,7 +618,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -680,92 +795,92 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AO13" sqref="AO13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="4" customWidth="1"/>
     <col min="3" max="9" width="2.5703125" customWidth="1"/>
     <col min="10" max="10" width="2.28515625" customWidth="1"/>
     <col min="11" max="11" width="2.140625" customWidth="1"/>
     <col min="12" max="13" width="2.5703125" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" style="8" customWidth="1"/>
     <col min="15" max="27" width="2.42578125" customWidth="1"/>
-    <col min="28" max="28" width="6.140625" style="9" customWidth="1"/>
+    <col min="28" max="28" width="6.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="22" t="s">
+    <row r="1" spans="1:46">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="29"/>
+    </row>
+    <row r="2" spans="1:46">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="18" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="21" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="24" t="s">
@@ -783,31 +898,31 @@
       <c r="Y2" s="24"/>
       <c r="Z2" s="24"/>
       <c r="AA2" s="24"/>
-      <c r="AB2" s="18" t="s">
+      <c r="AB2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-    </row>
-    <row r="3" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="19"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="32"/>
+    </row>
+    <row r="3" spans="1:46" ht="15" customHeight="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="22"/>
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
@@ -821,88 +936,88 @@
       <c r="Y3" s="24"/>
       <c r="Z3" s="24"/>
       <c r="AA3" s="24"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-    </row>
-    <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="35"/>
+    </row>
+    <row r="4" spans="1:46" ht="15" customHeight="1">
+      <c r="A4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="14">
         <v>45152</v>
       </c>
-      <c r="C4" s="23">
-        <v>2</v>
-      </c>
-      <c r="D4" s="23">
-        <v>1</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23">
-        <v>0</v>
-      </c>
-      <c r="G4" s="23">
-        <v>2</v>
-      </c>
-      <c r="H4" s="23">
-        <v>0</v>
-      </c>
-      <c r="I4" s="23" t="s">
+      <c r="C4" s="16">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16">
+        <v>2</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <f>Sheet3!H4</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="O4" s="25">
-        <v>1</v>
-      </c>
-      <c r="P4" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="25">
-        <v>0</v>
-      </c>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25">
-        <v>1</v>
-      </c>
-      <c r="T4" s="25">
-        <v>1</v>
-      </c>
-      <c r="U4" s="25">
-        <v>1</v>
-      </c>
-      <c r="V4" s="25">
-        <v>0</v>
-      </c>
-      <c r="W4" s="25">
-        <v>2</v>
-      </c>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25">
-        <v>2</v>
-      </c>
-      <c r="AB4" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="O4" s="17">
+        <v>1</v>
+      </c>
+      <c r="P4" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>0</v>
+      </c>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17">
+        <v>1</v>
+      </c>
+      <c r="T4" s="17">
+        <v>1</v>
+      </c>
+      <c r="U4" s="17">
+        <v>1</v>
+      </c>
+      <c r="V4" s="17">
+        <v>0</v>
+      </c>
+      <c r="W4" s="17">
+        <v>2</v>
+      </c>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="7">
         <f>Sheet3!M4</f>
         <v>3.9000000000000004</v>
       </c>
@@ -931,72 +1046,72 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:46" ht="15" customHeight="1">
+      <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>45153</v>
       </c>
-      <c r="C5" s="23">
-        <v>1</v>
-      </c>
-      <c r="D5" s="23">
-        <v>2</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23">
-        <v>2</v>
-      </c>
-      <c r="G5" s="23">
-        <v>2</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23" t="s">
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16">
+        <v>2</v>
+      </c>
+      <c r="G5" s="16">
+        <v>2</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <f>Sheet3!H5</f>
-        <v>2.25</v>
-      </c>
-      <c r="O5" s="25">
-        <v>0</v>
-      </c>
-      <c r="P5" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="25">
-        <v>1</v>
-      </c>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25">
-        <v>1</v>
-      </c>
-      <c r="T5" s="25">
-        <v>1</v>
-      </c>
-      <c r="U5" s="25">
-        <v>1</v>
-      </c>
-      <c r="V5" s="25">
-        <v>1</v>
-      </c>
-      <c r="W5" s="25">
-        <v>2</v>
-      </c>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="8">
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="O5" s="17">
+        <v>0</v>
+      </c>
+      <c r="P5" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>1</v>
+      </c>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17">
+        <v>1</v>
+      </c>
+      <c r="T5" s="17">
+        <v>1</v>
+      </c>
+      <c r="U5" s="17">
+        <v>1</v>
+      </c>
+      <c r="V5" s="17">
+        <v>1</v>
+      </c>
+      <c r="W5" s="17">
+        <v>2</v>
+      </c>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="7">
         <f>Sheet3!M5</f>
         <v>1.35</v>
       </c>
@@ -1025,78 +1140,78 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:46" ht="15" customHeight="1">
+      <c r="A6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>45154</v>
       </c>
-      <c r="C6" s="23">
-        <v>2</v>
-      </c>
-      <c r="D6" s="23">
-        <v>1</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23">
-        <v>1</v>
-      </c>
-      <c r="G6" s="23">
-        <v>1</v>
-      </c>
-      <c r="H6" s="23">
-        <v>2</v>
-      </c>
-      <c r="I6" s="23">
-        <v>1</v>
-      </c>
-      <c r="J6" s="23">
-        <v>2</v>
-      </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23">
-        <v>2</v>
-      </c>
-      <c r="M6" s="23">
-        <v>1</v>
-      </c>
-      <c r="N6" s="8">
+      <c r="C6" s="16">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16">
+        <v>2</v>
+      </c>
+      <c r="I6" s="16">
+        <v>1</v>
+      </c>
+      <c r="J6" s="16">
+        <v>2</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16">
+        <v>2</v>
+      </c>
+      <c r="M6" s="16">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
         <f>Sheet3!H6</f>
-        <v>6.3</v>
-      </c>
-      <c r="O6" s="25">
-        <v>2</v>
-      </c>
-      <c r="P6" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="25">
-        <v>1</v>
-      </c>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25">
-        <v>2</v>
-      </c>
-      <c r="T6" s="25">
-        <v>1</v>
-      </c>
-      <c r="U6" s="25">
-        <v>2</v>
-      </c>
-      <c r="V6" s="25">
-        <v>2</v>
-      </c>
-      <c r="W6" s="25">
-        <v>2</v>
-      </c>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="8">
+        <v>5.85</v>
+      </c>
+      <c r="O6" s="17">
+        <v>2</v>
+      </c>
+      <c r="P6" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>1</v>
+      </c>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17">
+        <v>2</v>
+      </c>
+      <c r="T6" s="17">
+        <v>1</v>
+      </c>
+      <c r="U6" s="17">
+        <v>2</v>
+      </c>
+      <c r="V6" s="17">
+        <v>2</v>
+      </c>
+      <c r="W6" s="17">
+        <v>2</v>
+      </c>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="7">
         <f>Sheet3!M6</f>
         <v>7.2</v>
       </c>
@@ -1125,68 +1240,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:46" ht="15" customHeight="1">
+      <c r="A7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>45155</v>
       </c>
-      <c r="C7" s="23">
-        <v>2</v>
-      </c>
-      <c r="D7" s="23">
-        <v>2</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23">
-        <v>0</v>
-      </c>
-      <c r="G7" s="23">
-        <v>2</v>
-      </c>
-      <c r="H7" s="23">
-        <v>2</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="8">
+      <c r="C7" s="16">
+        <v>2</v>
+      </c>
+      <c r="D7" s="16">
+        <v>2</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>2</v>
+      </c>
+      <c r="H7" s="16">
+        <v>2</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="7">
         <f>Sheet3!H7</f>
-        <v>1.05</v>
-      </c>
-      <c r="O7" s="25">
-        <v>1</v>
-      </c>
-      <c r="P7" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="25">
-        <v>0</v>
-      </c>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25">
-        <v>2</v>
-      </c>
-      <c r="T7" s="25">
-        <v>2</v>
-      </c>
-      <c r="U7" s="25">
-        <v>0</v>
-      </c>
-      <c r="V7" s="25">
-        <v>2</v>
-      </c>
-      <c r="W7" s="25">
-        <v>1</v>
-      </c>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="8">
+        <v>2.85</v>
+      </c>
+      <c r="O7" s="17">
+        <v>1</v>
+      </c>
+      <c r="P7" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>0</v>
+      </c>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17">
+        <v>2</v>
+      </c>
+      <c r="T7" s="17">
+        <v>2</v>
+      </c>
+      <c r="U7" s="17">
+        <v>0</v>
+      </c>
+      <c r="V7" s="17">
+        <v>2</v>
+      </c>
+      <c r="W7" s="17">
+        <v>1</v>
+      </c>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="7">
         <f>Sheet3!M7</f>
         <v>3</v>
       </c>
@@ -1215,70 +1330,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:46" ht="15" customHeight="1">
+      <c r="A8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>45156</v>
       </c>
-      <c r="C8" s="23">
-        <v>2</v>
-      </c>
-      <c r="D8" s="23">
-        <v>2</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23">
-        <v>1</v>
-      </c>
-      <c r="G8" s="23">
-        <v>0</v>
-      </c>
-      <c r="H8" s="23">
-        <v>2</v>
-      </c>
-      <c r="I8" s="23">
-        <v>1</v>
-      </c>
-      <c r="J8" s="23">
-        <v>1</v>
-      </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23">
-        <v>2</v>
-      </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="8">
+      <c r="C8" s="16">
+        <v>2</v>
+      </c>
+      <c r="D8" s="16">
+        <v>2</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>2</v>
+      </c>
+      <c r="I8" s="16">
+        <v>1</v>
+      </c>
+      <c r="J8" s="16">
+        <v>1</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16">
+        <v>2</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="7">
         <f>Sheet3!H8</f>
-        <v>3.75</v>
-      </c>
-      <c r="O8" s="25">
-        <v>2</v>
-      </c>
-      <c r="P8" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="25">
-        <v>2</v>
-      </c>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25">
-        <v>2</v>
-      </c>
-      <c r="T8" s="25">
-        <v>2</v>
-      </c>
-      <c r="U8" s="25">
-        <v>2</v>
-      </c>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="O8" s="17">
+        <v>2</v>
+      </c>
+      <c r="P8" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>2</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17">
+        <v>2</v>
+      </c>
+      <c r="T8" s="17">
+        <v>2</v>
+      </c>
+      <c r="U8" s="17">
+        <v>2</v>
+      </c>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="7">
         <f>Sheet3!M8</f>
         <v>5.4</v>
       </c>
@@ -1307,70 +1422,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="16">
+    <row r="9" spans="1:46" ht="15" customHeight="1">
+      <c r="A9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="14">
         <v>45145</v>
       </c>
-      <c r="C9" s="23">
-        <v>1</v>
-      </c>
-      <c r="D9" s="23">
-        <v>0</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23">
-        <v>2</v>
-      </c>
-      <c r="G9" s="23">
-        <v>1</v>
-      </c>
-      <c r="H9" s="23">
-        <v>0</v>
-      </c>
-      <c r="I9" s="23">
-        <v>0</v>
-      </c>
-      <c r="J9" s="23">
-        <v>2</v>
-      </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="8">
+      <c r="C9" s="16">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16">
+        <v>2</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <v>2</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="7">
         <f>Sheet3!H9</f>
         <v>0.45000000000000007</v>
       </c>
-      <c r="O9" s="25">
-        <v>2</v>
-      </c>
-      <c r="P9" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="25">
-        <v>2</v>
-      </c>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25">
-        <v>0</v>
-      </c>
-      <c r="T9" s="25">
-        <v>2</v>
-      </c>
-      <c r="U9" s="25">
-        <v>1</v>
-      </c>
-      <c r="V9" s="25">
-        <v>2</v>
-      </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="8">
+      <c r="O9" s="17">
+        <v>2</v>
+      </c>
+      <c r="P9" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>2</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17">
+        <v>0</v>
+      </c>
+      <c r="T9" s="17">
+        <v>2</v>
+      </c>
+      <c r="U9" s="17">
+        <v>1</v>
+      </c>
+      <c r="V9" s="17">
+        <v>2</v>
+      </c>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="7">
         <f>Sheet3!M9</f>
         <v>4.2</v>
       </c>
@@ -1398,78 +1513,78 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="12"/>
-      <c r="AT9" s="12"/>
-    </row>
-    <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
+    </row>
+    <row r="10" spans="1:46" ht="15" customHeight="1">
+      <c r="A10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>45146</v>
       </c>
-      <c r="C10" s="23">
-        <v>2</v>
-      </c>
-      <c r="D10" s="23">
-        <v>1</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23">
-        <v>2</v>
-      </c>
-      <c r="G10" s="23">
-        <v>2</v>
-      </c>
-      <c r="H10" s="23">
-        <v>0</v>
-      </c>
-      <c r="I10" s="23">
-        <v>1</v>
-      </c>
-      <c r="J10" s="23">
-        <v>2</v>
-      </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="8">
+      <c r="C10" s="16">
+        <v>2</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16">
+        <v>2</v>
+      </c>
+      <c r="G10" s="16">
+        <v>2</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <v>1</v>
+      </c>
+      <c r="J10" s="16">
+        <v>2</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="7">
         <f>Sheet3!H10</f>
-        <v>2.85</v>
-      </c>
-      <c r="O10" s="25">
-        <v>2</v>
-      </c>
-      <c r="P10" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="25">
-        <v>2</v>
-      </c>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25">
-        <v>1</v>
-      </c>
-      <c r="T10" s="25">
-        <v>2</v>
-      </c>
-      <c r="U10" s="25">
-        <v>2</v>
-      </c>
-      <c r="V10" s="25">
-        <v>2</v>
-      </c>
-      <c r="W10" s="25">
-        <v>2</v>
-      </c>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="8">
+        <v>3.75</v>
+      </c>
+      <c r="O10" s="17">
+        <v>2</v>
+      </c>
+      <c r="P10" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>2</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17">
+        <v>1</v>
+      </c>
+      <c r="T10" s="17">
+        <v>2</v>
+      </c>
+      <c r="U10" s="17">
+        <v>2</v>
+      </c>
+      <c r="V10" s="17">
+        <v>2</v>
+      </c>
+      <c r="W10" s="17">
+        <v>2</v>
+      </c>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="7">
         <f>Sheet3!M10</f>
         <v>6.75</v>
       </c>
@@ -1497,66 +1612,66 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="12"/>
-      <c r="AT10" s="12"/>
-    </row>
-    <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11"/>
+    </row>
+    <row r="11" spans="1:46" ht="15" customHeight="1">
+      <c r="A11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>45147</v>
       </c>
-      <c r="C11" s="23">
-        <v>1</v>
-      </c>
-      <c r="D11" s="23">
-        <v>2</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23">
-        <v>2</v>
-      </c>
-      <c r="G11" s="23">
-        <v>2</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="8">
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16">
+        <v>2</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16">
+        <v>2</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="7">
         <f>Sheet3!H11</f>
-        <v>2.25</v>
-      </c>
-      <c r="O11" s="25">
-        <v>2</v>
-      </c>
-      <c r="P11" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="25">
-        <v>1</v>
-      </c>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25">
-        <v>0</v>
-      </c>
-      <c r="T11" s="25">
-        <v>2</v>
-      </c>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="8">
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="O11" s="17">
+        <v>2</v>
+      </c>
+      <c r="P11" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>1</v>
+      </c>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17">
+        <v>0</v>
+      </c>
+      <c r="T11" s="17">
+        <v>2</v>
+      </c>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="7">
         <f>Sheet3!M11</f>
         <v>1.9500000000000002</v>
       </c>
@@ -1584,78 +1699,78 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
-      <c r="AT11" s="12"/>
-    </row>
-    <row r="12" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="17">
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+    </row>
+    <row r="12" spans="1:46" ht="15" customHeight="1">
+      <c r="A12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="15">
         <v>45148</v>
       </c>
-      <c r="C12" s="23">
-        <v>2</v>
-      </c>
-      <c r="D12" s="23">
-        <v>2</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23">
-        <v>2</v>
-      </c>
-      <c r="G12" s="23">
-        <v>2</v>
-      </c>
-      <c r="H12" s="23">
-        <v>2</v>
-      </c>
-      <c r="I12" s="23">
-        <v>2</v>
-      </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="8">
+      <c r="C12" s="16">
+        <v>2</v>
+      </c>
+      <c r="D12" s="16">
+        <v>2</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16">
+        <v>2</v>
+      </c>
+      <c r="G12" s="16">
+        <v>2</v>
+      </c>
+      <c r="H12" s="16">
+        <v>2</v>
+      </c>
+      <c r="I12" s="16">
+        <v>2</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="7">
         <f>Sheet3!H12</f>
-        <v>2.7</v>
-      </c>
-      <c r="O12" s="25">
-        <v>2</v>
-      </c>
-      <c r="P12" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="25">
-        <v>1</v>
-      </c>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25">
-        <v>1</v>
-      </c>
-      <c r="T12" s="25">
-        <v>1</v>
-      </c>
-      <c r="U12" s="25">
-        <v>2</v>
-      </c>
-      <c r="V12" s="25">
-        <v>0</v>
-      </c>
-      <c r="W12" s="25">
-        <v>2</v>
-      </c>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25">
-        <v>2</v>
-      </c>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="O12" s="17">
+        <v>2</v>
+      </c>
+      <c r="P12" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>1</v>
+      </c>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17">
+        <v>1</v>
+      </c>
+      <c r="T12" s="17">
+        <v>1</v>
+      </c>
+      <c r="U12" s="17">
+        <v>2</v>
+      </c>
+      <c r="V12" s="17">
+        <v>0</v>
+      </c>
+      <c r="W12" s="17">
+        <v>2</v>
+      </c>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="7">
         <f>Sheet3!M12</f>
         <v>4.6500000000000004</v>
       </c>
@@ -1683,72 +1798,72 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="12"/>
-    </row>
-    <row r="13" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="17">
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+    </row>
+    <row r="13" spans="1:46" ht="15" customHeight="1">
+      <c r="A13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="15">
         <v>45149</v>
       </c>
-      <c r="C13" s="23">
-        <v>2</v>
-      </c>
-      <c r="D13" s="23">
-        <v>2</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23">
-        <v>2</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="8">
+      <c r="C13" s="16">
+        <v>2</v>
+      </c>
+      <c r="D13" s="16">
+        <v>2</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>2</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="7">
         <f>Sheet3!H13</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="O13" s="25">
-        <v>2</v>
-      </c>
-      <c r="P13" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="25">
-        <v>2</v>
-      </c>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25">
-        <v>2</v>
-      </c>
-      <c r="T13" s="25">
-        <v>2</v>
-      </c>
-      <c r="U13" s="25">
-        <v>2</v>
-      </c>
-      <c r="V13" s="25">
-        <v>2</v>
-      </c>
-      <c r="W13" s="25">
-        <v>2</v>
-      </c>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="8">
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="O13" s="17">
+        <v>2</v>
+      </c>
+      <c r="P13" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>2</v>
+      </c>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17">
+        <v>2</v>
+      </c>
+      <c r="T13" s="17">
+        <v>2</v>
+      </c>
+      <c r="U13" s="17">
+        <v>2</v>
+      </c>
+      <c r="V13" s="17">
+        <v>2</v>
+      </c>
+      <c r="W13" s="17">
+        <v>2</v>
+      </c>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="7">
         <f>Sheet3!M13</f>
         <v>7.2</v>
       </c>
@@ -1777,48 +1892,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="8">
+    <row r="14" spans="1:46" ht="15" customHeight="1">
+      <c r="A14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14">
+        <v>45159</v>
+      </c>
+      <c r="C14" s="16">
+        <v>2</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>2</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="7">
         <f>Sheet3!H14</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="O14" s="17">
+        <v>2</v>
+      </c>
+      <c r="P14" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>0</v>
+      </c>
+      <c r="R14" s="17">
+        <v>0</v>
+      </c>
+      <c r="S14" s="17">
+        <v>2</v>
+      </c>
+      <c r="T14" s="17">
+        <v>2</v>
+      </c>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="7">
         <f>Sheet3!M14</f>
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AC14" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE14" s="6">
         <f t="shared" si="2"/>
@@ -1830,52 +1969,72 @@
       </c>
       <c r="AG14" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH14" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="12"/>
-    </row>
-    <row r="15" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="8">
+        <v>2</v>
+      </c>
+      <c r="AQ14" s="11"/>
+    </row>
+    <row r="15" spans="1:46" ht="15" customHeight="1">
+      <c r="A15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="15">
+        <v>45160</v>
+      </c>
+      <c r="C15" s="16">
+        <v>2</v>
+      </c>
+      <c r="D15" s="16">
+        <v>2</v>
+      </c>
+      <c r="E15" s="16">
+        <v>2</v>
+      </c>
+      <c r="F15" s="16">
+        <v>2</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="7">
         <f>Sheet3!H15</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="O15" s="17">
+        <v>2</v>
+      </c>
+      <c r="P15" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>2</v>
+      </c>
+      <c r="R15" s="17">
+        <v>0</v>
+      </c>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="7">
         <f>Sheet3!M15</f>
-        <v>0</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="AC15" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD15" s="6">
         <f t="shared" si="1"/>
@@ -1891,59 +2050,81 @@
       </c>
       <c r="AG15" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH15" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" ht="15" customHeight="1">
+      <c r="A16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15">
+        <v>45161</v>
+      </c>
+      <c r="C16" s="16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="7">
         <f>Sheet3!H16</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="O16" s="17">
+        <v>2</v>
+      </c>
+      <c r="P16" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>2</v>
+      </c>
+      <c r="R16" s="17">
+        <v>0</v>
+      </c>
+      <c r="S16" s="17">
+        <v>2</v>
+      </c>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="7">
         <f>Sheet3!M16</f>
-        <v>0</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="AC16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD16" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="6">
         <f t="shared" si="3"/>
@@ -1951,115 +2132,169 @@
       </c>
       <c r="AG16" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH16" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="15" customHeight="1">
+      <c r="A17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15">
+        <v>45162</v>
+      </c>
+      <c r="C17" s="16">
+        <v>2</v>
+      </c>
+      <c r="D17" s="16">
+        <v>2</v>
+      </c>
+      <c r="E17" s="16">
+        <v>2</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16">
+        <v>2</v>
+      </c>
+      <c r="I17" s="16">
+        <v>2</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="7">
         <f>Sheet3!H17</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="8">
+        <v>3.45</v>
+      </c>
+      <c r="O17" s="17">
+        <v>1</v>
+      </c>
+      <c r="P17" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>1</v>
+      </c>
+      <c r="R17" s="17">
+        <v>0</v>
+      </c>
+      <c r="S17" s="17">
+        <v>0</v>
+      </c>
+      <c r="T17" s="17">
+        <v>2</v>
+      </c>
+      <c r="U17" s="17">
+        <v>2</v>
+      </c>
+      <c r="V17" s="17">
+        <v>1</v>
+      </c>
+      <c r="W17" s="17">
+        <v>2</v>
+      </c>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="7">
         <f>Sheet3!M17</f>
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AC17" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF17" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG17" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH17" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="15" customHeight="1">
+      <c r="A18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="15">
+        <v>45163</v>
+      </c>
+      <c r="C18" s="16">
+        <v>2</v>
+      </c>
+      <c r="D18" s="16">
+        <v>2</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1</v>
+      </c>
+      <c r="H18" s="16">
+        <v>2</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="7">
         <f>Sheet3!H18</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="8">
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="7">
         <f>Sheet3!M18</f>
         <v>0</v>
       </c>
       <c r="AC18" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD18" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE18" s="6">
         <f t="shared" si="2"/>
@@ -2078,38 +2313,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="8">
+    <row r="19" spans="1:34" ht="15" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="7">
         <f>Sheet3!H19</f>
         <v>0</v>
       </c>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="8">
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="7">
         <f>Sheet3!M19</f>
         <v>0</v>
       </c>
@@ -2138,38 +2373,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="8">
+    <row r="20" spans="1:34" ht="15" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="7">
         <f>Sheet3!H20</f>
         <v>0</v>
       </c>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="8">
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="7">
         <f>Sheet3!M20</f>
         <v>0</v>
       </c>
@@ -2198,38 +2433,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="8">
+    <row r="21" spans="1:34" ht="15" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="7">
         <f>Sheet3!H21</f>
         <v>0</v>
       </c>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="8">
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="7">
         <f>Sheet3!M21</f>
         <v>0</v>
       </c>
@@ -2258,38 +2493,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="8">
+    <row r="22" spans="1:34" ht="15" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="7">
         <f>Sheet3!H22</f>
         <v>0</v>
       </c>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="8">
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="7">
         <f>Sheet3!M22</f>
         <v>0</v>
       </c>
@@ -2318,38 +2553,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="8">
+    <row r="23" spans="1:34" ht="15" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="7">
         <f>Sheet3!H23</f>
         <v>0</v>
       </c>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="8">
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="7">
         <f>Sheet3!M23</f>
         <v>0</v>
       </c>
@@ -2378,38 +2613,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="8">
+    <row r="24" spans="1:34" ht="15" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="7">
         <f>Sheet3!H24</f>
         <v>0</v>
       </c>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="8">
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="7">
         <f>Sheet3!M24</f>
         <v>0</v>
       </c>
@@ -2438,38 +2673,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="8">
+    <row r="25" spans="1:34" ht="15" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="7">
         <f>Sheet3!H25</f>
         <v>0</v>
       </c>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="8">
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="7">
         <f>Sheet3!M25</f>
         <v>0</v>
       </c>
@@ -2498,38 +2733,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="8">
+    <row r="26" spans="1:34" ht="15" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="7">
         <f>Sheet3!H26</f>
         <v>0</v>
       </c>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="8">
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="7">
         <f>Sheet3!M26</f>
         <v>0</v>
       </c>
@@ -2558,38 +2793,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="8">
+    <row r="27" spans="1:34" ht="15" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="7">
         <f>Sheet3!H27</f>
         <v>0</v>
       </c>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="8">
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="7">
         <f>Sheet3!M27</f>
         <v>0</v>
       </c>
@@ -2618,38 +2853,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="8">
+    <row r="28" spans="1:34" ht="15" customHeight="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="7">
         <f>Sheet3!H28</f>
         <v>0</v>
       </c>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="8">
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="7">
         <f>Sheet3!M28</f>
         <v>0</v>
       </c>
@@ -2678,38 +2913,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="8">
+    <row r="29" spans="1:34" ht="15" customHeight="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="7">
         <f>Sheet3!H29</f>
         <v>0</v>
       </c>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="8">
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="7">
         <f>Sheet3!M29</f>
         <v>0</v>
       </c>
@@ -2738,38 +2973,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="8">
+    <row r="30" spans="1:34" ht="15" customHeight="1">
+      <c r="A30" s="19"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="7">
         <f>Sheet3!H30</f>
         <v>0</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="8">
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="7">
         <f>Sheet3!M30</f>
         <v>0</v>
       </c>
@@ -2798,38 +3033,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="8">
+    <row r="31" spans="1:34" ht="15" customHeight="1">
+      <c r="A31" s="19"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="7">
         <f>Sheet3!H31</f>
         <v>0</v>
       </c>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="8">
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="7">
         <f>Sheet3!M31</f>
         <v>0</v>
       </c>
@@ -2858,38 +3093,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="8">
+    <row r="32" spans="1:34" ht="15" customHeight="1">
+      <c r="A32" s="19"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="7">
         <f>Sheet3!H32</f>
         <v>0</v>
       </c>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="8">
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="7">
         <f>Sheet3!M32</f>
         <v>0</v>
       </c>
@@ -2918,9 +3153,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
+    <row r="33" spans="1:27" ht="23.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2946,20 +3181,20 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="H35" s="12"/>
+    <row r="34" spans="1:27" ht="23.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="H35" s="11"/>
     </row>
   </sheetData>
   <dataConsolidate function="count">
@@ -2967,11 +3202,13 @@
       <dataRef ref="AB4" sheet="Sheet1"/>
     </dataRefs>
   </dataConsolidate>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="C2:M3"/>
     <mergeCell ref="O2:AA3"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="AC2:AH3"/>
   </mergeCells>
   <conditionalFormatting sqref="N4">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
@@ -2995,14 +3232,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="3.85546875" customWidth="1"/>
@@ -3016,39 +3253,39 @@
     <col min="13" max="13" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="F1" t="s">
         <v>11</v>
       </c>
       <c r="G1">
         <f>AVERAGE(H:H)</f>
-        <v>1.25</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
       </c>
       <c r="L1">
         <f>AVERAGE(M:M)</f>
-        <v>1.6888888888888889</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D2" s="20" t="s">
+        <v>2.0111111111111115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.75">
+      <c r="D2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="30">
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3080,7 +3317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="b">
         <f t="shared" ref="A4:A22" si="0">AND(D4,(G4+F4+E4))</f>
         <v>1</v>
@@ -3097,12 +3334,12 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <f>Sheet1!AC4</f>
-        <v>2</v>
+        <f>COUNTIF(Sheet1!C4:M4,1)</f>
+        <v>1</v>
       </c>
       <c r="F4">
-        <f>Sheet1!AD4</f>
-        <v>1</v>
+        <f>COUNTIF(Sheet1!C4:M4,2)</f>
+        <v>2</v>
       </c>
       <c r="G4">
         <f>Sheet1!AE4</f>
@@ -3110,7 +3347,7 @@
       </c>
       <c r="H4">
         <f>(G4*-0.75)+(F4*0.9)+(E4*0.45)</f>
-        <v>0.30000000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="I4">
         <f>Sheet1!AF4+Sheet1!AG4+Sheet1!AH4</f>
@@ -3133,7 +3370,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3150,12 +3387,12 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <f>Sheet1!AC5</f>
+        <f>COUNTIF(Sheet1!C5:M5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>COUNTIF(Sheet1!C5:M5,2)</f>
         <v>3</v>
-      </c>
-      <c r="F5">
-        <f>Sheet1!AD5</f>
-        <v>1</v>
       </c>
       <c r="G5">
         <f>Sheet1!AE5</f>
@@ -3163,7 +3400,7 @@
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H21" si="2">(G5*-0.75)+(F5*0.9)+(E5*0.45)</f>
-        <v>2.25</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="I5">
         <f>Sheet1!AF5+Sheet1!AG5+Sheet1!AH5</f>
@@ -3186,7 +3423,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3203,12 +3440,12 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <f>Sheet1!AC6</f>
+        <f>COUNTIF(Sheet1!C6:M6,1)</f>
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f>COUNTIF(Sheet1!C6:M6,2)</f>
         <v>4</v>
-      </c>
-      <c r="F6">
-        <f>Sheet1!AD6</f>
-        <v>5</v>
       </c>
       <c r="G6">
         <f>Sheet1!AE6</f>
@@ -3216,7 +3453,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>6.3</v>
+        <v>5.85</v>
       </c>
       <c r="I6">
         <f>Sheet1!AF6+Sheet1!AG6+Sheet1!AH6</f>
@@ -3239,7 +3476,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3256,12 +3493,12 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <f>Sheet1!AC7</f>
+        <f>COUNTIF(Sheet1!C7:M7,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>COUNTIF(Sheet1!C7:M7,2)</f>
         <v>4</v>
-      </c>
-      <c r="F7">
-        <f>Sheet1!AD7</f>
-        <v>0</v>
       </c>
       <c r="G7">
         <f>Sheet1!AE7</f>
@@ -3269,7 +3506,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>1.05</v>
+        <v>2.85</v>
       </c>
       <c r="I7">
         <f>Sheet1!AF7+Sheet1!AG7+Sheet1!AH7</f>
@@ -3292,7 +3529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3309,12 +3546,12 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <f>Sheet1!AC8</f>
+        <f>COUNTIF(Sheet1!C8:M8,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f>COUNTIF(Sheet1!C8:M8,2)</f>
         <v>4</v>
-      </c>
-      <c r="F8">
-        <f>Sheet1!AD8</f>
-        <v>3</v>
       </c>
       <c r="G8">
         <f>Sheet1!AE8</f>
@@ -3322,7 +3559,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="I8">
         <f>Sheet1!AF8+Sheet1!AG8+Sheet1!AH8</f>
@@ -3345,7 +3582,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3362,11 +3599,11 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <f>Sheet1!AC9</f>
+        <f>COUNTIF(Sheet1!C9:M9,1)</f>
         <v>2</v>
       </c>
       <c r="F9">
-        <f>Sheet1!AD9</f>
+        <f>COUNTIF(Sheet1!C9:M9,2)</f>
         <v>2</v>
       </c>
       <c r="G9">
@@ -3398,7 +3635,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3415,12 +3652,12 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <f>Sheet1!AC10</f>
+        <f>COUNTIF(Sheet1!C10:M10,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f>COUNTIF(Sheet1!C10:M10,2)</f>
         <v>4</v>
-      </c>
-      <c r="F10">
-        <f>Sheet1!AD10</f>
-        <v>2</v>
       </c>
       <c r="G10">
         <f>Sheet1!AE10</f>
@@ -3428,7 +3665,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>2.85</v>
+        <v>3.75</v>
       </c>
       <c r="I10">
         <f>Sheet1!AF10+Sheet1!AG10+Sheet1!AH10</f>
@@ -3451,7 +3688,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3468,12 +3705,12 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <f>Sheet1!AC11</f>
+        <f>COUNTIF(Sheet1!C11:M11,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>COUNTIF(Sheet1!C11:M11,2)</f>
         <v>3</v>
-      </c>
-      <c r="F11">
-        <f>Sheet1!AD11</f>
-        <v>1</v>
       </c>
       <c r="G11">
         <f>Sheet1!AE11</f>
@@ -3481,7 +3718,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>2.25</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="I11">
         <f>Sheet1!AF11+Sheet1!AG11+Sheet1!AH11</f>
@@ -3504,7 +3741,7 @@
         <v>1.9500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3521,12 +3758,12 @@
         <v>6</v>
       </c>
       <c r="E12">
-        <f>Sheet1!AC12</f>
+        <f>COUNTIF(Sheet1!C12:M12,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>COUNTIF(Sheet1!C12:M12,2)</f>
         <v>6</v>
-      </c>
-      <c r="F12">
-        <f>Sheet1!AD12</f>
-        <v>0</v>
       </c>
       <c r="G12">
         <f>Sheet1!AE12</f>
@@ -3534,7 +3771,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>2.7</v>
+        <v>5.4</v>
       </c>
       <c r="I12">
         <f>Sheet1!AF12+Sheet1!AG12+Sheet1!AH12</f>
@@ -3557,7 +3794,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3574,12 +3811,12 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <f>Sheet1!AC13</f>
+        <f>COUNTIF(Sheet1!C13:M13,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>COUNTIF(Sheet1!C13:M13,2)</f>
         <v>3</v>
-      </c>
-      <c r="F13">
-        <f>Sheet1!AD13</f>
-        <v>0</v>
       </c>
       <c r="G13">
         <f>Sheet1!AE13</f>
@@ -3587,7 +3824,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="I13">
         <f>Sheet1!AF13+Sheet1!AG13+Sheet1!AH13</f>
@@ -3610,29 +3847,29 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>11</v>
       </c>
       <c r="D14">
         <f>Sheet1!AC14+Sheet1!AD14+Sheet1!AE14</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <f>Sheet1!AC14</f>
-        <v>0</v>
+        <f>COUNTIF(Sheet1!C14:M14,1)</f>
+        <v>2</v>
       </c>
       <c r="F14">
-        <f>Sheet1!AD14</f>
-        <v>0</v>
+        <f>COUNTIF(Sheet1!C14:M14,2)</f>
+        <v>2</v>
       </c>
       <c r="G14">
         <f>Sheet1!AE14</f>
@@ -3640,11 +3877,11 @@
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I14">
         <f>Sheet1!AF14+Sheet1!AG14+Sheet1!AH14</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J14">
         <f>Sheet1!AF14</f>
@@ -3652,40 +3889,40 @@
       </c>
       <c r="K14">
         <f>Sheet1!AG14</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L14">
         <f>Sheet1!AH14</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>12</v>
       </c>
       <c r="D15">
         <f>Sheet1!AC15+Sheet1!AD15+Sheet1!AE15</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <f>Sheet1!AC15</f>
+        <f>COUNTIF(Sheet1!C15:M15,1)</f>
         <v>0</v>
       </c>
       <c r="F15">
-        <f>Sheet1!AD15</f>
-        <v>0</v>
+        <f>COUNTIF(Sheet1!C15:M15,2)</f>
+        <v>4</v>
       </c>
       <c r="G15">
         <f>Sheet1!AE15</f>
@@ -3693,11 +3930,11 @@
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I15">
         <f>Sheet1!AF15+Sheet1!AG15+Sheet1!AH15</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15">
         <f>Sheet1!AF15</f>
@@ -3705,52 +3942,52 @@
       </c>
       <c r="K15">
         <f>Sheet1!AG15</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <f>Sheet1!AH15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.9500000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>13</v>
       </c>
       <c r="D16">
         <f>Sheet1!AC16+Sheet1!AD16+Sheet1!AE16</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <f>Sheet1!AC16</f>
-        <v>0</v>
+        <f>COUNTIF(Sheet1!C16:M16,1)</f>
+        <v>1</v>
       </c>
       <c r="F16">
-        <f>Sheet1!AD16</f>
-        <v>0</v>
+        <f>COUNTIF(Sheet1!C16:M16,2)</f>
+        <v>2</v>
       </c>
       <c r="G16">
         <f>Sheet1!AE16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I16">
         <f>Sheet1!AF16+Sheet1!AG16+Sheet1!AH16</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16">
         <f>Sheet1!AF16</f>
@@ -3758,74 +3995,74 @@
       </c>
       <c r="K16">
         <f>Sheet1!AG16</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <f>Sheet1!AH16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>14</v>
       </c>
       <c r="D17">
         <f>Sheet1!AC17+Sheet1!AD17+Sheet1!AE17</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <f>Sheet1!AC17</f>
-        <v>0</v>
+        <f>COUNTIF(Sheet1!C17:M17,1)</f>
+        <v>1</v>
       </c>
       <c r="F17">
-        <f>Sheet1!AD17</f>
-        <v>0</v>
+        <f>COUNTIF(Sheet1!C17:M17,2)</f>
+        <v>5</v>
       </c>
       <c r="G17">
         <f>Sheet1!AE17</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="I17">
         <f>Sheet1!AF17+Sheet1!AG17+Sheet1!AH17</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J17">
         <f>Sheet1!AF17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K17">
         <f>Sheet1!AG17</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L17">
         <f>Sheet1!AH17</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="b">
         <f t="shared" si="1"/>
@@ -3836,15 +4073,15 @@
       </c>
       <c r="D18">
         <f>Sheet1!AC18+Sheet1!AD18+Sheet1!AE18</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <f>Sheet1!AC18</f>
-        <v>0</v>
+        <f>COUNTIF(Sheet1!C18:M18,1)</f>
+        <v>3</v>
       </c>
       <c r="F18">
-        <f>Sheet1!AD18</f>
-        <v>0</v>
+        <f>COUNTIF(Sheet1!C18:M18,2)</f>
+        <v>3</v>
       </c>
       <c r="G18">
         <f>Sheet1!AE18</f>
@@ -3852,7 +4089,7 @@
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.0500000000000007</v>
       </c>
       <c r="I18">
         <f>Sheet1!AF18+Sheet1!AG18+Sheet1!AH18</f>
@@ -3875,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3892,11 +4129,11 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <f>Sheet1!AC19</f>
+        <f>COUNTIF(Sheet1!C19:M19,1)</f>
         <v>0</v>
       </c>
       <c r="F19">
-        <f>Sheet1!AD19</f>
+        <f>COUNTIF(Sheet1!C19:M19,2)</f>
         <v>0</v>
       </c>
       <c r="G19">
@@ -3928,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3945,11 +4182,11 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <f>Sheet1!AC20</f>
+        <f>COUNTIF(Sheet1!C20:M20,1)</f>
         <v>0</v>
       </c>
       <c r="F20">
-        <f>Sheet1!AD20</f>
+        <f>COUNTIF(Sheet1!C20:M20,2)</f>
         <v>0</v>
       </c>
       <c r="G20">
@@ -3981,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3998,11 +4235,11 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <f>Sheet1!AC21</f>
+        <f>COUNTIF(Sheet1!C21:M21,1)</f>
         <v>0</v>
       </c>
       <c r="F21">
-        <f>Sheet1!AD21</f>
+        <f>COUNTIF(Sheet1!C21:M21,2)</f>
         <v>0</v>
       </c>
       <c r="G21">
@@ -4034,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4083,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" t="b">
         <f t="shared" ref="A23:A30" si="4">AND(D23,(G23+F23+E23))</f>
         <v>0</v>
@@ -4132,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4181,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4230,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4279,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4328,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4377,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4426,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" t="b">
         <f t="shared" si="4"/>
         <v>0</v>

--- a/RAW CALCULATION.xlsx
+++ b/RAW CALCULATION.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Time /Number of profits/stops</t>
   </si>
@@ -84,6 +84,9 @@
   <si>
     <t>consumer sentiment</t>
   </si>
+  <si>
+    <t>Two Stpops</t>
+  </si>
 </sst>
 </file>
 
@@ -92,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,8 +179,23 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,8 +249,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -369,13 +392,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -425,6 +475,9 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,12 +489,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -470,13 +517,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -498,12 +589,242 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -795,7 +1116,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -803,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT35"/>
+  <dimension ref="A1:AU35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AO13" sqref="AO13"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
@@ -816,135 +1137,144 @@
     <col min="3" max="9" width="2.5703125" customWidth="1"/>
     <col min="10" max="10" width="2.28515625" customWidth="1"/>
     <col min="11" max="11" width="2.140625" customWidth="1"/>
-    <col min="12" max="13" width="2.5703125" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="2.5703125" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="8" customWidth="1"/>
     <col min="15" max="27" width="2.42578125" customWidth="1"/>
     <col min="28" max="28" width="6.140625" style="8" customWidth="1"/>
+    <col min="29" max="29" width="8.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="29"/>
-    </row>
-    <row r="2" spans="1:46">
+    <row r="1" spans="1:47">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="28"/>
+    </row>
+    <row r="2" spans="1:47">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="21" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="N2" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="21" t="s">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="32"/>
-    </row>
-    <row r="3" spans="1:46" ht="15" customHeight="1">
+      <c r="AC2" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="31"/>
+    </row>
+    <row r="3" spans="1:47" ht="15" customHeight="1">
       <c r="A3" s="18"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
       <c r="M3" s="23"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="35"/>
-    </row>
-    <row r="4" spans="1:46" ht="15" customHeight="1">
+      <c r="N3" s="38"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="34"/>
+    </row>
+    <row r="4" spans="1:47" ht="15" customHeight="1">
       <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
@@ -957,33 +1287,33 @@
       <c r="D4" s="16">
         <v>1</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
       <c r="F4" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="16">
-        <v>2</v>
-      </c>
-      <c r="H4" s="16">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="16"/>
       <c r="L4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="7">
+      <c r="M4" s="7">
         <f>Sheet3!H4</f>
         <v>0.75</v>
       </c>
+      <c r="N4" s="21"/>
       <c r="O4" s="17">
         <v>1</v>
       </c>
@@ -993,7 +1323,9 @@
       <c r="Q4" s="17">
         <v>0</v>
       </c>
-      <c r="R4" s="17"/>
+      <c r="R4" s="17">
+        <v>1</v>
+      </c>
       <c r="S4" s="17">
         <v>1</v>
       </c>
@@ -1001,52 +1333,51 @@
         <v>1</v>
       </c>
       <c r="U4" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W4" s="17">
         <v>2</v>
       </c>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17">
-        <v>2</v>
-      </c>
+      <c r="X4" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
-      <c r="AA4" s="17">
-        <v>2</v>
-      </c>
+      <c r="AA4" s="17"/>
       <c r="AB4" s="7">
         <f>Sheet3!M4</f>
         <v>3.9000000000000004</v>
       </c>
-      <c r="AC4" s="6">
-        <f t="shared" ref="AC4:AC32" si="0">COUNTIF(C4:M4,2)</f>
-        <v>2</v>
-      </c>
+      <c r="AC4" s="21"/>
       <c r="AD4" s="6">
-        <f t="shared" ref="AD4:AD32" si="1">COUNTIF(C4:M4,1)</f>
-        <v>1</v>
+        <f>COUNTIF(C4:L4,2)</f>
+        <v>2</v>
       </c>
       <c r="AE4" s="6">
-        <f t="shared" ref="AE4:AE32" si="2">COUNTIF(C4:M4,0)</f>
-        <v>2</v>
+        <f>COUNTIF(C4:L4,1)</f>
+        <v>1</v>
       </c>
       <c r="AF4" s="6">
-        <f>COUNTIF($O4:$AA4,1)</f>
+        <f>COUNTIF(C4:L4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AG4" s="6">
+        <f>COUNTIF($O4:$Z4,1)</f>
         <v>4</v>
       </c>
-      <c r="AG4" s="6">
-        <f>COUNTIF($O4:$AA4,2)</f>
+      <c r="AH4" s="6">
+        <f>COUNTIF($O4:$Z4,2)</f>
         <v>4</v>
       </c>
-      <c r="AH4" s="6">
-        <f>COUNTIF($O4:$AA4,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" ht="15" customHeight="1">
+      <c r="AI4" s="6">
+        <f>COUNTIF($O4:$Z4,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="15" customHeight="1">
       <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
@@ -1059,25 +1390,25 @@
       <c r="D5" s="16">
         <v>2</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="16">
+        <v>2</v>
+      </c>
       <c r="F5" s="16">
         <v>2</v>
       </c>
-      <c r="G5" s="16">
-        <v>2</v>
-      </c>
+      <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16" t="s">
+      <c r="L5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="7">
+      <c r="M5" s="7">
         <f>Sheet3!H5</f>
         <v>3.1500000000000004</v>
       </c>
+      <c r="N5" s="21"/>
       <c r="O5" s="17">
         <v>0</v>
       </c>
@@ -1087,7 +1418,9 @@
       <c r="Q5" s="17">
         <v>1</v>
       </c>
-      <c r="R5" s="17"/>
+      <c r="R5" s="17">
+        <v>1</v>
+      </c>
       <c r="S5" s="17">
         <v>1</v>
       </c>
@@ -1098,49 +1431,48 @@
         <v>1</v>
       </c>
       <c r="V5" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W5" s="17">
-        <v>2</v>
-      </c>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X5" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
-      <c r="AA5" s="17">
-        <v>0</v>
-      </c>
+      <c r="AA5" s="17"/>
       <c r="AB5" s="7">
         <f>Sheet3!M5</f>
         <v>1.35</v>
       </c>
-      <c r="AC5" s="6">
-        <f t="shared" si="0"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="6">
+        <f>COUNTIF(C5:L5,2)</f>
         <v>3</v>
       </c>
-      <c r="AD5" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="AE5" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>COUNTIF(C5:L5,1)</f>
+        <v>1</v>
       </c>
       <c r="AF5" s="6">
-        <f t="shared" ref="AF5:AF32" si="3">COUNTIF($O5:$AA5,1)</f>
+        <f>COUNTIF(C5:L5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="6">
+        <f>COUNTIF($O5:$Z5,1)</f>
         <v>6</v>
       </c>
-      <c r="AG5" s="6">
-        <f t="shared" ref="AG5:AG32" si="4">COUNTIF($O5:$AA5,2)</f>
-        <v>1</v>
-      </c>
       <c r="AH5" s="6">
-        <f t="shared" ref="AH5:AH32" si="5">COUNTIF($O5:$AA5,0)</f>
+        <f>COUNTIF($O5:$Z5,2)</f>
+        <v>1</v>
+      </c>
+      <c r="AI5" s="6">
+        <f>COUNTIF($O5:$Z5,0)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="15" customHeight="1">
+    <row r="6" spans="1:47" ht="15" customHeight="1">
       <c r="A6" s="19" t="s">
         <v>15</v>
       </c>
@@ -1153,33 +1485,33 @@
       <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
       <c r="F6" s="16">
         <v>1</v>
       </c>
       <c r="G6" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="16">
-        <v>1</v>
-      </c>
-      <c r="J6" s="16">
-        <v>2</v>
-      </c>
-      <c r="K6" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16">
+        <v>2</v>
+      </c>
       <c r="L6" s="16">
-        <v>2</v>
-      </c>
-      <c r="M6" s="16">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
         <f>Sheet3!H6</f>
         <v>5.85</v>
       </c>
+      <c r="N6" s="21"/>
       <c r="O6" s="17">
         <v>2</v>
       </c>
@@ -1189,12 +1521,14 @@
       <c r="Q6" s="17">
         <v>1</v>
       </c>
-      <c r="R6" s="17"/>
+      <c r="R6" s="17">
+        <v>2</v>
+      </c>
       <c r="S6" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" s="17">
         <v>2</v>
@@ -1206,41 +1540,40 @@
         <v>2</v>
       </c>
       <c r="X6" s="17"/>
-      <c r="Y6" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
       <c r="AB6" s="7">
         <f>Sheet3!M6</f>
         <v>7.2</v>
       </c>
-      <c r="AC6" s="6">
-        <f t="shared" si="0"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="6">
+        <f>COUNTIF(C6:L6,2)</f>
         <v>4</v>
       </c>
-      <c r="AD6" s="6">
-        <f t="shared" si="1"/>
+      <c r="AE6" s="6">
+        <f>COUNTIF(C6:L6,1)</f>
         <v>5</v>
       </c>
-      <c r="AE6" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AF6" s="6">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>COUNTIF(C6:L6,0)</f>
+        <v>0</v>
       </c>
       <c r="AG6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AG5:AG32" si="0">COUNTIF($O6:$AA6,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AH6" s="6">
+        <f t="shared" ref="AH5:AH32" si="1">COUNTIF($O6:$AA6,2)</f>
         <v>7</v>
       </c>
-      <c r="AH6" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" ht="15" customHeight="1">
+      <c r="AI6" s="6">
+        <f t="shared" ref="AI5:AI32" si="2">COUNTIF($O6:$AA6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" ht="15" customHeight="1">
       <c r="A7" s="20" t="s">
         <v>16</v>
       </c>
@@ -1253,25 +1586,25 @@
       <c r="D7" s="16">
         <v>2</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
       <c r="F7" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="16">
         <v>2</v>
       </c>
-      <c r="H7" s="16">
-        <v>2</v>
-      </c>
+      <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="7">
+      <c r="M7" s="7">
         <f>Sheet3!H7</f>
         <v>2.85</v>
       </c>
+      <c r="N7" s="21"/>
       <c r="O7" s="17">
         <v>1</v>
       </c>
@@ -1281,22 +1614,22 @@
       <c r="Q7" s="17">
         <v>0</v>
       </c>
-      <c r="R7" s="17"/>
+      <c r="R7" s="17">
+        <v>2</v>
+      </c>
       <c r="S7" s="17">
         <v>2</v>
       </c>
       <c r="T7" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U7" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V7" s="17">
-        <v>2</v>
-      </c>
-      <c r="W7" s="17">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="W7" s="17"/>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
@@ -1305,32 +1638,33 @@
         <f>Sheet3!M7</f>
         <v>3</v>
       </c>
-      <c r="AC7" s="6">
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="6">
+        <f>COUNTIF(C7:L7,2)</f>
+        <v>4</v>
+      </c>
+      <c r="AE7" s="6">
+        <f>COUNTIF(C7:L7,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="6">
+        <f>COUNTIF(C7:L7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG7" s="6">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AH7" s="6">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AD7" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="6">
+      <c r="AI7" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AF7" s="6">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AG7" s="6">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AH7" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" ht="15" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" ht="15" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>13</v>
       </c>
@@ -1343,31 +1677,31 @@
       <c r="D8" s="16">
         <v>2</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
       <c r="F8" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="16">
         <v>1</v>
       </c>
-      <c r="J8" s="16">
-        <v>1</v>
-      </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16">
-        <v>2</v>
-      </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="7">
+      <c r="J8" s="16"/>
+      <c r="K8" s="16">
+        <v>2</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="7">
         <f>Sheet3!H8</f>
         <v>4.2</v>
       </c>
+      <c r="N8" s="21"/>
       <c r="O8" s="17">
         <v>2</v>
       </c>
@@ -1377,16 +1711,16 @@
       <c r="Q8" s="17">
         <v>2</v>
       </c>
-      <c r="R8" s="17"/>
+      <c r="R8" s="17">
+        <v>2</v>
+      </c>
       <c r="S8" s="17">
         <v>2</v>
       </c>
       <c r="T8" s="17">
         <v>2</v>
       </c>
-      <c r="U8" s="17">
-        <v>2</v>
-      </c>
+      <c r="U8" s="17"/>
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
@@ -1397,32 +1731,33 @@
         <f>Sheet3!M8</f>
         <v>5.4</v>
       </c>
-      <c r="AC8" s="6">
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="6">
+        <f>COUNTIF(C8:L8,2)</f>
+        <v>4</v>
+      </c>
+      <c r="AE8" s="6">
+        <f>COUNTIF(C8:L8,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AF8" s="6">
+        <f>COUNTIF(C8:L8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG8" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AD8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AE8" s="6">
+        <v>6</v>
+      </c>
+      <c r="AI8" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AF8" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="6">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="AH8" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46" ht="15" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" ht="15" customHeight="1">
       <c r="A9" s="19" t="s">
         <v>13</v>
       </c>
@@ -1435,29 +1770,29 @@
       <c r="D9" s="16">
         <v>0</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="16">
+        <v>2</v>
+      </c>
       <c r="F9" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="16">
         <v>0</v>
       </c>
       <c r="I9" s="16">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="7">
+      <c r="M9" s="7">
         <f>Sheet3!H9</f>
         <v>0.45000000000000007</v>
       </c>
+      <c r="N9" s="39"/>
       <c r="O9" s="17">
         <v>2</v>
       </c>
@@ -1467,19 +1802,19 @@
       <c r="Q9" s="17">
         <v>2</v>
       </c>
-      <c r="R9" s="17"/>
+      <c r="R9" s="17">
+        <v>0</v>
+      </c>
       <c r="S9" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T9" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U9" s="17">
-        <v>1</v>
-      </c>
-      <c r="V9" s="17">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="V9" s="17"/>
       <c r="W9" s="17"/>
       <c r="X9" s="17"/>
       <c r="Y9" s="17"/>
@@ -1489,37 +1824,38 @@
         <f>Sheet3!M9</f>
         <v>4.2</v>
       </c>
-      <c r="AC9" s="6">
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="6">
+        <f>COUNTIF(C9:L9,2)</f>
+        <v>2</v>
+      </c>
+      <c r="AE9" s="6">
+        <f>COUNTIF(C9:L9,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AF9" s="6">
+        <f>COUNTIF(C9:L9,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AG9" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AD9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AE9" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI9" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AF9" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AG9" s="6">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AH9" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AP9" s="11"/>
+        <v>1</v>
+      </c>
       <c r="AQ9" s="11"/>
       <c r="AR9" s="11"/>
       <c r="AS9" s="11"/>
       <c r="AT9" s="11"/>
-    </row>
-    <row r="10" spans="1:46" ht="15" customHeight="1">
+      <c r="AU9" s="11"/>
+    </row>
+    <row r="10" spans="1:47" ht="15" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>15</v>
       </c>
@@ -1532,29 +1868,29 @@
       <c r="D10" s="16">
         <v>1</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="16">
+        <v>2</v>
+      </c>
       <c r="F10" s="16">
         <v>2</v>
       </c>
       <c r="G10" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="16">
-        <v>1</v>
-      </c>
-      <c r="J10" s="16">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="7">
+      <c r="M10" s="7">
         <f>Sheet3!H10</f>
         <v>3.75</v>
       </c>
+      <c r="N10" s="21"/>
       <c r="O10" s="17">
         <v>2</v>
       </c>
@@ -1564,9 +1900,11 @@
       <c r="Q10" s="17">
         <v>2</v>
       </c>
-      <c r="R10" s="17"/>
+      <c r="R10" s="17">
+        <v>1</v>
+      </c>
       <c r="S10" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" s="17">
         <v>2</v>
@@ -1577,9 +1915,7 @@
       <c r="V10" s="17">
         <v>2</v>
       </c>
-      <c r="W10" s="17">
-        <v>2</v>
-      </c>
+      <c r="W10" s="17"/>
       <c r="X10" s="17"/>
       <c r="Y10" s="17"/>
       <c r="Z10" s="17"/>
@@ -1588,37 +1924,38 @@
         <f>Sheet3!M10</f>
         <v>6.75</v>
       </c>
-      <c r="AC10" s="6">
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="6">
+        <f>COUNTIF(C10:L10,2)</f>
+        <v>4</v>
+      </c>
+      <c r="AE10" s="6">
+        <f>COUNTIF(C10:L10,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AF10" s="6">
+        <f>COUNTIF(C10:L10,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG10" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AD10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AE10" s="6">
+        <v>7</v>
+      </c>
+      <c r="AI10" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AF10" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AG10" s="6">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="AH10" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AP10" s="11"/>
+        <v>0</v>
+      </c>
       <c r="AQ10" s="11"/>
       <c r="AR10" s="11"/>
       <c r="AS10" s="11"/>
       <c r="AT10" s="11"/>
-    </row>
-    <row r="11" spans="1:46" ht="15" customHeight="1">
+      <c r="AU10" s="11"/>
+    </row>
+    <row r="11" spans="1:47" ht="15" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>13</v>
       </c>
@@ -1631,23 +1968,23 @@
       <c r="D11" s="16">
         <v>2</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="16">
+        <v>2</v>
+      </c>
       <c r="F11" s="16">
         <v>2</v>
       </c>
-      <c r="G11" s="16">
-        <v>2</v>
-      </c>
+      <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="7">
+      <c r="M11" s="7">
         <f>Sheet3!H11</f>
         <v>3.1500000000000004</v>
       </c>
+      <c r="N11" s="21"/>
       <c r="O11" s="17">
         <v>2</v>
       </c>
@@ -1657,13 +1994,13 @@
       <c r="Q11" s="17">
         <v>1</v>
       </c>
-      <c r="R11" s="17"/>
+      <c r="R11" s="17">
+        <v>0</v>
+      </c>
       <c r="S11" s="17">
-        <v>0</v>
-      </c>
-      <c r="T11" s="17">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="T11" s="17"/>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
@@ -1675,37 +2012,38 @@
         <f>Sheet3!M11</f>
         <v>1.9500000000000002</v>
       </c>
-      <c r="AC11" s="6">
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="6">
+        <f>COUNTIF(C11:L11,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AE11" s="6">
+        <f>COUNTIF(C11:L11,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AF11" s="6">
+        <f>COUNTIF(C11:L11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AD11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI11" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="6">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AG11" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AH11" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AP11" s="11"/>
+        <v>1</v>
+      </c>
       <c r="AQ11" s="11"/>
       <c r="AR11" s="11"/>
       <c r="AS11" s="11"/>
       <c r="AT11" s="11"/>
-    </row>
-    <row r="12" spans="1:46" ht="15" customHeight="1">
+      <c r="AU11" s="11"/>
+    </row>
+    <row r="12" spans="1:47" ht="15" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>18</v>
       </c>
@@ -1718,7 +2056,9 @@
       <c r="D12" s="16">
         <v>2</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="16">
+        <v>2</v>
+      </c>
       <c r="F12" s="16">
         <v>2</v>
       </c>
@@ -1728,17 +2068,15 @@
       <c r="H12" s="16">
         <v>2</v>
       </c>
-      <c r="I12" s="16">
-        <v>2</v>
-      </c>
+      <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="7">
+      <c r="M12" s="7">
         <f>Sheet3!H12</f>
         <v>5.4</v>
       </c>
+      <c r="N12" s="21"/>
       <c r="O12" s="17">
         <v>2</v>
       </c>
@@ -1748,63 +2086,64 @@
       <c r="Q12" s="17">
         <v>1</v>
       </c>
-      <c r="R12" s="17"/>
+      <c r="R12" s="17">
+        <v>1</v>
+      </c>
       <c r="S12" s="17">
         <v>1</v>
       </c>
       <c r="T12" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U12" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V12" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W12" s="17">
         <v>2</v>
       </c>
       <c r="X12" s="17"/>
-      <c r="Y12" s="17">
-        <v>2</v>
-      </c>
+      <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
       <c r="AA12" s="17"/>
       <c r="AB12" s="7">
         <f>Sheet3!M12</f>
         <v>4.6500000000000004</v>
       </c>
-      <c r="AC12" s="6">
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="6">
+        <f>COUNTIF(C12:L12,2)</f>
+        <v>6</v>
+      </c>
+      <c r="AE12" s="6">
+        <f>COUNTIF(C12:L12,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="6">
+        <f>COUNTIF(C12:L12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AD12" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH12" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="6">
+        <v>4</v>
+      </c>
+      <c r="AI12" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="6">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="AG12" s="6">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AH12" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AP12" s="11"/>
+        <v>1</v>
+      </c>
       <c r="AQ12" s="11"/>
       <c r="AR12" s="11"/>
       <c r="AS12" s="11"/>
       <c r="AT12" s="11"/>
-    </row>
-    <row r="13" spans="1:46" ht="15" customHeight="1">
+      <c r="AU12" s="11"/>
+    </row>
+    <row r="13" spans="1:47" ht="15" customHeight="1">
       <c r="A13" s="19" t="s">
         <v>17</v>
       </c>
@@ -1817,23 +2156,23 @@
       <c r="D13" s="16">
         <v>2</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
       <c r="F13" s="16">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="7">
+      <c r="M13" s="7">
         <f>Sheet3!H13</f>
         <v>1.9500000000000002</v>
       </c>
+      <c r="N13" s="21"/>
       <c r="O13" s="17">
         <v>2</v>
       </c>
@@ -1843,7 +2182,9 @@
       <c r="Q13" s="17">
         <v>2</v>
       </c>
-      <c r="R13" s="17"/>
+      <c r="R13" s="17">
+        <v>2</v>
+      </c>
       <c r="S13" s="17">
         <v>2</v>
       </c>
@@ -1856,9 +2197,7 @@
       <c r="V13" s="17">
         <v>2</v>
       </c>
-      <c r="W13" s="17">
-        <v>2</v>
-      </c>
+      <c r="W13" s="17"/>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
@@ -1867,32 +2206,33 @@
         <f>Sheet3!M13</f>
         <v>7.2</v>
       </c>
-      <c r="AC13" s="6">
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="6">
+        <f>COUNTIF(C13:L13,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AE13" s="6">
+        <f>COUNTIF(C13:L13,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="6">
+        <f>COUNTIF(C13:L13,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG13" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AD13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="6">
+        <v>8</v>
+      </c>
+      <c r="AI13" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AF13" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG13" s="6">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="AH13" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46" ht="15" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" ht="15" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>13</v>
       </c>
@@ -1917,11 +2257,11 @@
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="7">
+      <c r="M14" s="7">
         <f>Sheet3!H14</f>
         <v>2.7</v>
       </c>
+      <c r="N14" s="21"/>
       <c r="O14" s="17">
         <v>2</v>
       </c>
@@ -1951,33 +2291,34 @@
         <f>Sheet3!M14</f>
         <v>2.1</v>
       </c>
-      <c r="AC14" s="6">
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="6">
+        <f>COUNTIF(C14:L14,2)</f>
+        <v>2</v>
+      </c>
+      <c r="AE14" s="6">
+        <f>COUNTIF(C14:L14,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AF14" s="6">
+        <f>COUNTIF(C14:L14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AD14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AE14" s="6">
+        <v>4</v>
+      </c>
+      <c r="AI14" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="6">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AH14" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AQ14" s="11"/>
-    </row>
-    <row r="15" spans="1:46" ht="15" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="AR14" s="11"/>
+    </row>
+    <row r="15" spans="1:47" ht="15" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>19</v>
       </c>
@@ -2002,11 +2343,11 @@
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="7">
+      <c r="M15" s="7">
         <f>Sheet3!H15</f>
         <v>3.6</v>
       </c>
+      <c r="N15" s="21"/>
       <c r="O15" s="17">
         <v>2</v>
       </c>
@@ -2032,32 +2373,33 @@
         <f>Sheet3!M15</f>
         <v>1.9500000000000002</v>
       </c>
-      <c r="AC15" s="6">
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="6">
+        <f>COUNTIF(C15:L15,2)</f>
+        <v>4</v>
+      </c>
+      <c r="AE15" s="6">
+        <f>COUNTIF(C15:L15,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="6">
+        <f>COUNTIF(C15:L15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AD15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI15" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="6">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AH15" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46" ht="15" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" ht="15" customHeight="1">
       <c r="A16" s="19" t="s">
         <v>13</v>
       </c>
@@ -2082,11 +2424,11 @@
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="7">
+      <c r="M16" s="7">
         <f>Sheet3!H16</f>
         <v>1.5</v>
       </c>
+      <c r="N16" s="21"/>
       <c r="O16" s="17">
         <v>2</v>
       </c>
@@ -2114,32 +2456,33 @@
         <f>Sheet3!M16</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="AC16" s="6">
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="6">
+        <f>COUNTIF(C16:L16,2)</f>
+        <v>2</v>
+      </c>
+      <c r="AE16" s="6">
+        <f>COUNTIF(C16:L16,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AF16" s="6">
+        <f>COUNTIF(C16:L16,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG16" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AD16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE16" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI16" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AF16" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="6">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AH16" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" ht="15" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="19" t="s">
         <v>16</v>
       </c>
@@ -2172,11 +2515,11 @@
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="7">
+      <c r="M17" s="7">
         <f>Sheet3!H17</f>
         <v>3.45</v>
       </c>
+      <c r="N17" s="21"/>
       <c r="O17" s="17">
         <v>1</v>
       </c>
@@ -2212,32 +2555,33 @@
         <f>Sheet3!M17</f>
         <v>3.45</v>
       </c>
-      <c r="AC17" s="6">
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="6">
+        <f>COUNTIF(C17:L17,2)</f>
+        <v>5</v>
+      </c>
+      <c r="AE17" s="6">
+        <f>COUNTIF(C17:L17,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AF17" s="6">
+        <f>COUNTIF(C17:L17,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AG17" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AD17" s="6">
+        <v>3</v>
+      </c>
+      <c r="AH17" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE17" s="6">
+        <v>4</v>
+      </c>
+      <c r="AI17" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AF17" s="6">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AG17" s="6">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AH17" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" ht="15" customHeight="1">
+    </row>
+    <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
@@ -2266,11 +2610,11 @@
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="7">
+      <c r="M18" s="7">
         <f>Sheet3!H18</f>
         <v>4.0500000000000007</v>
       </c>
+      <c r="N18" s="21"/>
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
@@ -2288,32 +2632,33 @@
         <f>Sheet3!M18</f>
         <v>0</v>
       </c>
-      <c r="AC18" s="6">
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="6">
+        <f>COUNTIF(C18:L18,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AE18" s="6">
+        <f>COUNTIF(C18:L18,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AF18" s="6">
+        <f>COUNTIF(C18:L18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AD18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AE18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH18" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" ht="15" customHeight="1">
+    </row>
+    <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="19"/>
       <c r="B19" s="14"/>
       <c r="C19" s="16"/>
@@ -2326,11 +2671,11 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="7">
+      <c r="M19" s="7">
         <f>Sheet3!H19</f>
         <v>0</v>
       </c>
+      <c r="N19" s="21"/>
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
@@ -2348,32 +2693,33 @@
         <f>Sheet3!M19</f>
         <v>0</v>
       </c>
-      <c r="AC19" s="6">
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="6">
+        <f>COUNTIF(C19:L19,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="6">
+        <f>COUNTIF(C19:L19,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="6">
+        <f>COUNTIF(C19:L19,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="6">
+      <c r="AH19" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="6">
+      <c r="AI19" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH19" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" ht="15" customHeight="1">
+    </row>
+    <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="19"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
@@ -2386,11 +2732,11 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="7">
+      <c r="M20" s="7">
         <f>Sheet3!H20</f>
         <v>0</v>
       </c>
+      <c r="N20" s="21"/>
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
@@ -2408,32 +2754,33 @@
         <f>Sheet3!M20</f>
         <v>0</v>
       </c>
-      <c r="AC20" s="6">
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="6">
+        <f>COUNTIF(C20:L20,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="6">
+        <f>COUNTIF(C20:L20,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="6">
+        <f>COUNTIF(C20:L20,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AH20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="6">
+      <c r="AI20" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH20" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" ht="15" customHeight="1">
+    </row>
+    <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
@@ -2446,11 +2793,11 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="7">
+      <c r="M21" s="7">
         <f>Sheet3!H21</f>
         <v>0</v>
       </c>
+      <c r="N21" s="21"/>
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
@@ -2468,32 +2815,33 @@
         <f>Sheet3!M21</f>
         <v>0</v>
       </c>
-      <c r="AC21" s="6">
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="6">
+        <f>COUNTIF(C21:L21,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="6">
+        <f>COUNTIF(C21:L21,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="6">
+        <f>COUNTIF(C21:L21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="6">
+      <c r="AH21" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="6">
+      <c r="AI21" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH21" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" ht="15" customHeight="1">
+    </row>
+    <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="19"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
@@ -2506,11 +2854,11 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="7">
+      <c r="M22" s="7">
         <f>Sheet3!H22</f>
         <v>0</v>
       </c>
+      <c r="N22" s="21"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
@@ -2528,32 +2876,33 @@
         <f>Sheet3!M22</f>
         <v>0</v>
       </c>
-      <c r="AC22" s="6">
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="6">
+        <f>COUNTIF(C22:L22,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="6">
+        <f>COUNTIF(C22:L22,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="6">
+        <f>COUNTIF(C22:L22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="6">
+      <c r="AH22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="6">
+      <c r="AI22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH22" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" ht="15" customHeight="1">
+    </row>
+    <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="19"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
@@ -2566,11 +2915,11 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="7">
+      <c r="M23" s="7">
         <f>Sheet3!H23</f>
         <v>0</v>
       </c>
+      <c r="N23" s="21"/>
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
@@ -2588,32 +2937,33 @@
         <f>Sheet3!M23</f>
         <v>0</v>
       </c>
-      <c r="AC23" s="6">
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="6">
+        <f>COUNTIF(C23:L23,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="6">
+        <f>COUNTIF(C23:L23,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="6">
+        <f>COUNTIF(C23:L23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="6">
+      <c r="AH23" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="6">
+      <c r="AI23" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF23" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH23" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" ht="15" customHeight="1">
+    </row>
+    <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="19"/>
       <c r="B24" s="14"/>
       <c r="C24" s="16"/>
@@ -2626,11 +2976,11 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="7">
+      <c r="M24" s="7">
         <f>Sheet3!H24</f>
         <v>0</v>
       </c>
+      <c r="N24" s="21"/>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
@@ -2648,32 +2998,33 @@
         <f>Sheet3!M24</f>
         <v>0</v>
       </c>
-      <c r="AC24" s="6">
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="6">
+        <f>COUNTIF(C24:L24,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="6">
+        <f>COUNTIF(C24:L24,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="6">
+        <f>COUNTIF(C24:L24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD24" s="6">
+      <c r="AH24" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="6">
+      <c r="AI24" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF24" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH24" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" ht="15" customHeight="1">
+    </row>
+    <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="19"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
@@ -2686,11 +3037,11 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="7">
+      <c r="M25" s="7">
         <f>Sheet3!H25</f>
         <v>0</v>
       </c>
+      <c r="N25" s="21"/>
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
@@ -2708,32 +3059,33 @@
         <f>Sheet3!M25</f>
         <v>0</v>
       </c>
-      <c r="AC25" s="6">
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="6">
+        <f>COUNTIF(C25:L25,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="6">
+        <f>COUNTIF(C25:L25,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="6">
+        <f>COUNTIF(C25:L25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD25" s="6">
+      <c r="AH25" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="6">
+      <c r="AI25" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH25" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" ht="15" customHeight="1">
+    </row>
+    <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="19"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
@@ -2746,11 +3098,11 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="7">
+      <c r="M26" s="7">
         <f>Sheet3!H26</f>
         <v>0</v>
       </c>
+      <c r="N26" s="21"/>
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
@@ -2768,32 +3120,33 @@
         <f>Sheet3!M26</f>
         <v>0</v>
       </c>
-      <c r="AC26" s="6">
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="6">
+        <f>COUNTIF(C26:L26,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="6">
+        <f>COUNTIF(C26:L26,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="6">
+        <f>COUNTIF(C26:L26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD26" s="6">
+      <c r="AH26" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="6">
+      <c r="AI26" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF26" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" ht="15" customHeight="1">
+    </row>
+    <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
@@ -2806,11 +3159,11 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="7">
+      <c r="M27" s="7">
         <f>Sheet3!H27</f>
         <v>0</v>
       </c>
+      <c r="N27" s="21"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
@@ -2828,32 +3181,33 @@
         <f>Sheet3!M27</f>
         <v>0</v>
       </c>
-      <c r="AC27" s="6">
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="6">
+        <f>COUNTIF(C27:L27,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="6">
+        <f>COUNTIF(C27:L27,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="6">
+        <f>COUNTIF(C27:L27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD27" s="6">
+      <c r="AH27" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE27" s="6">
+      <c r="AI27" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH27" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" ht="15" customHeight="1">
+    </row>
+    <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
@@ -2866,11 +3220,11 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="7">
+      <c r="M28" s="7">
         <f>Sheet3!H28</f>
         <v>0</v>
       </c>
+      <c r="N28" s="21"/>
       <c r="O28" s="17"/>
       <c r="P28" s="17"/>
       <c r="Q28" s="17"/>
@@ -2888,32 +3242,33 @@
         <f>Sheet3!M28</f>
         <v>0</v>
       </c>
-      <c r="AC28" s="6">
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="6">
+        <f>COUNTIF(C28:L28,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="6">
+        <f>COUNTIF(C28:L28,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="6">
+        <f>COUNTIF(C28:L28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD28" s="6">
+      <c r="AH28" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE28" s="6">
+      <c r="AI28" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH28" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" ht="15" customHeight="1">
+    </row>
+    <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="19"/>
       <c r="B29" s="14"/>
       <c r="C29" s="16"/>
@@ -2926,11 +3281,11 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="7">
+      <c r="M29" s="7">
         <f>Sheet3!H29</f>
         <v>0</v>
       </c>
+      <c r="N29" s="21"/>
       <c r="O29" s="17"/>
       <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
@@ -2948,32 +3303,33 @@
         <f>Sheet3!M29</f>
         <v>0</v>
       </c>
-      <c r="AC29" s="6">
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="6">
+        <f>COUNTIF(C29:L29,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="6">
+        <f>COUNTIF(C29:L29,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="6">
+        <f>COUNTIF(C29:L29,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD29" s="6">
+      <c r="AH29" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE29" s="6">
+      <c r="AI29" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF29" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH29" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" ht="15" customHeight="1">
+    </row>
+    <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="19"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
@@ -2986,11 +3342,11 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="7">
+      <c r="M30" s="7">
         <f>Sheet3!H30</f>
         <v>0</v>
       </c>
+      <c r="N30" s="21"/>
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
@@ -3008,32 +3364,33 @@
         <f>Sheet3!M30</f>
         <v>0</v>
       </c>
-      <c r="AC30" s="6">
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="6">
+        <f>COUNTIF(C30:L30,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="6">
+        <f>COUNTIF(C30:L30,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="6">
+        <f>COUNTIF(C30:L30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD30" s="6">
+      <c r="AH30" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="6">
+      <c r="AI30" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF30" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH30" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" ht="15" customHeight="1">
+    </row>
+    <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="19"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
@@ -3046,11 +3403,11 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="7">
+      <c r="M31" s="7">
         <f>Sheet3!H31</f>
         <v>0</v>
       </c>
+      <c r="N31" s="21"/>
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
@@ -3068,32 +3425,33 @@
         <f>Sheet3!M31</f>
         <v>0</v>
       </c>
-      <c r="AC31" s="6">
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="6">
+        <f>COUNTIF(C31:L31,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="6">
+        <f>COUNTIF(C31:L31,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="6">
+        <f>COUNTIF(C31:L31,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD31" s="6">
+      <c r="AH31" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE31" s="6">
+      <c r="AI31" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF31" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH31" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" ht="15" customHeight="1">
+    </row>
+    <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="19"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
@@ -3106,11 +3464,11 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="7">
+      <c r="M32" s="7">
         <f>Sheet3!H32</f>
         <v>0</v>
       </c>
+      <c r="N32" s="21"/>
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
@@ -3128,28 +3486,29 @@
         <f>Sheet3!M32</f>
         <v>0</v>
       </c>
-      <c r="AC32" s="6">
+      <c r="AC32" s="21"/>
+      <c r="AD32" s="6">
+        <f>COUNTIF(C32:L32,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="6">
+        <f>COUNTIF(C32:L32,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="6">
+        <f>COUNTIF(C32:L32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD32" s="6">
+      <c r="AH32" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="6">
+      <c r="AI32" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG32" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH32" s="6">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3166,7 +3525,6 @@
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
@@ -3202,26 +3560,23 @@
       <dataRef ref="AB4" sheet="Sheet1"/>
     </dataRefs>
   </dataConsolidate>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="C2:L3"/>
+    <mergeCell ref="O2:AA3"/>
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="AD2:AI3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="C2:M3"/>
-    <mergeCell ref="O2:AA3"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="AC2:AH3"/>
+    <mergeCell ref="AC2:AC3"/>
   </mergeCells>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="M4">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="lessThan">
       <formula>0.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N32">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB4:AB32">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="M4:M32 AB4:AB32">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3270,19 +3625,19 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75">
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="30">
@@ -3330,19 +3685,19 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <f>Sheet1!AC4+Sheet1!AD4+Sheet1!AE4</f>
+        <f>Sheet1!AD4+Sheet1!AE4+Sheet1!AF4</f>
         <v>5</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(Sheet1!C4:M4,1)</f>
+        <f>COUNTIF(Sheet1!C4:L4,1)</f>
         <v>1</v>
       </c>
       <c r="F4">
-        <f>COUNTIF(Sheet1!C4:M4,2)</f>
+        <f>COUNTIF(Sheet1!C4:L4,2)</f>
         <v>2</v>
       </c>
       <c r="G4">
-        <f>Sheet1!AE4</f>
+        <f>Sheet1!AF4</f>
         <v>2</v>
       </c>
       <c r="H4">
@@ -3350,19 +3705,19 @@
         <v>0.75</v>
       </c>
       <c r="I4">
-        <f>Sheet1!AF4+Sheet1!AG4+Sheet1!AH4</f>
+        <f>Sheet1!AG4+Sheet1!AH4+Sheet1!AI4</f>
         <v>10</v>
       </c>
       <c r="J4">
-        <f>Sheet1!AF4</f>
-        <v>4</v>
-      </c>
-      <c r="K4">
         <f>Sheet1!AG4</f>
         <v>4</v>
       </c>
+      <c r="K4">
+        <f>Sheet1!AH4</f>
+        <v>4</v>
+      </c>
       <c r="L4">
-        <f>Sheet1!AH4</f>
+        <f>Sheet1!AI4</f>
         <v>2</v>
       </c>
       <c r="M4">
@@ -3383,19 +3738,19 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <f>Sheet1!AC5+Sheet1!AD5+Sheet1!AE5</f>
+        <f>Sheet1!AD5+Sheet1!AE5+Sheet1!AF5</f>
         <v>4</v>
       </c>
       <c r="E5">
-        <f>COUNTIF(Sheet1!C5:M5,1)</f>
+        <f>COUNTIF(Sheet1!C5:L5,1)</f>
         <v>1</v>
       </c>
       <c r="F5">
-        <f>COUNTIF(Sheet1!C5:M5,2)</f>
+        <f>COUNTIF(Sheet1!C5:L5,2)</f>
         <v>3</v>
       </c>
       <c r="G5">
-        <f>Sheet1!AE5</f>
+        <f>Sheet1!AF5</f>
         <v>0</v>
       </c>
       <c r="H5">
@@ -3403,19 +3758,19 @@
         <v>3.1500000000000004</v>
       </c>
       <c r="I5">
-        <f>Sheet1!AF5+Sheet1!AG5+Sheet1!AH5</f>
+        <f>Sheet1!AG5+Sheet1!AH5+Sheet1!AI5</f>
         <v>10</v>
       </c>
       <c r="J5">
-        <f>Sheet1!AF5</f>
+        <f>Sheet1!AG5</f>
         <v>6</v>
       </c>
       <c r="K5">
-        <f>Sheet1!AG5</f>
+        <f>Sheet1!AH5</f>
         <v>1</v>
       </c>
       <c r="L5">
-        <f>Sheet1!AH5</f>
+        <f>Sheet1!AI5</f>
         <v>3</v>
       </c>
       <c r="M5">
@@ -3436,19 +3791,19 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <f>Sheet1!AC6+Sheet1!AD6+Sheet1!AE6</f>
+        <f>Sheet1!AD6+Sheet1!AE6+Sheet1!AF6</f>
         <v>9</v>
       </c>
       <c r="E6">
-        <f>COUNTIF(Sheet1!C6:M6,1)</f>
+        <f>COUNTIF(Sheet1!C6:L6,1)</f>
         <v>5</v>
       </c>
       <c r="F6">
-        <f>COUNTIF(Sheet1!C6:M6,2)</f>
+        <f>COUNTIF(Sheet1!C6:L6,2)</f>
         <v>4</v>
       </c>
       <c r="G6">
-        <f>Sheet1!AE6</f>
+        <f>Sheet1!AF6</f>
         <v>0</v>
       </c>
       <c r="H6">
@@ -3456,19 +3811,19 @@
         <v>5.85</v>
       </c>
       <c r="I6">
-        <f>Sheet1!AF6+Sheet1!AG6+Sheet1!AH6</f>
+        <f>Sheet1!AG6+Sheet1!AH6+Sheet1!AI6</f>
         <v>9</v>
       </c>
       <c r="J6">
-        <f>Sheet1!AF6</f>
+        <f>Sheet1!AG6</f>
         <v>2</v>
       </c>
       <c r="K6">
-        <f>Sheet1!AG6</f>
+        <f>Sheet1!AH6</f>
         <v>7</v>
       </c>
       <c r="L6">
-        <f>Sheet1!AH6</f>
+        <f>Sheet1!AI6</f>
         <v>0</v>
       </c>
       <c r="M6">
@@ -3489,19 +3844,19 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <f>Sheet1!AC7+Sheet1!AD7+Sheet1!AE7</f>
+        <f>Sheet1!AD7+Sheet1!AE7+Sheet1!AF7</f>
         <v>5</v>
       </c>
       <c r="E7">
-        <f>COUNTIF(Sheet1!C7:M7,1)</f>
+        <f>COUNTIF(Sheet1!C7:L7,1)</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>COUNTIF(Sheet1!C7:M7,2)</f>
+        <f>COUNTIF(Sheet1!C7:L7,2)</f>
         <v>4</v>
       </c>
       <c r="G7">
-        <f>Sheet1!AE7</f>
+        <f>Sheet1!AF7</f>
         <v>1</v>
       </c>
       <c r="H7">
@@ -3509,19 +3864,19 @@
         <v>2.85</v>
       </c>
       <c r="I7">
-        <f>Sheet1!AF7+Sheet1!AG7+Sheet1!AH7</f>
+        <f>Sheet1!AG7+Sheet1!AH7+Sheet1!AI7</f>
         <v>8</v>
       </c>
       <c r="J7">
-        <f>Sheet1!AF7</f>
+        <f>Sheet1!AG7</f>
         <v>2</v>
       </c>
       <c r="K7">
-        <f>Sheet1!AG7</f>
+        <f>Sheet1!AH7</f>
         <v>4</v>
       </c>
       <c r="L7">
-        <f>Sheet1!AH7</f>
+        <f>Sheet1!AI7</f>
         <v>2</v>
       </c>
       <c r="M7">
@@ -3542,19 +3897,19 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <f>Sheet1!AC8+Sheet1!AD8+Sheet1!AE8</f>
+        <f>Sheet1!AD8+Sheet1!AE8+Sheet1!AF8</f>
         <v>8</v>
       </c>
       <c r="E8">
-        <f>COUNTIF(Sheet1!C8:M8,1)</f>
+        <f>COUNTIF(Sheet1!C8:L8,1)</f>
         <v>3</v>
       </c>
       <c r="F8">
-        <f>COUNTIF(Sheet1!C8:M8,2)</f>
+        <f>COUNTIF(Sheet1!C8:L8,2)</f>
         <v>4</v>
       </c>
       <c r="G8">
-        <f>Sheet1!AE8</f>
+        <f>Sheet1!AF8</f>
         <v>1</v>
       </c>
       <c r="H8">
@@ -3562,19 +3917,19 @@
         <v>4.2</v>
       </c>
       <c r="I8">
-        <f>Sheet1!AF8+Sheet1!AG8+Sheet1!AH8</f>
+        <f>Sheet1!AG8+Sheet1!AH8+Sheet1!AI8</f>
         <v>6</v>
       </c>
       <c r="J8">
-        <f>Sheet1!AF8</f>
+        <f>Sheet1!AG8</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>Sheet1!AG8</f>
+        <f>Sheet1!AH8</f>
         <v>6</v>
       </c>
       <c r="L8">
-        <f>Sheet1!AH8</f>
+        <f>Sheet1!AI8</f>
         <v>0</v>
       </c>
       <c r="M8">
@@ -3595,19 +3950,19 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <f>Sheet1!AC9+Sheet1!AD9+Sheet1!AE9</f>
+        <f>Sheet1!AD9+Sheet1!AE9+Sheet1!AF9</f>
         <v>7</v>
       </c>
       <c r="E9">
-        <f>COUNTIF(Sheet1!C9:M9,1)</f>
+        <f>COUNTIF(Sheet1!C9:L9,1)</f>
         <v>2</v>
       </c>
       <c r="F9">
-        <f>COUNTIF(Sheet1!C9:M9,2)</f>
+        <f>COUNTIF(Sheet1!C9:L9,2)</f>
         <v>2</v>
       </c>
       <c r="G9">
-        <f>Sheet1!AE9</f>
+        <f>Sheet1!AF9</f>
         <v>3</v>
       </c>
       <c r="H9">
@@ -3615,19 +3970,19 @@
         <v>0.45000000000000007</v>
       </c>
       <c r="I9">
-        <f>Sheet1!AF9+Sheet1!AG9+Sheet1!AH9</f>
+        <f>Sheet1!AG9+Sheet1!AH9+Sheet1!AI9</f>
         <v>7</v>
       </c>
       <c r="J9">
-        <f>Sheet1!AF9</f>
+        <f>Sheet1!AG9</f>
         <v>1</v>
       </c>
       <c r="K9">
-        <f>Sheet1!AG9</f>
+        <f>Sheet1!AH9</f>
         <v>5</v>
       </c>
       <c r="L9">
-        <f>Sheet1!AH9</f>
+        <f>Sheet1!AI9</f>
         <v>1</v>
       </c>
       <c r="M9">
@@ -3648,19 +4003,19 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <f>Sheet1!AC10+Sheet1!AD10+Sheet1!AE10</f>
+        <f>Sheet1!AD10+Sheet1!AE10+Sheet1!AF10</f>
         <v>7</v>
       </c>
       <c r="E10">
-        <f>COUNTIF(Sheet1!C10:M10,1)</f>
+        <f>COUNTIF(Sheet1!C10:L10,1)</f>
         <v>2</v>
       </c>
       <c r="F10">
-        <f>COUNTIF(Sheet1!C10:M10,2)</f>
+        <f>COUNTIF(Sheet1!C10:L10,2)</f>
         <v>4</v>
       </c>
       <c r="G10">
-        <f>Sheet1!AE10</f>
+        <f>Sheet1!AF10</f>
         <v>1</v>
       </c>
       <c r="H10">
@@ -3668,19 +4023,19 @@
         <v>3.75</v>
       </c>
       <c r="I10">
-        <f>Sheet1!AF10+Sheet1!AG10+Sheet1!AH10</f>
+        <f>Sheet1!AG10+Sheet1!AH10+Sheet1!AI10</f>
         <v>8</v>
       </c>
       <c r="J10">
-        <f>Sheet1!AF10</f>
+        <f>Sheet1!AG10</f>
         <v>1</v>
       </c>
       <c r="K10">
-        <f>Sheet1!AG10</f>
+        <f>Sheet1!AH10</f>
         <v>7</v>
       </c>
       <c r="L10">
-        <f>Sheet1!AH10</f>
+        <f>Sheet1!AI10</f>
         <v>0</v>
       </c>
       <c r="M10">
@@ -3701,19 +4056,19 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <f>Sheet1!AC11+Sheet1!AD11+Sheet1!AE11</f>
+        <f>Sheet1!AD11+Sheet1!AE11+Sheet1!AF11</f>
         <v>4</v>
       </c>
       <c r="E11">
-        <f>COUNTIF(Sheet1!C11:M11,1)</f>
+        <f>COUNTIF(Sheet1!C11:L11,1)</f>
         <v>1</v>
       </c>
       <c r="F11">
-        <f>COUNTIF(Sheet1!C11:M11,2)</f>
+        <f>COUNTIF(Sheet1!C11:L11,2)</f>
         <v>3</v>
       </c>
       <c r="G11">
-        <f>Sheet1!AE11</f>
+        <f>Sheet1!AF11</f>
         <v>0</v>
       </c>
       <c r="H11">
@@ -3721,19 +4076,19 @@
         <v>3.1500000000000004</v>
       </c>
       <c r="I11">
-        <f>Sheet1!AF11+Sheet1!AG11+Sheet1!AH11</f>
+        <f>Sheet1!AG11+Sheet1!AH11+Sheet1!AI11</f>
         <v>5</v>
       </c>
       <c r="J11">
-        <f>Sheet1!AF11</f>
+        <f>Sheet1!AG11</f>
         <v>2</v>
       </c>
       <c r="K11">
-        <f>Sheet1!AG11</f>
+        <f>Sheet1!AH11</f>
         <v>2</v>
       </c>
       <c r="L11">
-        <f>Sheet1!AH11</f>
+        <f>Sheet1!AI11</f>
         <v>1</v>
       </c>
       <c r="M11">
@@ -3754,19 +4109,19 @@
         <v>9</v>
       </c>
       <c r="D12">
-        <f>Sheet1!AC12+Sheet1!AD12+Sheet1!AE12</f>
+        <f>Sheet1!AD12+Sheet1!AE12+Sheet1!AF12</f>
         <v>6</v>
       </c>
       <c r="E12">
-        <f>COUNTIF(Sheet1!C12:M12,1)</f>
+        <f>COUNTIF(Sheet1!C12:L12,1)</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>COUNTIF(Sheet1!C12:M12,2)</f>
+        <f>COUNTIF(Sheet1!C12:L12,2)</f>
         <v>6</v>
       </c>
       <c r="G12">
-        <f>Sheet1!AE12</f>
+        <f>Sheet1!AF12</f>
         <v>0</v>
       </c>
       <c r="H12">
@@ -3774,19 +4129,19 @@
         <v>5.4</v>
       </c>
       <c r="I12">
-        <f>Sheet1!AF12+Sheet1!AG12+Sheet1!AH12</f>
+        <f>Sheet1!AG12+Sheet1!AH12+Sheet1!AI12</f>
         <v>9</v>
       </c>
       <c r="J12">
-        <f>Sheet1!AF12</f>
-        <v>4</v>
-      </c>
-      <c r="K12">
         <f>Sheet1!AG12</f>
         <v>4</v>
       </c>
+      <c r="K12">
+        <f>Sheet1!AH12</f>
+        <v>4</v>
+      </c>
       <c r="L12">
-        <f>Sheet1!AH12</f>
+        <f>Sheet1!AI12</f>
         <v>1</v>
       </c>
       <c r="M12">
@@ -3807,19 +4162,19 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <f>Sheet1!AC13+Sheet1!AD13+Sheet1!AE13</f>
+        <f>Sheet1!AD13+Sheet1!AE13+Sheet1!AF13</f>
         <v>4</v>
       </c>
       <c r="E13">
-        <f>COUNTIF(Sheet1!C13:M13,1)</f>
+        <f>COUNTIF(Sheet1!C13:L13,1)</f>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>COUNTIF(Sheet1!C13:M13,2)</f>
+        <f>COUNTIF(Sheet1!C13:L13,2)</f>
         <v>3</v>
       </c>
       <c r="G13">
-        <f>Sheet1!AE13</f>
+        <f>Sheet1!AF13</f>
         <v>1</v>
       </c>
       <c r="H13">
@@ -3827,19 +4182,19 @@
         <v>1.9500000000000002</v>
       </c>
       <c r="I13">
-        <f>Sheet1!AF13+Sheet1!AG13+Sheet1!AH13</f>
+        <f>Sheet1!AG13+Sheet1!AH13+Sheet1!AI13</f>
         <v>8</v>
       </c>
       <c r="J13">
-        <f>Sheet1!AF13</f>
+        <f>Sheet1!AG13</f>
         <v>0</v>
       </c>
       <c r="K13">
-        <f>Sheet1!AG13</f>
+        <f>Sheet1!AH13</f>
         <v>8</v>
       </c>
       <c r="L13">
-        <f>Sheet1!AH13</f>
+        <f>Sheet1!AI13</f>
         <v>0</v>
       </c>
       <c r="M13">
@@ -3860,19 +4215,19 @@
         <v>11</v>
       </c>
       <c r="D14">
-        <f>Sheet1!AC14+Sheet1!AD14+Sheet1!AE14</f>
+        <f>Sheet1!AD14+Sheet1!AE14+Sheet1!AF14</f>
         <v>4</v>
       </c>
       <c r="E14">
-        <f>COUNTIF(Sheet1!C14:M14,1)</f>
+        <f>COUNTIF(Sheet1!C14:L14,1)</f>
         <v>2</v>
       </c>
       <c r="F14">
-        <f>COUNTIF(Sheet1!C14:M14,2)</f>
+        <f>COUNTIF(Sheet1!C14:L14,2)</f>
         <v>2</v>
       </c>
       <c r="G14">
-        <f>Sheet1!AE14</f>
+        <f>Sheet1!AF14</f>
         <v>0</v>
       </c>
       <c r="H14">
@@ -3880,19 +4235,19 @@
         <v>2.7</v>
       </c>
       <c r="I14">
-        <f>Sheet1!AF14+Sheet1!AG14+Sheet1!AH14</f>
+        <f>Sheet1!AG14+Sheet1!AH14+Sheet1!AI14</f>
         <v>6</v>
       </c>
       <c r="J14">
-        <f>Sheet1!AF14</f>
+        <f>Sheet1!AG14</f>
         <v>0</v>
       </c>
       <c r="K14">
-        <f>Sheet1!AG14</f>
+        <f>Sheet1!AH14</f>
         <v>4</v>
       </c>
       <c r="L14">
-        <f>Sheet1!AH14</f>
+        <f>Sheet1!AI14</f>
         <v>2</v>
       </c>
       <c r="M14">
@@ -3913,19 +4268,19 @@
         <v>12</v>
       </c>
       <c r="D15">
-        <f>Sheet1!AC15+Sheet1!AD15+Sheet1!AE15</f>
+        <f>Sheet1!AD15+Sheet1!AE15+Sheet1!AF15</f>
         <v>4</v>
       </c>
       <c r="E15">
-        <f>COUNTIF(Sheet1!C15:M15,1)</f>
+        <f>COUNTIF(Sheet1!C15:L15,1)</f>
         <v>0</v>
       </c>
       <c r="F15">
-        <f>COUNTIF(Sheet1!C15:M15,2)</f>
+        <f>COUNTIF(Sheet1!C15:L15,2)</f>
         <v>4</v>
       </c>
       <c r="G15">
-        <f>Sheet1!AE15</f>
+        <f>Sheet1!AF15</f>
         <v>0</v>
       </c>
       <c r="H15">
@@ -3933,19 +4288,19 @@
         <v>3.6</v>
       </c>
       <c r="I15">
-        <f>Sheet1!AF15+Sheet1!AG15+Sheet1!AH15</f>
+        <f>Sheet1!AG15+Sheet1!AH15+Sheet1!AI15</f>
         <v>4</v>
       </c>
       <c r="J15">
-        <f>Sheet1!AF15</f>
+        <f>Sheet1!AG15</f>
         <v>0</v>
       </c>
       <c r="K15">
-        <f>Sheet1!AG15</f>
+        <f>Sheet1!AH15</f>
         <v>3</v>
       </c>
       <c r="L15">
-        <f>Sheet1!AH15</f>
+        <f>Sheet1!AI15</f>
         <v>1</v>
       </c>
       <c r="M15">
@@ -3966,19 +4321,19 @@
         <v>13</v>
       </c>
       <c r="D16">
-        <f>Sheet1!AC16+Sheet1!AD16+Sheet1!AE16</f>
+        <f>Sheet1!AD16+Sheet1!AE16+Sheet1!AF16</f>
         <v>4</v>
       </c>
       <c r="E16">
-        <f>COUNTIF(Sheet1!C16:M16,1)</f>
+        <f>COUNTIF(Sheet1!C16:L16,1)</f>
         <v>1</v>
       </c>
       <c r="F16">
-        <f>COUNTIF(Sheet1!C16:M16,2)</f>
+        <f>COUNTIF(Sheet1!C16:L16,2)</f>
         <v>2</v>
       </c>
       <c r="G16">
-        <f>Sheet1!AE16</f>
+        <f>Sheet1!AF16</f>
         <v>1</v>
       </c>
       <c r="H16">
@@ -3986,19 +4341,19 @@
         <v>1.5</v>
       </c>
       <c r="I16">
-        <f>Sheet1!AF16+Sheet1!AG16+Sheet1!AH16</f>
+        <f>Sheet1!AG16+Sheet1!AH16+Sheet1!AI16</f>
         <v>5</v>
       </c>
       <c r="J16">
-        <f>Sheet1!AF16</f>
+        <f>Sheet1!AG16</f>
         <v>0</v>
       </c>
       <c r="K16">
-        <f>Sheet1!AG16</f>
+        <f>Sheet1!AH16</f>
         <v>3</v>
       </c>
       <c r="L16">
-        <f>Sheet1!AH16</f>
+        <f>Sheet1!AI16</f>
         <v>2</v>
       </c>
       <c r="M16">
@@ -4019,19 +4374,19 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <f>Sheet1!AC17+Sheet1!AD17+Sheet1!AE17</f>
+        <f>Sheet1!AD17+Sheet1!AE17+Sheet1!AF17</f>
         <v>8</v>
       </c>
       <c r="E17">
-        <f>COUNTIF(Sheet1!C17:M17,1)</f>
+        <f>COUNTIF(Sheet1!C17:L17,1)</f>
         <v>1</v>
       </c>
       <c r="F17">
-        <f>COUNTIF(Sheet1!C17:M17,2)</f>
+        <f>COUNTIF(Sheet1!C17:L17,2)</f>
         <v>5</v>
       </c>
       <c r="G17">
-        <f>Sheet1!AE17</f>
+        <f>Sheet1!AF17</f>
         <v>2</v>
       </c>
       <c r="H17">
@@ -4039,19 +4394,19 @@
         <v>3.45</v>
       </c>
       <c r="I17">
-        <f>Sheet1!AF17+Sheet1!AG17+Sheet1!AH17</f>
+        <f>Sheet1!AG17+Sheet1!AH17+Sheet1!AI17</f>
         <v>9</v>
       </c>
       <c r="J17">
-        <f>Sheet1!AF17</f>
+        <f>Sheet1!AG17</f>
         <v>3</v>
       </c>
       <c r="K17">
-        <f>Sheet1!AG17</f>
+        <f>Sheet1!AH17</f>
         <v>4</v>
       </c>
       <c r="L17">
-        <f>Sheet1!AH17</f>
+        <f>Sheet1!AI17</f>
         <v>2</v>
       </c>
       <c r="M17">
@@ -4072,19 +4427,19 @@
         <v>15</v>
       </c>
       <c r="D18">
-        <f>Sheet1!AC18+Sheet1!AD18+Sheet1!AE18</f>
+        <f>Sheet1!AD18+Sheet1!AE18+Sheet1!AF18</f>
         <v>6</v>
       </c>
       <c r="E18">
-        <f>COUNTIF(Sheet1!C18:M18,1)</f>
+        <f>COUNTIF(Sheet1!C18:L18,1)</f>
         <v>3</v>
       </c>
       <c r="F18">
-        <f>COUNTIF(Sheet1!C18:M18,2)</f>
+        <f>COUNTIF(Sheet1!C18:L18,2)</f>
         <v>3</v>
       </c>
       <c r="G18">
-        <f>Sheet1!AE18</f>
+        <f>Sheet1!AF18</f>
         <v>0</v>
       </c>
       <c r="H18">
@@ -4092,19 +4447,19 @@
         <v>4.0500000000000007</v>
       </c>
       <c r="I18">
-        <f>Sheet1!AF18+Sheet1!AG18+Sheet1!AH18</f>
+        <f>Sheet1!AG18+Sheet1!AH18+Sheet1!AI18</f>
         <v>0</v>
       </c>
       <c r="J18">
-        <f>Sheet1!AF18</f>
+        <f>Sheet1!AG18</f>
         <v>0</v>
       </c>
       <c r="K18">
-        <f>Sheet1!AG18</f>
+        <f>Sheet1!AH18</f>
         <v>0</v>
       </c>
       <c r="L18">
-        <f>Sheet1!AH18</f>
+        <f>Sheet1!AI18</f>
         <v>0</v>
       </c>
       <c r="M18">
@@ -4125,19 +4480,19 @@
         <v>16</v>
       </c>
       <c r="D19">
-        <f>Sheet1!AC19+Sheet1!AD19+Sheet1!AE19</f>
+        <f>Sheet1!AD19+Sheet1!AE19+Sheet1!AF19</f>
         <v>0</v>
       </c>
       <c r="E19">
-        <f>COUNTIF(Sheet1!C19:M19,1)</f>
+        <f>COUNTIF(Sheet1!C19:L19,1)</f>
         <v>0</v>
       </c>
       <c r="F19">
-        <f>COUNTIF(Sheet1!C19:M19,2)</f>
+        <f>COUNTIF(Sheet1!C19:L19,2)</f>
         <v>0</v>
       </c>
       <c r="G19">
-        <f>Sheet1!AE19</f>
+        <f>Sheet1!AF19</f>
         <v>0</v>
       </c>
       <c r="H19">
@@ -4145,19 +4500,19 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <f>Sheet1!AF19+Sheet1!AG19+Sheet1!AH19</f>
+        <f>Sheet1!AG19+Sheet1!AH19+Sheet1!AI19</f>
         <v>0</v>
       </c>
       <c r="J19">
-        <f>Sheet1!AF19</f>
+        <f>Sheet1!AG19</f>
         <v>0</v>
       </c>
       <c r="K19">
-        <f>Sheet1!AG19</f>
+        <f>Sheet1!AH19</f>
         <v>0</v>
       </c>
       <c r="L19">
-        <f>Sheet1!AH19</f>
+        <f>Sheet1!AI19</f>
         <v>0</v>
       </c>
       <c r="M19">
@@ -4178,19 +4533,19 @@
         <v>17</v>
       </c>
       <c r="D20">
-        <f>Sheet1!AC20+Sheet1!AD20+Sheet1!AE20</f>
+        <f>Sheet1!AD20+Sheet1!AE20+Sheet1!AF20</f>
         <v>0</v>
       </c>
       <c r="E20">
-        <f>COUNTIF(Sheet1!C20:M20,1)</f>
+        <f>COUNTIF(Sheet1!C20:L20,1)</f>
         <v>0</v>
       </c>
       <c r="F20">
-        <f>COUNTIF(Sheet1!C20:M20,2)</f>
+        <f>COUNTIF(Sheet1!C20:L20,2)</f>
         <v>0</v>
       </c>
       <c r="G20">
-        <f>Sheet1!AE20</f>
+        <f>Sheet1!AF20</f>
         <v>0</v>
       </c>
       <c r="H20">
@@ -4198,19 +4553,19 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f>Sheet1!AF20+Sheet1!AG20+Sheet1!AH20</f>
+        <f>Sheet1!AG20+Sheet1!AH20+Sheet1!AI20</f>
         <v>0</v>
       </c>
       <c r="J20">
-        <f>Sheet1!AF20</f>
+        <f>Sheet1!AG20</f>
         <v>0</v>
       </c>
       <c r="K20">
-        <f>Sheet1!AG20</f>
+        <f>Sheet1!AH20</f>
         <v>0</v>
       </c>
       <c r="L20">
-        <f>Sheet1!AH20</f>
+        <f>Sheet1!AI20</f>
         <v>0</v>
       </c>
       <c r="M20">
@@ -4231,19 +4586,19 @@
         <v>18</v>
       </c>
       <c r="D21">
-        <f>Sheet1!AC21+Sheet1!AD21+Sheet1!AE21</f>
+        <f>Sheet1!AD21+Sheet1!AE21+Sheet1!AF21</f>
         <v>0</v>
       </c>
       <c r="E21">
-        <f>COUNTIF(Sheet1!C21:M21,1)</f>
+        <f>COUNTIF(Sheet1!C21:L21,1)</f>
         <v>0</v>
       </c>
       <c r="F21">
-        <f>COUNTIF(Sheet1!C21:M21,2)</f>
+        <f>COUNTIF(Sheet1!C21:L21,2)</f>
         <v>0</v>
       </c>
       <c r="G21">
-        <f>Sheet1!AE21</f>
+        <f>Sheet1!AF21</f>
         <v>0</v>
       </c>
       <c r="H21">
@@ -4251,19 +4606,19 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <f>Sheet1!AF21+Sheet1!AG21+Sheet1!AH21</f>
+        <f>Sheet1!AG21+Sheet1!AH21+Sheet1!AI21</f>
         <v>0</v>
       </c>
       <c r="J21">
-        <f>Sheet1!AF21</f>
+        <f>Sheet1!AG21</f>
         <v>0</v>
       </c>
       <c r="K21">
-        <f>Sheet1!AG21</f>
+        <f>Sheet1!AH21</f>
         <v>0</v>
       </c>
       <c r="L21">
-        <f>Sheet1!AH21</f>
+        <f>Sheet1!AI21</f>
         <v>0</v>
       </c>
       <c r="M21">
@@ -4284,35 +4639,35 @@
         <v>19</v>
       </c>
       <c r="D22">
-        <f>Sheet1!AC22+Sheet1!AD22+Sheet1!AE22</f>
+        <f>Sheet1!AD22+Sheet1!AE22+Sheet1!AF22</f>
         <v>0</v>
       </c>
       <c r="E22">
-        <f>Sheet1!AC22</f>
+        <f>Sheet1!AD22</f>
         <v>0</v>
       </c>
       <c r="F22">
-        <f>Sheet1!AD22</f>
+        <f>Sheet1!AE22</f>
         <v>0</v>
       </c>
       <c r="G22">
-        <f>Sheet1!AE22</f>
+        <f>Sheet1!AF22</f>
         <v>0</v>
       </c>
       <c r="I22">
-        <f>Sheet1!AF22+Sheet1!AG22+Sheet1!AH22</f>
+        <f>Sheet1!AG22+Sheet1!AH22+Sheet1!AI22</f>
         <v>0</v>
       </c>
       <c r="J22">
-        <f>Sheet1!AF22</f>
+        <f>Sheet1!AG22</f>
         <v>0</v>
       </c>
       <c r="K22">
-        <f>Sheet1!AG22</f>
+        <f>Sheet1!AH22</f>
         <v>0</v>
       </c>
       <c r="L22">
-        <f>Sheet1!AH22</f>
+        <f>Sheet1!AI22</f>
         <v>0</v>
       </c>
       <c r="M22">
@@ -4333,35 +4688,35 @@
         <v>20</v>
       </c>
       <c r="D23">
-        <f>Sheet1!AC23+Sheet1!AD23+Sheet1!AE23</f>
+        <f>Sheet1!AD23+Sheet1!AE23+Sheet1!AF23</f>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>Sheet1!AC23</f>
+        <f>Sheet1!AD23</f>
         <v>0</v>
       </c>
       <c r="F23">
-        <f>Sheet1!AD23</f>
+        <f>Sheet1!AE23</f>
         <v>0</v>
       </c>
       <c r="G23">
-        <f>Sheet1!AE23</f>
+        <f>Sheet1!AF23</f>
         <v>0</v>
       </c>
       <c r="I23">
-        <f>Sheet1!AF23+Sheet1!AG23+Sheet1!AH23</f>
+        <f>Sheet1!AG23+Sheet1!AH23+Sheet1!AI23</f>
         <v>0</v>
       </c>
       <c r="J23">
-        <f>Sheet1!AF23</f>
+        <f>Sheet1!AG23</f>
         <v>0</v>
       </c>
       <c r="K23">
-        <f>Sheet1!AG23</f>
+        <f>Sheet1!AH23</f>
         <v>0</v>
       </c>
       <c r="L23">
-        <f>Sheet1!AH23</f>
+        <f>Sheet1!AI23</f>
         <v>0</v>
       </c>
       <c r="M23">
@@ -4382,35 +4737,35 @@
         <v>21</v>
       </c>
       <c r="D24">
-        <f>Sheet1!AC24+Sheet1!AD24+Sheet1!AE24</f>
+        <f>Sheet1!AD24+Sheet1!AE24+Sheet1!AF24</f>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>Sheet1!AC24</f>
+        <f>Sheet1!AD24</f>
         <v>0</v>
       </c>
       <c r="F24">
-        <f>Sheet1!AD24</f>
+        <f>Sheet1!AE24</f>
         <v>0</v>
       </c>
       <c r="G24">
-        <f>Sheet1!AE24</f>
+        <f>Sheet1!AF24</f>
         <v>0</v>
       </c>
       <c r="I24">
-        <f>Sheet1!AF24+Sheet1!AG24+Sheet1!AH24</f>
+        <f>Sheet1!AG24+Sheet1!AH24+Sheet1!AI24</f>
         <v>0</v>
       </c>
       <c r="J24">
-        <f>Sheet1!AF24</f>
+        <f>Sheet1!AG24</f>
         <v>0</v>
       </c>
       <c r="K24">
-        <f>Sheet1!AG24</f>
+        <f>Sheet1!AH24</f>
         <v>0</v>
       </c>
       <c r="L24">
-        <f>Sheet1!AH24</f>
+        <f>Sheet1!AI24</f>
         <v>0</v>
       </c>
       <c r="M24">
@@ -4431,35 +4786,35 @@
         <v>22</v>
       </c>
       <c r="D25">
-        <f>Sheet1!AC25+Sheet1!AD25+Sheet1!AE25</f>
+        <f>Sheet1!AD25+Sheet1!AE25+Sheet1!AF25</f>
         <v>0</v>
       </c>
       <c r="E25">
-        <f>Sheet1!AC25</f>
+        <f>Sheet1!AD25</f>
         <v>0</v>
       </c>
       <c r="F25">
-        <f>Sheet1!AD25</f>
+        <f>Sheet1!AE25</f>
         <v>0</v>
       </c>
       <c r="G25">
-        <f>Sheet1!AE25</f>
+        <f>Sheet1!AF25</f>
         <v>0</v>
       </c>
       <c r="I25">
-        <f>Sheet1!AF25+Sheet1!AG25+Sheet1!AH25</f>
+        <f>Sheet1!AG25+Sheet1!AH25+Sheet1!AI25</f>
         <v>0</v>
       </c>
       <c r="J25">
-        <f>Sheet1!AF25</f>
+        <f>Sheet1!AG25</f>
         <v>0</v>
       </c>
       <c r="K25">
-        <f>Sheet1!AG25</f>
+        <f>Sheet1!AH25</f>
         <v>0</v>
       </c>
       <c r="L25">
-        <f>Sheet1!AH25</f>
+        <f>Sheet1!AI25</f>
         <v>0</v>
       </c>
       <c r="M25">
@@ -4480,35 +4835,35 @@
         <v>23</v>
       </c>
       <c r="D26">
-        <f>Sheet1!AC26+Sheet1!AD26+Sheet1!AE26</f>
+        <f>Sheet1!AD26+Sheet1!AE26+Sheet1!AF26</f>
         <v>0</v>
       </c>
       <c r="E26">
-        <f>Sheet1!AC26</f>
+        <f>Sheet1!AD26</f>
         <v>0</v>
       </c>
       <c r="F26">
-        <f>Sheet1!AD26</f>
+        <f>Sheet1!AE26</f>
         <v>0</v>
       </c>
       <c r="G26">
-        <f>Sheet1!AE26</f>
+        <f>Sheet1!AF26</f>
         <v>0</v>
       </c>
       <c r="I26">
-        <f>Sheet1!AF26+Sheet1!AG26+Sheet1!AH26</f>
+        <f>Sheet1!AG26+Sheet1!AH26+Sheet1!AI26</f>
         <v>0</v>
       </c>
       <c r="J26">
-        <f>Sheet1!AF26</f>
+        <f>Sheet1!AG26</f>
         <v>0</v>
       </c>
       <c r="K26">
-        <f>Sheet1!AG26</f>
+        <f>Sheet1!AH26</f>
         <v>0</v>
       </c>
       <c r="L26">
-        <f>Sheet1!AH26</f>
+        <f>Sheet1!AI26</f>
         <v>0</v>
       </c>
       <c r="M26">
@@ -4529,35 +4884,35 @@
         <v>24</v>
       </c>
       <c r="D27">
-        <f>Sheet1!AC27+Sheet1!AD27+Sheet1!AE27</f>
+        <f>Sheet1!AD27+Sheet1!AE27+Sheet1!AF27</f>
         <v>0</v>
       </c>
       <c r="E27">
-        <f>Sheet1!AC27</f>
+        <f>Sheet1!AD27</f>
         <v>0</v>
       </c>
       <c r="F27">
-        <f>Sheet1!AD27</f>
+        <f>Sheet1!AE27</f>
         <v>0</v>
       </c>
       <c r="G27">
-        <f>Sheet1!AE27</f>
+        <f>Sheet1!AF27</f>
         <v>0</v>
       </c>
       <c r="I27">
-        <f>Sheet1!AF27+Sheet1!AG27+Sheet1!AH27</f>
+        <f>Sheet1!AG27+Sheet1!AH27+Sheet1!AI27</f>
         <v>0</v>
       </c>
       <c r="J27">
-        <f>Sheet1!AF27</f>
+        <f>Sheet1!AG27</f>
         <v>0</v>
       </c>
       <c r="K27">
-        <f>Sheet1!AG27</f>
+        <f>Sheet1!AH27</f>
         <v>0</v>
       </c>
       <c r="L27">
-        <f>Sheet1!AH27</f>
+        <f>Sheet1!AI27</f>
         <v>0</v>
       </c>
       <c r="M27">
@@ -4578,35 +4933,35 @@
         <v>25</v>
       </c>
       <c r="D28">
-        <f>Sheet1!AC28+Sheet1!AD28+Sheet1!AE28</f>
+        <f>Sheet1!AD28+Sheet1!AE28+Sheet1!AF28</f>
         <v>0</v>
       </c>
       <c r="E28">
-        <f>Sheet1!AC28</f>
+        <f>Sheet1!AD28</f>
         <v>0</v>
       </c>
       <c r="F28">
-        <f>Sheet1!AD28</f>
+        <f>Sheet1!AE28</f>
         <v>0</v>
       </c>
       <c r="G28">
-        <f>Sheet1!AE28</f>
+        <f>Sheet1!AF28</f>
         <v>0</v>
       </c>
       <c r="I28">
-        <f>Sheet1!AF28+Sheet1!AG28+Sheet1!AH28</f>
+        <f>Sheet1!AG28+Sheet1!AH28+Sheet1!AI28</f>
         <v>0</v>
       </c>
       <c r="J28">
-        <f>Sheet1!AF28</f>
+        <f>Sheet1!AG28</f>
         <v>0</v>
       </c>
       <c r="K28">
-        <f>Sheet1!AG28</f>
+        <f>Sheet1!AH28</f>
         <v>0</v>
       </c>
       <c r="L28">
-        <f>Sheet1!AH28</f>
+        <f>Sheet1!AI28</f>
         <v>0</v>
       </c>
       <c r="M28">
@@ -4627,35 +4982,35 @@
         <v>26</v>
       </c>
       <c r="D29">
-        <f>Sheet1!AC29+Sheet1!AD29+Sheet1!AE29</f>
+        <f>Sheet1!AD29+Sheet1!AE29+Sheet1!AF29</f>
         <v>0</v>
       </c>
       <c r="E29">
-        <f>Sheet1!AC29</f>
+        <f>Sheet1!AD29</f>
         <v>0</v>
       </c>
       <c r="F29">
-        <f>Sheet1!AD29</f>
+        <f>Sheet1!AE29</f>
         <v>0</v>
       </c>
       <c r="G29">
-        <f>Sheet1!AE29</f>
+        <f>Sheet1!AF29</f>
         <v>0</v>
       </c>
       <c r="I29">
-        <f>Sheet1!AF29+Sheet1!AG29+Sheet1!AH29</f>
+        <f>Sheet1!AG29+Sheet1!AH29+Sheet1!AI29</f>
         <v>0</v>
       </c>
       <c r="J29">
-        <f>Sheet1!AF29</f>
+        <f>Sheet1!AG29</f>
         <v>0</v>
       </c>
       <c r="K29">
-        <f>Sheet1!AG29</f>
+        <f>Sheet1!AH29</f>
         <v>0</v>
       </c>
       <c r="L29">
-        <f>Sheet1!AH29</f>
+        <f>Sheet1!AI29</f>
         <v>0</v>
       </c>
       <c r="M29">
@@ -4676,35 +5031,35 @@
         <v>27</v>
       </c>
       <c r="D30">
-        <f>Sheet1!AC30+Sheet1!AD30+Sheet1!AE30</f>
+        <f>Sheet1!AD30+Sheet1!AE30+Sheet1!AF30</f>
         <v>0</v>
       </c>
       <c r="E30">
-        <f>Sheet1!AC30</f>
+        <f>Sheet1!AD30</f>
         <v>0</v>
       </c>
       <c r="F30">
-        <f>Sheet1!AD30</f>
+        <f>Sheet1!AE30</f>
         <v>0</v>
       </c>
       <c r="G30">
-        <f>Sheet1!AE30</f>
+        <f>Sheet1!AF30</f>
         <v>0</v>
       </c>
       <c r="I30">
-        <f>Sheet1!AF30+Sheet1!AG30+Sheet1!AH30</f>
+        <f>Sheet1!AG30+Sheet1!AH30+Sheet1!AI30</f>
         <v>0</v>
       </c>
       <c r="J30">
-        <f>Sheet1!AF30</f>
+        <f>Sheet1!AG30</f>
         <v>0</v>
       </c>
       <c r="K30">
-        <f>Sheet1!AG30</f>
+        <f>Sheet1!AH30</f>
         <v>0</v>
       </c>
       <c r="L30">
-        <f>Sheet1!AH30</f>
+        <f>Sheet1!AI30</f>
         <v>0</v>
       </c>
       <c r="M30">
@@ -4723,12 +5078,12 @@
     <mergeCell ref="I2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A30">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B30">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/RAW CALCULATION.xlsx
+++ b/RAW CALCULATION.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\private\AppData\Roaming\MetaQuotes\Terminal\D895B9AE90436082D9C83665E7680538\MQL5\Profiles\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
@@ -10,9 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -91,11 +96,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +483,9 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -517,19 +525,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -539,35 +544,7 @@
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -585,246 +562,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1116,21 +853,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="4" customWidth="1"/>
@@ -1145,136 +882,136 @@
     <col min="29" max="29" width="8.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="28"/>
-    </row>
-    <row r="2" spans="1:47">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="29"/>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="22" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="22" t="s">
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="31"/>
-    </row>
-    <row r="3" spans="1:47" ht="15" customHeight="1">
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="32"/>
+    </row>
+    <row r="3" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="34"/>
-    </row>
-    <row r="4" spans="1:47" ht="15" customHeight="1">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+    </row>
+    <row r="4" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
@@ -1353,15 +1090,15 @@
       </c>
       <c r="AC4" s="21"/>
       <c r="AD4" s="6">
-        <f>COUNTIF(C4:L4,2)</f>
+        <f t="shared" ref="AD4:AD32" si="0">COUNTIF(C4:L4,2)</f>
         <v>2</v>
       </c>
       <c r="AE4" s="6">
-        <f>COUNTIF(C4:L4,1)</f>
+        <f t="shared" ref="AE4:AE32" si="1">COUNTIF(C4:L4,1)</f>
         <v>1</v>
       </c>
       <c r="AF4" s="6">
-        <f>COUNTIF(C4:L4,0)</f>
+        <f t="shared" ref="AF4:AF32" si="2">COUNTIF(C4:L4,0)</f>
         <v>2</v>
       </c>
       <c r="AG4" s="6">
@@ -1377,7 +1114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="15" customHeight="1">
+    <row r="5" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
@@ -1446,17 +1183,17 @@
         <f>Sheet3!M5</f>
         <v>1.35</v>
       </c>
-      <c r="AC5" s="39"/>
+      <c r="AC5" s="22"/>
       <c r="AD5" s="6">
-        <f>COUNTIF(C5:L5,2)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AE5" s="6">
-        <f>COUNTIF(C5:L5,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF5" s="6">
-        <f>COUNTIF(C5:L5,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG5" s="6">
@@ -1472,7 +1209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="15" customHeight="1">
+    <row r="6" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>15</v>
       </c>
@@ -1549,31 +1286,31 @@
       </c>
       <c r="AC6" s="21"/>
       <c r="AD6" s="6">
-        <f>COUNTIF(C6:L6,2)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AE6" s="6">
-        <f>COUNTIF(C6:L6,1)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AF6" s="6">
-        <f>COUNTIF(C6:L6,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG6" s="6">
-        <f t="shared" ref="AG5:AG32" si="0">COUNTIF($O6:$AA6,1)</f>
+        <f t="shared" ref="AG6:AG32" si="3">COUNTIF($O6:$AA6,1)</f>
         <v>2</v>
       </c>
       <c r="AH6" s="6">
-        <f t="shared" ref="AH5:AH32" si="1">COUNTIF($O6:$AA6,2)</f>
+        <f t="shared" ref="AH6:AH32" si="4">COUNTIF($O6:$AA6,2)</f>
         <v>7</v>
       </c>
       <c r="AI6" s="6">
-        <f t="shared" ref="AI5:AI32" si="2">COUNTIF($O6:$AA6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" ht="15" customHeight="1">
+        <f t="shared" ref="AI6:AI32" si="5">COUNTIF($O6:$AA6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>16</v>
       </c>
@@ -1640,31 +1377,31 @@
       </c>
       <c r="AC7" s="21"/>
       <c r="AD7" s="6">
-        <f>COUNTIF(C7:L7,2)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AE7" s="6">
-        <f>COUNTIF(C7:L7,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF7" s="6">
-        <f>COUNTIF(C7:L7,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AG7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AH7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AI7" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" ht="15" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>13</v>
       </c>
@@ -1733,31 +1470,31 @@
       </c>
       <c r="AC8" s="21"/>
       <c r="AD8" s="6">
-        <f>COUNTIF(C8:L8,2)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AE8" s="6">
-        <f>COUNTIF(C8:L8,1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AF8" s="6">
-        <f>COUNTIF(C8:L8,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AG8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AI8" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:47" ht="15" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>13</v>
       </c>
@@ -1792,7 +1529,7 @@
         <f>Sheet3!H9</f>
         <v>0.45000000000000007</v>
       </c>
-      <c r="N9" s="39"/>
+      <c r="N9" s="22"/>
       <c r="O9" s="17">
         <v>2</v>
       </c>
@@ -1826,27 +1563,27 @@
       </c>
       <c r="AC9" s="21"/>
       <c r="AD9" s="6">
-        <f>COUNTIF(C9:L9,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AE9" s="6">
-        <f>COUNTIF(C9:L9,1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AF9" s="6">
-        <f>COUNTIF(C9:L9,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AG9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AH9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AI9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AQ9" s="11"/>
@@ -1855,7 +1592,7 @@
       <c r="AT9" s="11"/>
       <c r="AU9" s="11"/>
     </row>
-    <row r="10" spans="1:47" ht="15" customHeight="1">
+    <row r="10" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>15</v>
       </c>
@@ -1926,27 +1663,27 @@
       </c>
       <c r="AC10" s="21"/>
       <c r="AD10" s="6">
-        <f>COUNTIF(C10:L10,2)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AE10" s="6">
-        <f>COUNTIF(C10:L10,1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AF10" s="6">
-        <f>COUNTIF(C10:L10,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AG10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AH10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="AI10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ10" s="11"/>
@@ -1955,7 +1692,7 @@
       <c r="AT10" s="11"/>
       <c r="AU10" s="11"/>
     </row>
-    <row r="11" spans="1:47" ht="15" customHeight="1">
+    <row r="11" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>13</v>
       </c>
@@ -2014,27 +1751,27 @@
       </c>
       <c r="AC11" s="21"/>
       <c r="AD11" s="6">
-        <f>COUNTIF(C11:L11,2)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AE11" s="6">
-        <f>COUNTIF(C11:L11,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF11" s="6">
-        <f>COUNTIF(C11:L11,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AH11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AI11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AQ11" s="11"/>
@@ -2043,7 +1780,7 @@
       <c r="AT11" s="11"/>
       <c r="AU11" s="11"/>
     </row>
-    <row r="12" spans="1:47" ht="15" customHeight="1">
+    <row r="12" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>18</v>
       </c>
@@ -2114,27 +1851,27 @@
       </c>
       <c r="AC12" s="21"/>
       <c r="AD12" s="6">
-        <f>COUNTIF(C12:L12,2)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="AE12" s="6">
-        <f>COUNTIF(C12:L12,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF12" s="6">
-        <f>COUNTIF(C12:L12,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AH12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AI12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AQ12" s="11"/>
@@ -2143,7 +1880,7 @@
       <c r="AT12" s="11"/>
       <c r="AU12" s="11"/>
     </row>
-    <row r="13" spans="1:47" ht="15" customHeight="1">
+    <row r="13" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>17</v>
       </c>
@@ -2208,31 +1945,31 @@
       </c>
       <c r="AC13" s="21"/>
       <c r="AD13" s="6">
-        <f>COUNTIF(C13:L13,2)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AE13" s="6">
-        <f>COUNTIF(C13:L13,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF13" s="6">
-        <f>COUNTIF(C13:L13,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AG13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="AI13" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:47" ht="15" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>13</v>
       </c>
@@ -2291,34 +2028,34 @@
         <f>Sheet3!M14</f>
         <v>2.1</v>
       </c>
-      <c r="AC14" s="39"/>
+      <c r="AC14" s="22"/>
       <c r="AD14" s="6">
-        <f>COUNTIF(C14:L14,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AE14" s="6">
-        <f>COUNTIF(C14:L14,1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AF14" s="6">
-        <f>COUNTIF(C14:L14,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AI14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AR14" s="11"/>
     </row>
-    <row r="15" spans="1:47" ht="15" customHeight="1">
+    <row r="15" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>19</v>
       </c>
@@ -2375,31 +2112,31 @@
       </c>
       <c r="AC15" s="21"/>
       <c r="AD15" s="6">
-        <f>COUNTIF(C15:L15,2)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AE15" s="6">
-        <f>COUNTIF(C15:L15,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF15" s="6">
-        <f>COUNTIF(C15:L15,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AI15" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:47" ht="15" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>13</v>
       </c>
@@ -2458,31 +2195,31 @@
       </c>
       <c r="AC16" s="21"/>
       <c r="AD16" s="6">
-        <f>COUNTIF(C16:L16,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AE16" s="6">
-        <f>COUNTIF(C16:L16,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF16" s="6">
-        <f>COUNTIF(C16:L16,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AG16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AI16" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>16</v>
       </c>
@@ -2555,33 +2292,33 @@
         <f>Sheet3!M17</f>
         <v>3.45</v>
       </c>
-      <c r="AC17" s="39"/>
+      <c r="AC17" s="22"/>
       <c r="AD17" s="6">
-        <f>COUNTIF(C17:L17,2)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AE17" s="6">
-        <f>COUNTIF(C17:L17,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF17" s="6">
-        <f>COUNTIF(C17:L17,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AG17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AH17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AI17" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
@@ -2634,33 +2371,35 @@
       </c>
       <c r="AC18" s="21"/>
       <c r="AD18" s="6">
-        <f>COUNTIF(C18:L18,2)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AE18" s="6">
-        <f>COUNTIF(C18:L18,1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AF18" s="6">
-        <f>COUNTIF(C18:L18,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
-      <c r="B19" s="14"/>
+      <c r="B19" s="14">
+        <v>45166</v>
+      </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -2695,33 +2434,35 @@
       </c>
       <c r="AC19" s="21"/>
       <c r="AD19" s="6">
-        <f>COUNTIF(C19:L19,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE19" s="6">
-        <f>COUNTIF(C19:L19,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF19" s="6">
-        <f>COUNTIF(C19:L19,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15">
+        <v>45167</v>
+      </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -2756,33 +2497,35 @@
       </c>
       <c r="AC20" s="21"/>
       <c r="AD20" s="6">
-        <f>COUNTIF(C20:L20,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE20" s="6">
-        <f>COUNTIF(C20:L20,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF20" s="6">
-        <f>COUNTIF(C20:L20,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI20" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="15">
+        <v>45168</v>
+      </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -2817,33 +2560,35 @@
       </c>
       <c r="AC21" s="21"/>
       <c r="AD21" s="6">
-        <f>COUNTIF(C21:L21,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE21" s="6">
-        <f>COUNTIF(C21:L21,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF21" s="6">
-        <f>COUNTIF(C21:L21,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI21" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
-      <c r="B22" s="15"/>
+      <c r="B22" s="15">
+        <v>45169</v>
+      </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -2878,33 +2623,35 @@
       </c>
       <c r="AC22" s="21"/>
       <c r="AD22" s="6">
-        <f>COUNTIF(C22:L22,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE22" s="6">
-        <f>COUNTIF(C22:L22,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF22" s="6">
-        <f>COUNTIF(C22:L22,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
-      <c r="B23" s="15"/>
+      <c r="B23" s="15">
+        <v>45170</v>
+      </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -2939,33 +2686,35 @@
       </c>
       <c r="AC23" s="21"/>
       <c r="AD23" s="6">
-        <f>COUNTIF(C23:L23,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE23" s="6">
-        <f>COUNTIF(C23:L23,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF23" s="6">
-        <f>COUNTIF(C23:L23,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI23" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
-      <c r="B24" s="14"/>
+      <c r="B24" s="14">
+        <v>45173</v>
+      </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -3000,33 +2749,35 @@
       </c>
       <c r="AC24" s="21"/>
       <c r="AD24" s="6">
-        <f>COUNTIF(C24:L24,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE24" s="6">
-        <f>COUNTIF(C24:L24,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF24" s="6">
-        <f>COUNTIF(C24:L24,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI24" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
-      <c r="B25" s="15"/>
+      <c r="B25" s="15">
+        <v>45174</v>
+      </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -3061,33 +2812,35 @@
       </c>
       <c r="AC25" s="21"/>
       <c r="AD25" s="6">
-        <f>COUNTIF(C25:L25,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE25" s="6">
-        <f>COUNTIF(C25:L25,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF25" s="6">
-        <f>COUNTIF(C25:L25,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
-      <c r="B26" s="15"/>
+      <c r="B26" s="15">
+        <v>45175</v>
+      </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -3122,33 +2875,35 @@
       </c>
       <c r="AC26" s="21"/>
       <c r="AD26" s="6">
-        <f>COUNTIF(C26:L26,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE26" s="6">
-        <f>COUNTIF(C26:L26,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF26" s="6">
-        <f>COUNTIF(C26:L26,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI26" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
-      <c r="B27" s="15"/>
+      <c r="B27" s="15">
+        <v>45176</v>
+      </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
@@ -3183,33 +2938,35 @@
       </c>
       <c r="AC27" s="21"/>
       <c r="AD27" s="6">
-        <f>COUNTIF(C27:L27,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE27" s="6">
-        <f>COUNTIF(C27:L27,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF27" s="6">
-        <f>COUNTIF(C27:L27,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI27" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="15">
+        <v>45177</v>
+      </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -3244,31 +3001,31 @@
       </c>
       <c r="AC28" s="21"/>
       <c r="AD28" s="6">
-        <f>COUNTIF(C28:L28,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE28" s="6">
-        <f>COUNTIF(C28:L28,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF28" s="6">
-        <f>COUNTIF(C28:L28,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI28" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="14"/>
       <c r="C29" s="16"/>
@@ -3305,31 +3062,31 @@
       </c>
       <c r="AC29" s="21"/>
       <c r="AD29" s="6">
-        <f>COUNTIF(C29:L29,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE29" s="6">
-        <f>COUNTIF(C29:L29,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF29" s="6">
-        <f>COUNTIF(C29:L29,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI29" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
@@ -3366,31 +3123,31 @@
       </c>
       <c r="AC30" s="21"/>
       <c r="AD30" s="6">
-        <f>COUNTIF(C30:L30,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE30" s="6">
-        <f>COUNTIF(C30:L30,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF30" s="6">
-        <f>COUNTIF(C30:L30,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI30" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
@@ -3427,31 +3184,31 @@
       </c>
       <c r="AC31" s="21"/>
       <c r="AD31" s="6">
-        <f>COUNTIF(C31:L31,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE31" s="6">
-        <f>COUNTIF(C31:L31,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF31" s="6">
-        <f>COUNTIF(C31:L31,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI31" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
@@ -3488,31 +3245,31 @@
       </c>
       <c r="AC32" s="21"/>
       <c r="AD32" s="6">
-        <f>COUNTIF(C32:L32,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE32" s="6">
-        <f>COUNTIF(C32:L32,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF32" s="6">
-        <f>COUNTIF(C32:L32,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI32" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="23.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="5"/>
@@ -3539,14 +3296,14 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27" ht="23.25">
+    <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="11"/>
@@ -3571,12 +3328,12 @@
     <mergeCell ref="AC2:AC3"/>
   </mergeCells>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="lessThan">
       <formula>0.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M32 AB4:AB32">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3587,14 +3344,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="3.85546875" customWidth="1"/>
@@ -3608,7 +3365,7 @@
     <col min="13" max="13" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>11</v>
       </c>
@@ -3624,23 +3381,23 @@
         <v>2.0111111111111115</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75">
-      <c r="D2" s="35" t="s">
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="30">
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3672,7 +3429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <f t="shared" ref="A4:A22" si="0">AND(D4,(G4+F4+E4))</f>
         <v>1</v>
@@ -3725,7 +3482,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3778,7 +3535,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3831,7 +3588,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3884,7 +3641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3937,7 +3694,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3990,7 +3747,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4043,7 +3800,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4096,7 +3853,7 @@
         <v>1.9500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4149,7 +3906,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4202,7 +3959,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4255,7 +4012,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4308,7 +4065,7 @@
         <v>1.9500000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4361,7 +4118,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4414,7 +4171,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4467,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4520,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4573,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4626,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4675,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="b">
         <f t="shared" ref="A23:A30" si="4">AND(D23,(G23+F23+E23))</f>
         <v>0</v>
@@ -4724,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4773,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4822,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4871,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4920,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4969,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5018,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5078,12 +4835,12 @@
     <mergeCell ref="I2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A30">
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B30">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/RAW CALCULATION.xlsx
+++ b/RAW CALCULATION.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\private\AppData\Roaming\MetaQuotes\Terminal\D895B9AE90436082D9C83665E7680538\MQL5\Profiles\Templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>Time /Number of profits/stops</t>
   </si>
@@ -92,15 +87,36 @@
   <si>
     <t>Two Stpops</t>
   </si>
+  <si>
+    <t>cb consumer</t>
+  </si>
+  <si>
+    <t>non-farm employment</t>
+  </si>
+  <si>
+    <t>Unemployment claim</t>
+  </si>
+  <si>
+    <t>unemployment rate</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>ism pmi</t>
+  </si>
+  <si>
+    <t>perlim</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,12 +134,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -198,6 +208,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -427,75 +443,74 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -525,16 +540,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -853,21 +868,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AU39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="4" customWidth="1"/>
@@ -875,2441 +890,3110 @@
     <col min="10" max="10" width="2.28515625" customWidth="1"/>
     <col min="11" max="11" width="2.140625" customWidth="1"/>
     <col min="12" max="12" width="2.5703125" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="7" customWidth="1"/>
     <col min="15" max="27" width="2.42578125" customWidth="1"/>
-    <col min="28" max="28" width="6.140625" style="8" customWidth="1"/>
-    <col min="29" max="29" width="8.140625" style="8" customWidth="1"/>
+    <col min="28" max="28" width="6.140625" style="7" customWidth="1"/>
+    <col min="29" max="29" width="8.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="29"/>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="25" t="s">
+    <row r="1" spans="1:47">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="28"/>
+    </row>
+    <row r="2" spans="1:47">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="23" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="23" t="s">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="36" t="s">
+      <c r="AC2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="32"/>
-    </row>
-    <row r="3" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="35"/>
-    </row>
-    <row r="4" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="31"/>
+    </row>
+    <row r="3" spans="1:47" ht="15" customHeight="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="34"/>
+    </row>
+    <row r="4" spans="1:47" ht="15" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="10">
         <v>45152</v>
       </c>
-      <c r="C4" s="16">
-        <v>2</v>
-      </c>
-      <c r="D4" s="16">
-        <v>1</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16">
-        <v>2</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0</v>
-      </c>
-      <c r="H4" s="16" t="s">
+      <c r="C4" s="12">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>2</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <f>Sheet3!H4</f>
         <v>0.75</v>
       </c>
-      <c r="N4" s="21"/>
-      <c r="O4" s="17">
-        <v>1</v>
-      </c>
-      <c r="P4" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="17">
-        <v>0</v>
-      </c>
-      <c r="R4" s="17">
-        <v>1</v>
-      </c>
-      <c r="S4" s="17">
-        <v>1</v>
-      </c>
-      <c r="T4" s="17">
-        <v>1</v>
-      </c>
-      <c r="U4" s="17">
-        <v>0</v>
-      </c>
-      <c r="V4" s="17">
-        <v>2</v>
-      </c>
-      <c r="W4" s="17">
-        <v>2</v>
-      </c>
-      <c r="X4" s="17">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="7">
+      <c r="N4" s="17"/>
+      <c r="O4" s="13">
+        <v>1</v>
+      </c>
+      <c r="P4" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0</v>
+      </c>
+      <c r="R4" s="13">
+        <v>1</v>
+      </c>
+      <c r="S4" s="13">
+        <v>1</v>
+      </c>
+      <c r="T4" s="13">
+        <v>1</v>
+      </c>
+      <c r="U4" s="13">
+        <v>0</v>
+      </c>
+      <c r="V4" s="13">
+        <v>2</v>
+      </c>
+      <c r="W4" s="13">
+        <v>2</v>
+      </c>
+      <c r="X4" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="6">
         <f>Sheet3!M4</f>
         <v>3.9000000000000004</v>
       </c>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="6">
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="5">
         <f t="shared" ref="AD4:AD32" si="0">COUNTIF(C4:L4,2)</f>
         <v>2</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AE4" s="5">
         <f t="shared" ref="AE4:AE32" si="1">COUNTIF(C4:L4,1)</f>
         <v>1</v>
       </c>
-      <c r="AF4" s="6">
+      <c r="AF4" s="5">
         <f t="shared" ref="AF4:AF32" si="2">COUNTIF(C4:L4,0)</f>
         <v>2</v>
       </c>
-      <c r="AG4" s="6">
+      <c r="AG4" s="5">
         <f>COUNTIF($O4:$Z4,1)</f>
         <v>4</v>
       </c>
-      <c r="AH4" s="6">
+      <c r="AH4" s="5">
         <f>COUNTIF($O4:$Z4,2)</f>
         <v>4</v>
       </c>
-      <c r="AI4" s="6">
+      <c r="AI4" s="5">
         <f>COUNTIF($O4:$Z4,0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:47" ht="15" customHeight="1">
+      <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <v>45153</v>
       </c>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-      <c r="D5" s="16">
-        <v>2</v>
-      </c>
-      <c r="E5" s="16">
-        <v>2</v>
-      </c>
-      <c r="F5" s="16">
-        <v>2</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16" t="s">
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <f>Sheet3!H5</f>
         <v>3.1500000000000004</v>
       </c>
-      <c r="N5" s="21"/>
-      <c r="O5" s="17">
-        <v>0</v>
-      </c>
-      <c r="P5" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="17">
-        <v>1</v>
-      </c>
-      <c r="R5" s="17">
-        <v>1</v>
-      </c>
-      <c r="S5" s="17">
-        <v>1</v>
-      </c>
-      <c r="T5" s="17">
-        <v>1</v>
-      </c>
-      <c r="U5" s="17">
-        <v>1</v>
-      </c>
-      <c r="V5" s="17">
-        <v>2</v>
-      </c>
-      <c r="W5" s="17">
-        <v>1</v>
-      </c>
-      <c r="X5" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="7">
+      <c r="N5" s="17"/>
+      <c r="O5" s="13">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>1</v>
+      </c>
+      <c r="R5" s="13">
+        <v>1</v>
+      </c>
+      <c r="S5" s="13">
+        <v>1</v>
+      </c>
+      <c r="T5" s="13">
+        <v>1</v>
+      </c>
+      <c r="U5" s="13">
+        <v>1</v>
+      </c>
+      <c r="V5" s="13">
+        <v>2</v>
+      </c>
+      <c r="W5" s="13">
+        <v>1</v>
+      </c>
+      <c r="X5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="6">
         <f>Sheet3!M5</f>
         <v>1.35</v>
       </c>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="6">
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AE5" s="6">
+      <c r="AE5" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AF5" s="6">
+      <c r="AF5" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG5" s="6">
+      <c r="AG5" s="5">
         <f>COUNTIF($O5:$Z5,1)</f>
         <v>6</v>
       </c>
-      <c r="AH5" s="6">
+      <c r="AH5" s="5">
         <f>COUNTIF($O5:$Z5,2)</f>
         <v>1</v>
       </c>
-      <c r="AI5" s="6">
+      <c r="AI5" s="5">
         <f>COUNTIF($O5:$Z5,0)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:47" ht="15" customHeight="1">
+      <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <v>45154</v>
       </c>
-      <c r="C6" s="16">
-        <v>2</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1</v>
-      </c>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16">
-        <v>2</v>
-      </c>
-      <c r="H6" s="16">
-        <v>1</v>
-      </c>
-      <c r="I6" s="16">
-        <v>2</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16">
-        <v>2</v>
-      </c>
-      <c r="L6" s="16">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>2</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12">
+        <v>2</v>
+      </c>
+      <c r="L6" s="12">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
         <f>Sheet3!H6</f>
         <v>5.85</v>
       </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="17">
-        <v>2</v>
-      </c>
-      <c r="P6" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="17">
-        <v>1</v>
-      </c>
-      <c r="R6" s="17">
-        <v>2</v>
-      </c>
-      <c r="S6" s="17">
-        <v>1</v>
-      </c>
-      <c r="T6" s="17">
-        <v>2</v>
-      </c>
-      <c r="U6" s="17">
-        <v>2</v>
-      </c>
-      <c r="V6" s="17">
-        <v>2</v>
-      </c>
-      <c r="W6" s="17">
-        <v>2</v>
-      </c>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="7">
+      <c r="N6" s="17"/>
+      <c r="O6" s="13">
+        <v>2</v>
+      </c>
+      <c r="P6" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>1</v>
+      </c>
+      <c r="R6" s="13">
+        <v>2</v>
+      </c>
+      <c r="S6" s="13">
+        <v>1</v>
+      </c>
+      <c r="T6" s="13">
+        <v>2</v>
+      </c>
+      <c r="U6" s="13">
+        <v>2</v>
+      </c>
+      <c r="V6" s="13">
+        <v>2</v>
+      </c>
+      <c r="W6" s="13">
+        <v>2</v>
+      </c>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="6">
         <f>Sheet3!M6</f>
         <v>7.2</v>
       </c>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="6">
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AE6" s="6">
+      <c r="AE6" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AF6" s="6">
+      <c r="AF6" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="6">
-        <f t="shared" ref="AG6:AG32" si="3">COUNTIF($O6:$AA6,1)</f>
-        <v>2</v>
-      </c>
-      <c r="AH6" s="6">
-        <f t="shared" ref="AH6:AH32" si="4">COUNTIF($O6:$AA6,2)</f>
+      <c r="AG6" s="5">
+        <f t="shared" ref="AG6:AG39" si="3">COUNTIF($O6:$AA6,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AH6" s="5">
+        <f t="shared" ref="AH6:AH39" si="4">COUNTIF($O6:$AA6,2)</f>
         <v>7</v>
       </c>
-      <c r="AI6" s="6">
-        <f t="shared" ref="AI6:AI32" si="5">COUNTIF($O6:$AA6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="AI6" s="5">
+        <f t="shared" ref="AI6:AI39" si="5">COUNTIF($O6:$AA6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" ht="15" customHeight="1">
+      <c r="A7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="11">
         <v>45155</v>
       </c>
-      <c r="C7" s="16">
-        <v>2</v>
-      </c>
-      <c r="D7" s="16">
-        <v>2</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>2</v>
-      </c>
-      <c r="G7" s="16">
-        <v>2</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="7">
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2</v>
+      </c>
+      <c r="G7" s="12">
+        <v>2</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="6">
         <f>Sheet3!H7</f>
         <v>2.85</v>
       </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="17">
-        <v>1</v>
-      </c>
-      <c r="P7" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>0</v>
-      </c>
-      <c r="R7" s="17">
-        <v>2</v>
-      </c>
-      <c r="S7" s="17">
-        <v>2</v>
-      </c>
-      <c r="T7" s="17">
-        <v>0</v>
-      </c>
-      <c r="U7" s="17">
-        <v>2</v>
-      </c>
-      <c r="V7" s="17">
-        <v>1</v>
-      </c>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="7">
+      <c r="N7" s="17"/>
+      <c r="O7" s="13">
+        <v>1</v>
+      </c>
+      <c r="P7" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0</v>
+      </c>
+      <c r="R7" s="13">
+        <v>2</v>
+      </c>
+      <c r="S7" s="13">
+        <v>2</v>
+      </c>
+      <c r="T7" s="13">
+        <v>0</v>
+      </c>
+      <c r="U7" s="13">
+        <v>2</v>
+      </c>
+      <c r="V7" s="13">
+        <v>1</v>
+      </c>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="6">
         <f>Sheet3!M7</f>
         <v>3</v>
       </c>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="6">
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AE7" s="6">
+      <c r="AE7" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="6">
+      <c r="AF7" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AG7" s="6">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AH7" s="6">
+      <c r="AG7" s="5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AH7" s="5">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="AI7" s="6">
+      <c r="AI7" s="5">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:47" ht="15" customHeight="1">
+      <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="11">
         <v>45156</v>
       </c>
-      <c r="C8" s="16">
-        <v>2</v>
-      </c>
-      <c r="D8" s="16">
-        <v>2</v>
-      </c>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>2</v>
-      </c>
-      <c r="H8" s="16">
-        <v>1</v>
-      </c>
-      <c r="I8" s="16">
-        <v>1</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16">
-        <v>2</v>
-      </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="7">
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>2</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12">
+        <v>2</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="6">
         <f>Sheet3!H8</f>
         <v>4.2</v>
       </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="17">
-        <v>2</v>
-      </c>
-      <c r="P8" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="17">
-        <v>2</v>
-      </c>
-      <c r="R8" s="17">
-        <v>2</v>
-      </c>
-      <c r="S8" s="17">
-        <v>2</v>
-      </c>
-      <c r="T8" s="17">
-        <v>2</v>
-      </c>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="7">
+      <c r="N8" s="17"/>
+      <c r="O8" s="13">
+        <v>2</v>
+      </c>
+      <c r="P8" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>2</v>
+      </c>
+      <c r="R8" s="13">
+        <v>2</v>
+      </c>
+      <c r="S8" s="13">
+        <v>2</v>
+      </c>
+      <c r="T8" s="13">
+        <v>2</v>
+      </c>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="6">
         <f>Sheet3!M8</f>
         <v>5.4</v>
       </c>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="6">
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AE8" s="6">
+      <c r="AE8" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AF8" s="6">
+      <c r="AF8" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AG8" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="6">
+      <c r="AG8" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="5">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="AI8" s="6">
+      <c r="AI8" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:47" ht="15" customHeight="1">
+      <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="10">
         <v>45145</v>
       </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
-        <v>2</v>
-      </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16">
-        <v>0</v>
-      </c>
-      <c r="I9" s="16">
-        <v>2</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="7">
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>2</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="6">
         <f>Sheet3!H9</f>
         <v>0.45000000000000007</v>
       </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="17">
-        <v>2</v>
-      </c>
-      <c r="P9" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>2</v>
-      </c>
-      <c r="R9" s="17">
-        <v>0</v>
-      </c>
-      <c r="S9" s="17">
-        <v>2</v>
-      </c>
-      <c r="T9" s="17">
-        <v>1</v>
-      </c>
-      <c r="U9" s="17">
-        <v>2</v>
-      </c>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="7">
+      <c r="N9" s="18"/>
+      <c r="O9" s="13">
+        <v>2</v>
+      </c>
+      <c r="P9" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>2</v>
+      </c>
+      <c r="R9" s="13">
+        <v>0</v>
+      </c>
+      <c r="S9" s="13">
+        <v>2</v>
+      </c>
+      <c r="T9" s="13">
+        <v>1</v>
+      </c>
+      <c r="U9" s="13">
+        <v>2</v>
+      </c>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="6">
         <f>Sheet3!M9</f>
         <v>4.2</v>
       </c>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="6">
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AE9" s="6">
+      <c r="AE9" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AF9" s="6">
+      <c r="AF9" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AG9" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AH9" s="6">
+      <c r="AG9" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AH9" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AI9" s="6">
+      <c r="AI9" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="11"/>
-      <c r="AS9" s="11"/>
-      <c r="AT9" s="11"/>
-      <c r="AU9" s="11"/>
-    </row>
-    <row r="10" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+    </row>
+    <row r="10" spans="1:47" ht="15" customHeight="1">
+      <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="11">
         <v>45146</v>
       </c>
-      <c r="C10" s="16">
-        <v>2</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16">
-        <v>2</v>
-      </c>
-      <c r="F10" s="16">
-        <v>2</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>1</v>
-      </c>
-      <c r="I10" s="16">
-        <v>2</v>
-      </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="7">
+      <c r="C10" s="12">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
+        <v>2</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="6">
         <f>Sheet3!H10</f>
         <v>3.75</v>
       </c>
-      <c r="N10" s="21"/>
-      <c r="O10" s="17">
-        <v>2</v>
-      </c>
-      <c r="P10" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="17">
-        <v>2</v>
-      </c>
-      <c r="R10" s="17">
-        <v>1</v>
-      </c>
-      <c r="S10" s="17">
-        <v>2</v>
-      </c>
-      <c r="T10" s="17">
-        <v>2</v>
-      </c>
-      <c r="U10" s="17">
-        <v>2</v>
-      </c>
-      <c r="V10" s="17">
-        <v>2</v>
-      </c>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="7">
+      <c r="N10" s="17"/>
+      <c r="O10" s="13">
+        <v>2</v>
+      </c>
+      <c r="P10" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>2</v>
+      </c>
+      <c r="R10" s="13">
+        <v>1</v>
+      </c>
+      <c r="S10" s="13">
+        <v>2</v>
+      </c>
+      <c r="T10" s="13">
+        <v>2</v>
+      </c>
+      <c r="U10" s="13">
+        <v>2</v>
+      </c>
+      <c r="V10" s="13">
+        <v>2</v>
+      </c>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="6">
         <f>Sheet3!M10</f>
         <v>6.75</v>
       </c>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="6">
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AE10" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AF10" s="6">
+      <c r="AF10" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AG10" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AH10" s="6">
+      <c r="AG10" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AH10" s="5">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="AI10" s="6">
+      <c r="AI10" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AQ10" s="11"/>
-      <c r="AR10" s="11"/>
-      <c r="AS10" s="11"/>
-      <c r="AT10" s="11"/>
-      <c r="AU10" s="11"/>
-    </row>
-    <row r="11" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+    </row>
+    <row r="11" spans="1:47" ht="15" customHeight="1">
+      <c r="A11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="11">
         <v>45147</v>
       </c>
-      <c r="C11" s="16">
-        <v>1</v>
-      </c>
-      <c r="D11" s="16">
-        <v>2</v>
-      </c>
-      <c r="E11" s="16">
-        <v>2</v>
-      </c>
-      <c r="F11" s="16">
-        <v>2</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="7">
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2</v>
+      </c>
+      <c r="F11" s="12">
+        <v>2</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="6">
         <f>Sheet3!H11</f>
         <v>3.1500000000000004</v>
       </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="17">
-        <v>2</v>
-      </c>
-      <c r="P11" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="17">
-        <v>1</v>
-      </c>
-      <c r="R11" s="17">
-        <v>0</v>
-      </c>
-      <c r="S11" s="17">
-        <v>2</v>
-      </c>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="7">
+      <c r="N11" s="17"/>
+      <c r="O11" s="13">
+        <v>2</v>
+      </c>
+      <c r="P11" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>1</v>
+      </c>
+      <c r="R11" s="13">
+        <v>0</v>
+      </c>
+      <c r="S11" s="13">
+        <v>2</v>
+      </c>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="6">
         <f>Sheet3!M11</f>
         <v>1.9500000000000002</v>
       </c>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="6">
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AE11" s="6">
+      <c r="AE11" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AF11" s="6">
+      <c r="AF11" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="6">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AH11" s="6">
+      <c r="AG11" s="5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AH11" s="5">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AI11" s="6">
+      <c r="AI11" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AQ11" s="11"/>
-      <c r="AR11" s="11"/>
-      <c r="AS11" s="11"/>
-      <c r="AT11" s="11"/>
-      <c r="AU11" s="11"/>
-    </row>
-    <row r="12" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="8"/>
+    </row>
+    <row r="12" spans="1:47" ht="15" customHeight="1">
+      <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="11">
         <v>45148</v>
       </c>
-      <c r="C12" s="16">
-        <v>2</v>
-      </c>
-      <c r="D12" s="16">
-        <v>2</v>
-      </c>
-      <c r="E12" s="16">
-        <v>2</v>
-      </c>
-      <c r="F12" s="16">
-        <v>2</v>
-      </c>
-      <c r="G12" s="16">
-        <v>2</v>
-      </c>
-      <c r="H12" s="16">
-        <v>2</v>
-      </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="7">
+      <c r="C12" s="12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="6">
         <f>Sheet3!H12</f>
         <v>5.4</v>
       </c>
-      <c r="N12" s="21"/>
-      <c r="O12" s="17">
-        <v>2</v>
-      </c>
-      <c r="P12" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="17">
-        <v>1</v>
-      </c>
-      <c r="R12" s="17">
-        <v>1</v>
-      </c>
-      <c r="S12" s="17">
-        <v>1</v>
-      </c>
-      <c r="T12" s="17">
-        <v>2</v>
-      </c>
-      <c r="U12" s="17">
-        <v>0</v>
-      </c>
-      <c r="V12" s="17">
-        <v>2</v>
-      </c>
-      <c r="W12" s="17">
-        <v>2</v>
-      </c>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="7">
+      <c r="N12" s="17"/>
+      <c r="O12" s="13">
+        <v>2</v>
+      </c>
+      <c r="P12" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>1</v>
+      </c>
+      <c r="R12" s="13">
+        <v>1</v>
+      </c>
+      <c r="S12" s="13">
+        <v>1</v>
+      </c>
+      <c r="T12" s="13">
+        <v>2</v>
+      </c>
+      <c r="U12" s="13">
+        <v>0</v>
+      </c>
+      <c r="V12" s="13">
+        <v>2</v>
+      </c>
+      <c r="W12" s="13">
+        <v>2</v>
+      </c>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="6">
         <f>Sheet3!M12</f>
         <v>4.6500000000000004</v>
       </c>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="6">
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AE12" s="6">
+      <c r="AE12" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AF12" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG12" s="6">
+      <c r="AG12" s="5">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="AH12" s="6">
+      <c r="AH12" s="5">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="AI12" s="6">
+      <c r="AI12" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AQ12" s="11"/>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="11"/>
-      <c r="AT12" s="11"/>
-      <c r="AU12" s="11"/>
-    </row>
-    <row r="13" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+    </row>
+    <row r="13" spans="1:47" ht="15" customHeight="1">
+      <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="11">
         <v>45149</v>
       </c>
-      <c r="C13" s="16">
-        <v>2</v>
-      </c>
-      <c r="D13" s="16">
-        <v>2</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0</v>
-      </c>
-      <c r="F13" s="16">
-        <v>2</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="7">
+      <c r="C13" s="12">
+        <v>2</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>2</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="6">
         <f>Sheet3!H13</f>
         <v>1.9500000000000002</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="17">
-        <v>2</v>
-      </c>
-      <c r="P13" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="17">
-        <v>2</v>
-      </c>
-      <c r="R13" s="17">
-        <v>2</v>
-      </c>
-      <c r="S13" s="17">
-        <v>2</v>
-      </c>
-      <c r="T13" s="17">
-        <v>2</v>
-      </c>
-      <c r="U13" s="17">
-        <v>2</v>
-      </c>
-      <c r="V13" s="17">
-        <v>2</v>
-      </c>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="7">
+      <c r="N13" s="17"/>
+      <c r="O13" s="13">
+        <v>2</v>
+      </c>
+      <c r="P13" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>2</v>
+      </c>
+      <c r="R13" s="13">
+        <v>2</v>
+      </c>
+      <c r="S13" s="13">
+        <v>2</v>
+      </c>
+      <c r="T13" s="13">
+        <v>2</v>
+      </c>
+      <c r="U13" s="13">
+        <v>2</v>
+      </c>
+      <c r="V13" s="13">
+        <v>2</v>
+      </c>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="6">
         <f>Sheet3!M13</f>
         <v>7.2</v>
       </c>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="6">
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AE13" s="6">
+      <c r="AE13" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="6">
+      <c r="AF13" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AG13" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH13" s="6">
+      <c r="AG13" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="5">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AI13" s="6">
+      <c r="AI13" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:47" ht="15" customHeight="1">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="10">
         <v>45159</v>
       </c>
-      <c r="C14" s="16">
-        <v>2</v>
-      </c>
-      <c r="D14" s="16">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>2</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="7">
+      <c r="C14" s="12">
+        <v>2</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
+        <v>2</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="6">
         <f>Sheet3!H14</f>
         <v>2.7</v>
       </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="17">
-        <v>2</v>
-      </c>
-      <c r="P14" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>0</v>
-      </c>
-      <c r="R14" s="17">
-        <v>0</v>
-      </c>
-      <c r="S14" s="17">
-        <v>2</v>
-      </c>
-      <c r="T14" s="17">
-        <v>2</v>
-      </c>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="7">
+      <c r="N14" s="17"/>
+      <c r="O14" s="13">
+        <v>2</v>
+      </c>
+      <c r="P14" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0</v>
+      </c>
+      <c r="S14" s="13">
+        <v>2</v>
+      </c>
+      <c r="T14" s="13">
+        <v>2</v>
+      </c>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="6">
         <f>Sheet3!M14</f>
         <v>2.1</v>
       </c>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="6">
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AE14" s="6">
+      <c r="AE14" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AF14" s="6">
+      <c r="AF14" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG14" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="6">
+      <c r="AG14" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="5">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="AI14" s="6">
+      <c r="AI14" s="5">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AR14" s="11"/>
-    </row>
-    <row r="15" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="AR14" s="8"/>
+    </row>
+    <row r="15" spans="1:47" ht="15" customHeight="1">
+      <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="11">
         <v>45160</v>
       </c>
-      <c r="C15" s="16">
-        <v>2</v>
-      </c>
-      <c r="D15" s="16">
-        <v>2</v>
-      </c>
-      <c r="E15" s="16">
-        <v>2</v>
-      </c>
-      <c r="F15" s="16">
-        <v>2</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="7">
+      <c r="C15" s="12">
+        <v>2</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>2</v>
+      </c>
+      <c r="F15" s="12">
+        <v>2</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="6">
         <f>Sheet3!H15</f>
         <v>3.6</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="17">
-        <v>2</v>
-      </c>
-      <c r="P15" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="17">
-        <v>2</v>
-      </c>
-      <c r="R15" s="17">
-        <v>0</v>
-      </c>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="7">
+      <c r="N15" s="17"/>
+      <c r="O15" s="13">
+        <v>2</v>
+      </c>
+      <c r="P15" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>2</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="6">
         <f>Sheet3!M15</f>
         <v>1.9500000000000002</v>
       </c>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="6">
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AE15" s="6">
+      <c r="AE15" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="6">
+      <c r="AF15" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="6">
+      <c r="AG15" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="5">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AI15" s="6">
+      <c r="AI15" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:47" ht="15" customHeight="1">
+      <c r="A16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="11">
         <v>45161</v>
       </c>
-      <c r="C16" s="16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="16">
-        <v>2</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="7">
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="6">
         <f>Sheet3!H16</f>
         <v>1.5</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="17">
-        <v>2</v>
-      </c>
-      <c r="P16" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="17">
-        <v>2</v>
-      </c>
-      <c r="R16" s="17">
-        <v>0</v>
-      </c>
-      <c r="S16" s="17">
-        <v>2</v>
-      </c>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="7">
+      <c r="N16" s="17"/>
+      <c r="O16" s="13">
+        <v>2</v>
+      </c>
+      <c r="P16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>2</v>
+      </c>
+      <c r="R16" s="13">
+        <v>0</v>
+      </c>
+      <c r="S16" s="13">
+        <v>2</v>
+      </c>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="6">
         <f>Sheet3!M16</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="6">
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AE16" s="6">
+      <c r="AE16" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AF16" s="6">
+      <c r="AF16" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AG16" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="6">
+      <c r="AG16" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="5">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AI16" s="6">
+      <c r="AI16" s="5">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:35" ht="15" customHeight="1">
+      <c r="A17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="11">
         <v>45162</v>
       </c>
-      <c r="C17" s="16">
-        <v>2</v>
-      </c>
-      <c r="D17" s="16">
-        <v>2</v>
-      </c>
-      <c r="E17" s="16">
-        <v>2</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0</v>
-      </c>
-      <c r="G17" s="16">
-        <v>1</v>
-      </c>
-      <c r="H17" s="16">
-        <v>2</v>
-      </c>
-      <c r="I17" s="16">
-        <v>2</v>
-      </c>
-      <c r="J17" s="16">
-        <v>0</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="7">
+      <c r="C17" s="12">
+        <v>2</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1</v>
+      </c>
+      <c r="H17" s="12">
+        <v>2</v>
+      </c>
+      <c r="I17" s="12">
+        <v>2</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="6">
         <f>Sheet3!H17</f>
         <v>3.45</v>
       </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="17">
-        <v>1</v>
-      </c>
-      <c r="P17" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="17">
-        <v>1</v>
-      </c>
-      <c r="R17" s="17">
-        <v>0</v>
-      </c>
-      <c r="S17" s="17">
-        <v>0</v>
-      </c>
-      <c r="T17" s="17">
-        <v>2</v>
-      </c>
-      <c r="U17" s="17">
-        <v>2</v>
-      </c>
-      <c r="V17" s="17">
-        <v>1</v>
-      </c>
-      <c r="W17" s="17">
-        <v>2</v>
-      </c>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="7">
+      <c r="N17" s="17"/>
+      <c r="O17" s="13">
+        <v>1</v>
+      </c>
+      <c r="P17" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>1</v>
+      </c>
+      <c r="R17" s="13">
+        <v>0</v>
+      </c>
+      <c r="S17" s="13">
+        <v>0</v>
+      </c>
+      <c r="T17" s="13">
+        <v>2</v>
+      </c>
+      <c r="U17" s="13">
+        <v>2</v>
+      </c>
+      <c r="V17" s="13">
+        <v>1</v>
+      </c>
+      <c r="W17" s="13">
+        <v>2</v>
+      </c>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="6">
         <f>Sheet3!M17</f>
         <v>3.45</v>
       </c>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="6">
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AE17" s="6">
+      <c r="AE17" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AF17" s="6">
+      <c r="AF17" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AG17" s="6">
+      <c r="AG17" s="5">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AH17" s="6">
+      <c r="AH17" s="5">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="AI17" s="6">
+      <c r="AI17" s="5">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:35" ht="15" customHeight="1">
+      <c r="A18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="11">
         <v>45163</v>
       </c>
-      <c r="C18" s="16">
-        <v>2</v>
-      </c>
-      <c r="D18" s="16">
-        <v>2</v>
-      </c>
-      <c r="E18" s="16">
-        <v>1</v>
-      </c>
-      <c r="F18" s="16">
-        <v>1</v>
-      </c>
-      <c r="G18" s="16">
-        <v>1</v>
-      </c>
-      <c r="H18" s="16">
-        <v>2</v>
-      </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="7">
+      <c r="C18" s="12">
+        <v>2</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="12">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12">
+        <v>2</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="6">
         <f>Sheet3!H18</f>
         <v>4.0500000000000007</v>
       </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="7">
+      <c r="N18" s="17"/>
+      <c r="O18" s="13">
+        <v>1</v>
+      </c>
+      <c r="P18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>1</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0</v>
+      </c>
+      <c r="S18" s="13">
+        <v>1</v>
+      </c>
+      <c r="T18" s="13">
+        <v>1</v>
+      </c>
+      <c r="U18" s="13">
+        <v>2</v>
+      </c>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="6">
         <f>Sheet3!M18</f>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="6">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AE18" s="6">
+      <c r="AE18" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AF18" s="6">
+      <c r="AF18" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG18" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH18" s="6">
+      <c r="AG18" s="5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AH18" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="15" customHeight="1">
+      <c r="A19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="10">
         <v>45166</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="7">
+      <c r="C19" s="12">
+        <v>2</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12">
+        <v>2</v>
+      </c>
+      <c r="G19" s="12">
+        <v>2</v>
+      </c>
+      <c r="H19" s="12">
+        <v>2</v>
+      </c>
+      <c r="I19" s="12">
+        <v>2</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="6">
         <f>Sheet3!H19</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="N19" s="17"/>
+      <c r="O19" s="13">
+        <v>1</v>
+      </c>
+      <c r="P19" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>2</v>
+      </c>
+      <c r="R19" s="13">
+        <v>2</v>
+      </c>
+      <c r="S19" s="13">
+        <v>2</v>
+      </c>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="6">
         <f>Sheet3!M19</f>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="6">
+        <v>4.05</v>
+      </c>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE19" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE19" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG19" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH19" s="6">
+      <c r="AG19" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AH19" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI19" s="6">
+        <v>4</v>
+      </c>
+      <c r="AI19" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="15">
+    <row r="20" spans="1:35" ht="15" customHeight="1">
+      <c r="A20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="11">
         <v>45167</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="7">
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12">
+        <v>2</v>
+      </c>
+      <c r="F20" s="12">
+        <v>2</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="6">
         <f>Sheet3!H20</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="21"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="7">
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="N20" s="17"/>
+      <c r="O20" s="13">
+        <v>2</v>
+      </c>
+      <c r="P20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>0</v>
+      </c>
+      <c r="R20" s="13">
+        <v>2</v>
+      </c>
+      <c r="S20" s="13">
+        <v>0</v>
+      </c>
+      <c r="T20" s="13">
+        <v>1</v>
+      </c>
+      <c r="U20" s="13">
+        <v>2</v>
+      </c>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="6">
         <f>Sheet3!M20</f>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="6">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE20" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG20" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH20" s="6">
+      <c r="AG20" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AH20" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI20" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI20" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="15" customHeight="1">
+      <c r="A21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="11">
         <v>45168</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="7">
+      <c r="C21" s="12">
+        <v>2</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2</v>
+      </c>
+      <c r="F21" s="12">
+        <v>2</v>
+      </c>
+      <c r="G21" s="12">
+        <v>2</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="6">
         <f>Sheet3!H21</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="21"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="7">
+        <v>2.85</v>
+      </c>
+      <c r="N21" s="17"/>
+      <c r="O21" s="13">
+        <v>1</v>
+      </c>
+      <c r="P21" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>2</v>
+      </c>
+      <c r="R21" s="13">
+        <v>2</v>
+      </c>
+      <c r="S21" s="13">
+        <v>2</v>
+      </c>
+      <c r="T21" s="13">
+        <v>2</v>
+      </c>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="6">
         <f>Sheet3!M21</f>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="6">
+        <v>4.95</v>
+      </c>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="6">
+      <c r="AF21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AH21" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI21" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI21" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="15">
+    <row r="22" spans="1:35" ht="15" customHeight="1">
+      <c r="A22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="11">
         <v>45169</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="7">
+      <c r="C22" s="12">
+        <v>2</v>
+      </c>
+      <c r="D22" s="12">
+        <v>2</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <v>2</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="21">
         <f>Sheet3!H22</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="21"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="7">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="N22" s="17"/>
+      <c r="O22" s="13">
+        <v>2</v>
+      </c>
+      <c r="P22" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>1</v>
+      </c>
+      <c r="R22" s="13">
+        <v>2</v>
+      </c>
+      <c r="S22" s="13">
+        <v>2</v>
+      </c>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="6">
         <f>Sheet3!M22</f>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE22" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="6">
+      <c r="AF22" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AH22" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI22" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI22" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="15">
+    <row r="23" spans="1:35" ht="15" customHeight="1">
+      <c r="A23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="11">
         <v>45170</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="7">
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12">
+        <v>2</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="21">
         <f>Sheet3!H23</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="21"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="7">
+        <v>1.35</v>
+      </c>
+      <c r="N23" s="17"/>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>2</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
+      <c r="S23" s="13">
+        <v>2</v>
+      </c>
+      <c r="T23" s="13">
+        <v>2</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
+        <v>2</v>
+      </c>
+      <c r="W23" s="13">
+        <v>2</v>
+      </c>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="6">
         <f>Sheet3!M23</f>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="6">
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG23" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH23" s="6">
+      <c r="AG23" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI23" s="6">
+        <v>6</v>
+      </c>
+      <c r="AI23" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="15" customHeight="1">
+      <c r="A24" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="10">
         <v>45173</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="7">
+      <c r="C24" s="12">
+        <v>2</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0</v>
+      </c>
+      <c r="F24" s="12">
+        <v>2</v>
+      </c>
+      <c r="G24" s="12">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="21">
         <f>Sheet3!H24</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="21"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="7">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="N24" s="17"/>
+      <c r="O24" s="13">
+        <v>1</v>
+      </c>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="6">
         <f>Sheet3!M24</f>
-        <v>0</v>
-      </c>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE24" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH24" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG24" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AH24" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI24" s="6">
+      <c r="AI24" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="15">
+    <row r="25" spans="1:35" ht="15" customHeight="1">
+      <c r="A25" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="11">
         <v>45174</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="7">
+      <c r="C25" s="12">
+        <v>2</v>
+      </c>
+      <c r="D25" s="12">
+        <v>2</v>
+      </c>
+      <c r="E25" s="12">
+        <v>2</v>
+      </c>
+      <c r="F25" s="12">
+        <v>2</v>
+      </c>
+      <c r="G25" s="12">
+        <v>2</v>
+      </c>
+      <c r="H25" s="12">
+        <v>2</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="21">
         <f>Sheet3!H25</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="21"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="7">
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="N25" s="17"/>
+      <c r="O25" s="13">
+        <v>2</v>
+      </c>
+      <c r="P25" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>2</v>
+      </c>
+      <c r="R25" s="13">
+        <v>1</v>
+      </c>
+      <c r="S25" s="13">
+        <v>0</v>
+      </c>
+      <c r="T25" s="13">
+        <v>2</v>
+      </c>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="6">
         <f>Sheet3!M25</f>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="6">
+        <v>2.85</v>
+      </c>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="6">
+        <v>6</v>
+      </c>
+      <c r="AE25" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF25" s="6">
+      <c r="AF25" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH25" s="6">
+      <c r="AG25" s="5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AH25" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI25" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI25" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="15" customHeight="1">
+      <c r="A26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="11">
         <v>45175</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="7">
+      <c r="C26" s="12">
+        <v>2</v>
+      </c>
+      <c r="D26" s="12">
+        <v>2</v>
+      </c>
+      <c r="E26" s="12">
+        <v>2</v>
+      </c>
+      <c r="F26" s="12">
+        <v>2</v>
+      </c>
+      <c r="G26" s="12">
+        <v>2</v>
+      </c>
+      <c r="H26" s="12">
+        <v>2</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0</v>
+      </c>
+      <c r="J26" s="12">
+        <v>1</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="21">
         <f>Sheet3!H26</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="21"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="7">
+        <v>7.3500000000000005</v>
+      </c>
+      <c r="N26" s="17"/>
+      <c r="O26" s="13">
+        <v>0</v>
+      </c>
+      <c r="P26" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>2</v>
+      </c>
+      <c r="R26" s="13">
+        <v>2</v>
+      </c>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="6">
         <f>Sheet3!M26</f>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="21"/>
-      <c r="AD26" s="6">
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="6">
+        <v>6</v>
+      </c>
+      <c r="AE26" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI26" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI26" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="15" customHeight="1">
+      <c r="A27" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="11">
         <v>45176</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="7">
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12">
+        <v>2</v>
+      </c>
+      <c r="F27" s="12">
+        <v>2</v>
+      </c>
+      <c r="G27" s="12">
+        <v>1</v>
+      </c>
+      <c r="H27" s="12">
+        <v>1</v>
+      </c>
+      <c r="I27" s="12">
+        <v>2</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="21">
         <f>Sheet3!H27</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="7">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="N27" s="17"/>
+      <c r="O27" s="13">
+        <v>2</v>
+      </c>
+      <c r="P27" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>2</v>
+      </c>
+      <c r="R27" s="13">
+        <v>0</v>
+      </c>
+      <c r="S27" s="13">
+        <v>2</v>
+      </c>
+      <c r="T27" s="13">
+        <v>1</v>
+      </c>
+      <c r="U27" s="13">
+        <v>2</v>
+      </c>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="6">
         <f>Sheet3!M27</f>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE27" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF27" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AH27" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI27" s="6">
+        <v>5</v>
+      </c>
+      <c r="AI27" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="15" customHeight="1">
+      <c r="A28" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="11">
         <v>45177</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="7">
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12">
+        <v>2</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="21">
         <f>Sheet3!H28</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="21"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="7">
+        <v>1.35</v>
+      </c>
+      <c r="N28" s="17"/>
+      <c r="O28" s="13">
+        <v>0</v>
+      </c>
+      <c r="P28" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>2</v>
+      </c>
+      <c r="R28" s="13">
+        <v>2</v>
+      </c>
+      <c r="S28" s="13">
+        <v>2</v>
+      </c>
+      <c r="T28" s="13">
+        <v>2</v>
+      </c>
+      <c r="U28" s="13">
+        <v>1</v>
+      </c>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="6">
         <f>Sheet3!M28</f>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="6">
+        <v>3.75</v>
+      </c>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF28" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH28" s="6">
+      <c r="AG28" s="5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AH28" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI28" s="6">
+        <v>4</v>
+      </c>
+      <c r="AI28" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" ht="15" customHeight="1">
+      <c r="A29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="10">
+        <v>45180</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="21">
         <f>Sheet3!H29</f>
         <v>0</v>
       </c>
-      <c r="N29" s="21"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="7">
+      <c r="N29" s="17"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="6">
         <f>Sheet3!M29</f>
         <v>0</v>
       </c>
-      <c r="AC29" s="21"/>
-      <c r="AD29" s="6">
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE29" s="6">
+      <c r="AE29" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF29" s="6">
+      <c r="AF29" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG29" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH29" s="6">
+      <c r="AG29" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI29" s="6">
+      <c r="AI29" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="7">
+    <row r="30" spans="1:35" ht="15" customHeight="1">
+      <c r="A30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="11">
+        <v>45181</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="21">
         <f>Sheet3!H30</f>
         <v>0</v>
       </c>
-      <c r="N30" s="21"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="7">
+      <c r="N30" s="17"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="6">
         <f>Sheet3!M30</f>
         <v>0</v>
       </c>
-      <c r="AC30" s="21"/>
-      <c r="AD30" s="6">
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="6">
+      <c r="AE30" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF30" s="6">
+      <c r="AF30" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG30" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH30" s="6">
+      <c r="AG30" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI30" s="6">
+      <c r="AI30" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="7">
+    <row r="31" spans="1:35" ht="15" customHeight="1">
+      <c r="A31" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="11">
+        <v>45182</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="21">
         <f>Sheet3!H31</f>
         <v>0</v>
       </c>
-      <c r="N31" s="21"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="7">
+      <c r="N31" s="17"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="6">
         <f>Sheet3!M31</f>
         <v>0</v>
       </c>
-      <c r="AC31" s="21"/>
-      <c r="AD31" s="6">
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE31" s="6">
+      <c r="AE31" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF31" s="6">
+      <c r="AF31" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG31" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH31" s="6">
+      <c r="AG31" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI31" s="6">
+      <c r="AI31" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="7">
+    <row r="32" spans="1:35" ht="15" customHeight="1">
+      <c r="A32" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="11">
+        <v>45183</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="21">
         <f>Sheet3!H32</f>
         <v>0</v>
       </c>
-      <c r="N32" s="21"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="7">
+      <c r="N32" s="17"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="6">
         <f>Sheet3!M32</f>
         <v>0</v>
       </c>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="6">
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="6">
+      <c r="AE32" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF32" s="6">
+      <c r="AF32" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG32" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH32" s="6">
+      <c r="AG32" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI32" s="6">
+      <c r="AI32" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-    </row>
-    <row r="34" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="H35" s="11"/>
+    <row r="33" spans="1:35">
+      <c r="A33" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="11">
+        <v>45184</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="21">
+        <f>Sheet3!H33</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="19"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="19">
+        <f>Sheet3!M33</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="5">
+        <f t="shared" ref="AD33:AD39" si="6">COUNTIF(C33:L33,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="5">
+        <f t="shared" ref="AE33:AE39" si="7">COUNTIF(C33:L33,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="5">
+        <f t="shared" ref="AF33:AF39" si="8">COUNTIF(C33:L33,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="A34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="10">
+        <v>45187</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="21">
+        <f>Sheet3!H34</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="19"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="19">
+        <f>Sheet3!M34</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
+      <c r="A35" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="11">
+        <v>45188</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="21">
+        <f>Sheet3!H35</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="19"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="19">
+        <f>Sheet3!M35</f>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI35" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35">
+      <c r="A36" s="15"/>
+      <c r="B36" s="11">
+        <v>45189</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="21">
+        <f>Sheet3!H36</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="19"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="19">
+        <f>Sheet3!M36</f>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI36" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35">
+      <c r="A37" s="15"/>
+      <c r="B37" s="11">
+        <v>45190</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="21">
+        <f>Sheet3!H37</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="19"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13"/>
+      <c r="AA37" s="13"/>
+      <c r="AB37" s="19">
+        <f>Sheet3!M37</f>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI37" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35">
+      <c r="A38" s="15"/>
+      <c r="B38" s="11">
+        <v>45191</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="21">
+        <f>Sheet3!H38</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="19"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="19">
+        <f>Sheet3!M38</f>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI38" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35">
+      <c r="A39" s="15"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="21">
+        <f>Sheet3!H39</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="19"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="19">
+        <f>Sheet3!M39</f>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH39" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI39" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate function="count">
@@ -3332,7 +4016,7 @@
       <formula>0.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M32 AB4:AB32">
+  <conditionalFormatting sqref="AB4:AB39 M4:M39">
     <cfRule type="cellIs" dxfId="2" priority="14" operator="lessThan">
       <formula>2</formula>
     </cfRule>
@@ -3344,14 +4028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="3.85546875" customWidth="1"/>
@@ -3365,39 +4049,39 @@
     <col min="13" max="13" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="F1" t="s">
         <v>11</v>
       </c>
       <c r="G1">
         <f>AVERAGE(H:H)</f>
-        <v>2.5999999999999996</v>
+        <v>3.1166666666666663</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
       </c>
       <c r="L1">
         <f>AVERAGE(M:M)</f>
-        <v>2.0111111111111115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D2" s="38" t="s">
+        <v>3.1611111111111114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.75">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="30">
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3429,7 +4113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="b">
         <f t="shared" ref="A4:A22" si="0">AND(D4,(G4+F4+E4))</f>
         <v>1</v>
@@ -3482,7 +4166,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3511,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H21" si="2">(G5*-0.75)+(F5*0.9)+(E5*0.45)</f>
+        <f t="shared" ref="H5:H30" si="2">(G5*-0.75)+(F5*0.9)+(E5*0.45)</f>
         <v>3.1500000000000004</v>
       </c>
       <c r="I5">
@@ -3531,11 +4215,11 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M22" si="3">(L5*-0.75)+(K5*0.9)+(J5*0.45)</f>
+        <f t="shared" ref="M5:M30" si="3">(L5*-0.75)+(K5*0.9)+(J5*0.45)</f>
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3588,7 +4272,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3641,7 +4325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3694,7 +4378,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3747,7 +4431,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3800,7 +4484,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3853,7 +4537,7 @@
         <v>1.9500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3906,7 +4590,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3959,7 +4643,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4012,7 +4696,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4065,7 +4749,7 @@
         <v>1.9500000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4118,7 +4802,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4171,14 +4855,14 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B18" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -4205,48 +4889,48 @@
       </c>
       <c r="I18">
         <f>Sheet1!AG18+Sheet1!AH18+Sheet1!AI18</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J18">
         <f>Sheet1!AG18</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K18">
         <f>Sheet1!AH18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <f>Sheet1!AI18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>16</v>
       </c>
       <c r="D19">
         <f>Sheet1!AD19+Sheet1!AE19+Sheet1!AF19</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <f>COUNTIF(Sheet1!C19:L19,1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <f>COUNTIF(Sheet1!C19:L19,2)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <f>Sheet1!AF19</f>
@@ -4254,19 +4938,19 @@
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="I19">
         <f>Sheet1!AG19+Sheet1!AH19+Sheet1!AI19</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J19">
         <f>Sheet1!AG19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <f>Sheet1!AH19</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L19">
         <f>Sheet1!AI19</f>
@@ -4274,32 +4958,32 @@
       </c>
       <c r="M19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>17</v>
       </c>
       <c r="D20">
         <f>Sheet1!AD20+Sheet1!AE20+Sheet1!AF20</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <f>COUNTIF(Sheet1!C20:L20,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <f>COUNTIF(Sheet1!C20:L20,2)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20">
         <f>Sheet1!AF20</f>
@@ -4307,44 +4991,44 @@
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="I20">
         <f>Sheet1!AG20+Sheet1!AH20+Sheet1!AI20</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J20">
         <f>Sheet1!AG20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <f>Sheet1!AH20</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <f>Sheet1!AI20</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M20">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>18</v>
       </c>
       <c r="D21">
         <f>Sheet1!AD21+Sheet1!AE21+Sheet1!AF21</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <f>COUNTIF(Sheet1!C21:L21,1)</f>
@@ -4352,27 +5036,27 @@
       </c>
       <c r="F21">
         <f>COUNTIF(Sheet1!C21:L21,2)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <f>Sheet1!AF21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="I21">
         <f>Sheet1!AG21+Sheet1!AH21+Sheet1!AI21</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J21">
         <f>Sheet1!AG21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <f>Sheet1!AH21</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L21">
         <f>Sheet1!AI21</f>
@@ -4380,48 +5064,52 @@
       </c>
       <c r="M21">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>19</v>
       </c>
       <c r="D22">
         <f>Sheet1!AD22+Sheet1!AE22+Sheet1!AF22</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <f>Sheet1!AD22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <f>Sheet1!AE22</f>
-        <v>0</v>
+        <f>COUNTIF(Sheet1!C22:L22,2)</f>
+        <v>3</v>
       </c>
       <c r="G22">
         <f>Sheet1!AF22</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000003</v>
       </c>
       <c r="I22">
         <f>Sheet1!AG22+Sheet1!AH22+Sheet1!AI22</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22">
         <f>Sheet1!AG22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22">
         <f>Sheet1!AH22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <f>Sheet1!AI22</f>
@@ -4429,40 +5117,44 @@
       </c>
       <c r="M22">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="b">
         <f t="shared" ref="A23:A30" si="4">AND(D23,(G23+F23+E23))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="b">
         <f t="shared" ref="B23:B30" si="5">AND(I23,(J23+K23+L23))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23">
         <f>Sheet1!AD23+Sheet1!AE23+Sheet1!AF23</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <f>Sheet1!AD23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <f>Sheet1!AE23</f>
-        <v>0</v>
+        <f>COUNTIF(Sheet1!C23:L23,2)</f>
+        <v>1</v>
       </c>
       <c r="G23">
         <f>Sheet1!AF23</f>
         <v>0</v>
       </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>1.35</v>
+      </c>
       <c r="I23">
         <f>Sheet1!AG23+Sheet1!AH23+Sheet1!AI23</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J23">
         <f>Sheet1!AG23</f>
@@ -4470,52 +5162,56 @@
       </c>
       <c r="K23">
         <f>Sheet1!AH23</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L23">
         <f>Sheet1!AI23</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <f t="shared" ref="M23:M30" si="6">(L23*-0.75)+(K23*0.9)+(J23*0.45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>3.1500000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>21</v>
       </c>
       <c r="D24">
         <f>Sheet1!AD24+Sheet1!AE24+Sheet1!AF24</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <f>Sheet1!AD24</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <f>Sheet1!AE24</f>
-        <v>0</v>
+        <f>COUNTIF(Sheet1!C24:L24,2)</f>
+        <v>2</v>
       </c>
       <c r="G24">
         <f>Sheet1!AF24</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I24">
         <f>Sheet1!AG24+Sheet1!AH24+Sheet1!AI24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <f>Sheet1!AG24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <f>Sheet1!AH24</f>
@@ -4526,90 +5222,98 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>22</v>
       </c>
       <c r="D25">
         <f>Sheet1!AD25+Sheet1!AE25+Sheet1!AF25</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <f>Sheet1!AD25</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F25">
-        <f>Sheet1!AE25</f>
-        <v>0</v>
+        <f>COUNTIF(Sheet1!C25:L25,2)</f>
+        <v>6</v>
       </c>
       <c r="G25">
         <f>Sheet1!AF25</f>
         <v>0</v>
       </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>8.1000000000000014</v>
+      </c>
       <c r="I25">
         <f>Sheet1!AG25+Sheet1!AH25+Sheet1!AI25</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J25">
         <f>Sheet1!AG25</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25">
         <f>Sheet1!AH25</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <f>Sheet1!AI25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>23</v>
       </c>
       <c r="D26">
         <f>Sheet1!AD26+Sheet1!AE26+Sheet1!AF26</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <f>Sheet1!AD26</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F26">
-        <f>Sheet1!AE26</f>
-        <v>0</v>
+        <f>COUNTIF(Sheet1!C26:L26,2)</f>
+        <v>6</v>
       </c>
       <c r="G26">
         <f>Sheet1!AF26</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>7.3500000000000005</v>
       </c>
       <c r="I26">
         <f>Sheet1!AG26+Sheet1!AH26+Sheet1!AI26</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26">
         <f>Sheet1!AG26</f>
@@ -4617,116 +5321,124 @@
       </c>
       <c r="K26">
         <f>Sheet1!AH26</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <f>Sheet1!AI26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1.9500000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>24</v>
       </c>
       <c r="D27">
         <f>Sheet1!AD27+Sheet1!AE27+Sheet1!AF27</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <f>Sheet1!AD27</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <f>Sheet1!AE27</f>
-        <v>0</v>
+        <f>COUNTIF(Sheet1!C27:L27,2)</f>
+        <v>3</v>
       </c>
       <c r="G27">
         <f>Sheet1!AF27</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000003</v>
       </c>
       <c r="I27">
         <f>Sheet1!AG27+Sheet1!AH27+Sheet1!AI27</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J27">
         <f>Sheet1!AG27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <f>Sheet1!AH27</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L27">
         <f>Sheet1!AI27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>25</v>
       </c>
       <c r="D28">
         <f>Sheet1!AD28+Sheet1!AE28+Sheet1!AF28</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28">
         <f>Sheet1!AD28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <f>Sheet1!AE28</f>
-        <v>0</v>
+        <f>COUNTIF(Sheet1!C28:L28,2)</f>
+        <v>1</v>
       </c>
       <c r="G28">
         <f>Sheet1!AF28</f>
         <v>0</v>
       </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>1.35</v>
+      </c>
       <c r="I28">
         <f>Sheet1!AG28+Sheet1!AH28+Sheet1!AI28</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J28">
         <f>Sheet1!AG28</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K28">
         <f>Sheet1!AH28</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L28">
         <f>Sheet1!AI28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4747,13 +5459,17 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <f>Sheet1!AE29</f>
+        <f>COUNTIF(Sheet1!C29:L29,2)</f>
         <v>0</v>
       </c>
       <c r="G29">
         <f>Sheet1!AF29</f>
         <v>0</v>
       </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I29">
         <f>Sheet1!AG29+Sheet1!AH29+Sheet1!AI29</f>
         <v>0</v>
@@ -4771,11 +5487,11 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4796,13 +5512,17 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <f>Sheet1!AE30</f>
+        <f>COUNTIF(Sheet1!C30:L30,2)</f>
         <v>0</v>
       </c>
       <c r="G30">
         <f>Sheet1!AF30</f>
         <v>0</v>
       </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I30">
         <f>Sheet1!AG30+Sheet1!AH30+Sheet1!AI30</f>
         <v>0</v>
@@ -4820,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/RAW CALCULATION.xlsx
+++ b/RAW CALCULATION.xlsx
@@ -492,11 +492,11 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -559,7 +559,67 @@
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -878,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="AU31" sqref="AU31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
@@ -2712,9 +2772,9 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="21">
+      <c r="M22" s="20">
         <f>Sheet3!H22</f>
-        <v>3.3000000000000003</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="N22" s="17"/>
       <c r="O22" s="13">
@@ -2791,7 +2851,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
-      <c r="M23" s="21">
+      <c r="M23" s="20">
         <f>Sheet3!H23</f>
         <v>1.35</v>
       </c>
@@ -2858,7 +2918,7 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="10">
@@ -2884,9 +2944,9 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
-      <c r="M24" s="21">
+      <c r="M24" s="20">
         <f>Sheet3!H24</f>
-        <v>1.2000000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="N24" s="17"/>
       <c r="O24" s="13">
@@ -2963,9 +3023,9 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="21">
+      <c r="M25" s="20">
         <f>Sheet3!H25</f>
-        <v>8.1000000000000014</v>
+        <v>5.4</v>
       </c>
       <c r="N25" s="17"/>
       <c r="O25" s="13">
@@ -3056,9 +3116,9 @@
       </c>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
-      <c r="M26" s="21">
+      <c r="M26" s="20">
         <f>Sheet3!H26</f>
-        <v>7.3500000000000005</v>
+        <v>5.1000000000000005</v>
       </c>
       <c r="N26" s="17"/>
       <c r="O26" s="13">
@@ -3143,7 +3203,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
-      <c r="M27" s="21">
+      <c r="M27" s="20">
         <f>Sheet3!H27</f>
         <v>3.3000000000000003</v>
       </c>
@@ -3228,9 +3288,9 @@
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
-      <c r="M28" s="21">
+      <c r="M28" s="20">
         <f>Sheet3!H28</f>
-        <v>1.35</v>
+        <v>1.8</v>
       </c>
       <c r="N28" s="17"/>
       <c r="O28" s="13">
@@ -3297,25 +3357,49 @@
       <c r="B29" s="10">
         <v>45180</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+      <c r="D29" s="12">
+        <v>2</v>
+      </c>
+      <c r="E29" s="12">
+        <v>2</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12">
+        <v>2</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
+        <v>1</v>
+      </c>
+      <c r="J29" s="12">
+        <v>2</v>
+      </c>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
-      <c r="M29" s="21">
+      <c r="M29" s="20">
         <f>Sheet3!H29</f>
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N29" s="17"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
+      <c r="O29" s="13">
+        <v>2</v>
+      </c>
+      <c r="P29" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>2</v>
+      </c>
+      <c r="R29" s="13">
+        <v>2</v>
+      </c>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
@@ -3327,28 +3411,28 @@
       <c r="AA29" s="13"/>
       <c r="AB29" s="6">
         <f>Sheet3!M29</f>
-        <v>0</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="AC29" s="17"/>
       <c r="AD29" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE29" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF29" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG29" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI29" s="5">
         <f t="shared" si="5"/>
@@ -3362,28 +3446,58 @@
       <c r="B30" s="11">
         <v>45181</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <v>2</v>
+      </c>
+      <c r="E30" s="12">
+        <v>2</v>
+      </c>
+      <c r="F30" s="12">
+        <v>1</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0</v>
+      </c>
+      <c r="H30" s="12">
+        <v>2</v>
+      </c>
+      <c r="I30" s="12">
+        <v>1</v>
+      </c>
+      <c r="J30" s="12">
+        <v>2</v>
+      </c>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
-      <c r="M30" s="21">
+      <c r="M30" s="20">
         <f>Sheet3!H30</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N30" s="17"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
+      <c r="O30" s="13">
+        <v>2</v>
+      </c>
+      <c r="P30" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>1</v>
+      </c>
+      <c r="R30" s="13">
+        <v>1</v>
+      </c>
+      <c r="S30" s="13">
+        <v>2</v>
+      </c>
+      <c r="T30" s="13">
+        <v>2</v>
+      </c>
+      <c r="U30" s="13">
+        <v>2</v>
+      </c>
       <c r="V30" s="13"/>
       <c r="W30" s="13"/>
       <c r="X30" s="13"/>
@@ -3392,28 +3506,28 @@
       <c r="AA30" s="13"/>
       <c r="AB30" s="6">
         <f>Sheet3!M30</f>
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AC30" s="17"/>
       <c r="AD30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE30" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF30" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG30" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH30" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI30" s="5">
         <f t="shared" si="5"/>
@@ -3427,62 +3541,104 @@
       <c r="B31" s="11">
         <v>45182</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
+      <c r="C31" s="12">
+        <v>0</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0</v>
+      </c>
+      <c r="E31" s="12">
+        <v>2</v>
+      </c>
+      <c r="F31" s="12">
+        <v>1</v>
+      </c>
+      <c r="G31" s="12">
+        <v>2</v>
+      </c>
+      <c r="H31" s="12">
+        <v>2</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
+        <v>2</v>
+      </c>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
-      <c r="M31" s="21">
+      <c r="M31" s="20">
         <f>Sheet3!H31</f>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="N31" s="17"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
+      <c r="O31" s="13">
+        <v>2</v>
+      </c>
+      <c r="P31" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>2</v>
+      </c>
+      <c r="R31" s="13">
+        <v>2</v>
+      </c>
+      <c r="S31" s="13">
+        <v>0</v>
+      </c>
+      <c r="T31" s="13">
+        <v>2</v>
+      </c>
+      <c r="U31" s="13">
+        <v>2</v>
+      </c>
+      <c r="V31" s="13">
+        <v>0</v>
+      </c>
+      <c r="W31" s="13">
+        <v>1</v>
+      </c>
+      <c r="X31" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z31" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="13">
+        <v>2</v>
+      </c>
       <c r="AB31" s="6">
         <f>Sheet3!M31</f>
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="AC31" s="17"/>
       <c r="AD31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="AD31:AD39" si="6">COUNTIF(C31:L31,2)</f>
+        <v>4</v>
       </c>
       <c r="AE31" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="AE31:AE39" si="7">COUNTIF(C31:L31,1)</f>
+        <v>1</v>
       </c>
       <c r="AF31" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="AF31:AF39" si="8">COUNTIF(C31:L31,0)</f>
+        <v>3</v>
       </c>
       <c r="AG31" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH31" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AI31" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1">
@@ -3492,27 +3648,59 @@
       <c r="B32" s="11">
         <v>45183</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="21">
+      <c r="C32" s="12">
+        <v>1</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12">
+        <v>2</v>
+      </c>
+      <c r="F32" s="12">
+        <v>2</v>
+      </c>
+      <c r="G32" s="12">
+        <v>2</v>
+      </c>
+      <c r="H32" s="12">
+        <v>2</v>
+      </c>
+      <c r="I32" s="12">
+        <v>2</v>
+      </c>
+      <c r="J32" s="12">
+        <v>2</v>
+      </c>
+      <c r="K32" s="12">
+        <v>0</v>
+      </c>
+      <c r="L32" s="12">
+        <v>2</v>
+      </c>
+      <c r="M32" s="20">
         <f>Sheet3!H32</f>
-        <v>0</v>
+        <v>6.45</v>
       </c>
       <c r="N32" s="17"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
+      <c r="O32" s="13">
+        <v>2</v>
+      </c>
+      <c r="P32" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>2</v>
+      </c>
+      <c r="R32" s="13">
+        <v>0</v>
+      </c>
+      <c r="S32" s="13">
+        <v>2</v>
+      </c>
+      <c r="T32" s="13">
+        <v>0</v>
+      </c>
       <c r="U32" s="13"/>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
@@ -3522,32 +3710,32 @@
       <c r="AA32" s="13"/>
       <c r="AB32" s="6">
         <f>Sheet3!M32</f>
-        <v>0</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="AC32" s="17"/>
       <c r="AD32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="AE32" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="AF32" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="AG32" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI32" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -3557,11 +3745,21 @@
       <c r="B33" s="11">
         <v>45184</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="C33" s="12">
+        <v>0</v>
+      </c>
+      <c r="D33" s="12">
+        <v>1</v>
+      </c>
+      <c r="E33" s="12">
+        <v>2</v>
+      </c>
+      <c r="F33" s="12">
+        <v>1</v>
+      </c>
+      <c r="G33" s="12">
+        <v>2</v>
+      </c>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
@@ -3569,50 +3767,66 @@
       <c r="L33" s="12"/>
       <c r="M33" s="21">
         <f>Sheet3!H33</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="19"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="N33" s="21"/>
+      <c r="O33" s="13">
+        <v>0</v>
+      </c>
+      <c r="P33" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>1</v>
+      </c>
+      <c r="R33" s="13">
+        <v>2</v>
+      </c>
+      <c r="S33" s="13">
+        <v>1</v>
+      </c>
+      <c r="T33" s="13">
+        <v>2</v>
+      </c>
+      <c r="U33" s="13">
+        <v>0</v>
+      </c>
+      <c r="V33" s="13">
+        <v>1</v>
+      </c>
       <c r="W33" s="13"/>
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
-      <c r="AB33" s="19">
+      <c r="AB33" s="21">
         <f>Sheet3!M33</f>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="19"/>
+        <v>2.1</v>
+      </c>
+      <c r="AC33" s="21"/>
       <c r="AD33" s="5">
-        <f t="shared" ref="AD33:AD39" si="6">COUNTIF(C33:L33,2)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="AE33" s="5">
-        <f t="shared" ref="AE33:AE39" si="7">COUNTIF(C33:L33,1)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="AF33" s="5">
-        <f t="shared" ref="AF33:AF39" si="8">COUNTIF(C33:L33,0)</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="AG33" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH33" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI33" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -3622,11 +3836,21 @@
       <c r="B34" s="10">
         <v>45187</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="C34" s="12">
+        <v>2</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12">
+        <v>2</v>
+      </c>
+      <c r="F34" s="12">
+        <v>1</v>
+      </c>
+      <c r="G34" s="12">
+        <v>1</v>
+      </c>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
@@ -3634,13 +3858,21 @@
       <c r="L34" s="12"/>
       <c r="M34" s="21">
         <f>Sheet3!H34</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="19"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="N34" s="21"/>
+      <c r="O34" s="13">
+        <v>2</v>
+      </c>
+      <c r="P34" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>2</v>
+      </c>
+      <c r="R34" s="13">
+        <v>2</v>
+      </c>
       <c r="S34" s="13"/>
       <c r="T34" s="13"/>
       <c r="U34" s="13"/>
@@ -3650,30 +3882,30 @@
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
-      <c r="AB34" s="19">
+      <c r="AB34" s="21">
         <f>Sheet3!M34</f>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="19"/>
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="AC34" s="21"/>
       <c r="AD34" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="AD34:AD39" si="9">COUNTIF(C34:L34,2)</f>
+        <v>2</v>
       </c>
       <c r="AE34" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="AE34:AE39" si="10">COUNTIF(C34:L34,1)</f>
+        <v>2</v>
       </c>
       <c r="AF34" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="AF34:AF39" si="11">COUNTIF(C34:L34,0)</f>
+        <v>1</v>
       </c>
       <c r="AG34" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH34" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI34" s="5">
         <f t="shared" si="5"/>
@@ -3701,7 +3933,7 @@
         <f>Sheet3!H35</f>
         <v>0</v>
       </c>
-      <c r="N35" s="19"/>
+      <c r="N35" s="21"/>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
       <c r="Q35" s="13"/>
@@ -3715,21 +3947,21 @@
       <c r="Y35" s="13"/>
       <c r="Z35" s="13"/>
       <c r="AA35" s="13"/>
-      <c r="AB35" s="19">
+      <c r="AB35" s="21">
         <f>Sheet3!M35</f>
         <v>0</v>
       </c>
-      <c r="AC35" s="19"/>
+      <c r="AC35" s="21"/>
       <c r="AD35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG35" s="5">
@@ -3764,7 +3996,7 @@
         <f>Sheet3!H36</f>
         <v>0</v>
       </c>
-      <c r="N36" s="19"/>
+      <c r="N36" s="21"/>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
       <c r="Q36" s="13"/>
@@ -3778,21 +4010,21 @@
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
       <c r="AA36" s="13"/>
-      <c r="AB36" s="19">
+      <c r="AB36" s="21">
         <f>Sheet3!M36</f>
         <v>0</v>
       </c>
-      <c r="AC36" s="19"/>
+      <c r="AC36" s="21"/>
       <c r="AD36" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG36" s="5">
@@ -3827,7 +4059,7 @@
         <f>Sheet3!H37</f>
         <v>0</v>
       </c>
-      <c r="N37" s="19"/>
+      <c r="N37" s="21"/>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
@@ -3841,21 +4073,21 @@
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
       <c r="AA37" s="13"/>
-      <c r="AB37" s="19">
+      <c r="AB37" s="21">
         <f>Sheet3!M37</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="19"/>
+      <c r="AC37" s="21"/>
       <c r="AD37" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG37" s="5">
@@ -3890,7 +4122,7 @@
         <f>Sheet3!H38</f>
         <v>0</v>
       </c>
-      <c r="N38" s="19"/>
+      <c r="N38" s="21"/>
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
@@ -3904,21 +4136,21 @@
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
       <c r="AA38" s="13"/>
-      <c r="AB38" s="19">
+      <c r="AB38" s="21">
         <f>Sheet3!M38</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="19"/>
+      <c r="AC38" s="21"/>
       <c r="AD38" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG38" s="5">
@@ -3936,7 +4168,7 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="15"/>
-      <c r="B39" s="10"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -3951,7 +4183,7 @@
         <f>Sheet3!H39</f>
         <v>0</v>
       </c>
-      <c r="N39" s="19"/>
+      <c r="N39" s="21"/>
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
@@ -3965,21 +4197,21 @@
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
       <c r="AA39" s="13"/>
-      <c r="AB39" s="19">
+      <c r="AB39" s="21">
         <f>Sheet3!M39</f>
         <v>0</v>
       </c>
-      <c r="AC39" s="19"/>
+      <c r="AC39" s="21"/>
       <c r="AD39" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE39" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF39" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG39" s="5">
@@ -4012,7 +4244,7 @@
     <mergeCell ref="AC2:AC3"/>
   </mergeCells>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="3" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="lessThan">
       <formula>0.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4029,10 +4261,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4055,14 +4287,14 @@
       </c>
       <c r="G1">
         <f>AVERAGE(H:H)</f>
-        <v>3.1166666666666663</v>
+        <v>1.62</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
       </c>
       <c r="L1">
         <f>AVERAGE(M:M)</f>
-        <v>3.1611111111111114</v>
+        <v>1.7850000000000004</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75">
@@ -5069,11 +5301,11 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A22:A63" si="4">AND(D22,(G22+F22+E22))</f>
         <v>1</v>
       </c>
       <c r="B22" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B22:B63" si="5">AND(I22,(J22+K22+L22))</f>
         <v>1</v>
       </c>
       <c r="C22">
@@ -5084,8 +5316,8 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <f>Sheet1!AD22</f>
-        <v>3</v>
+        <f>COUNTIF(Sheet1!C22:L22,1)</f>
+        <v>0</v>
       </c>
       <c r="F22">
         <f>COUNTIF(Sheet1!C22:L22,2)</f>
@@ -5096,8 +5328,8 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
-        <v>3.3000000000000003</v>
+        <f t="shared" ref="H22:H63" si="6">(G22*-0.75)+(F22*0.9)+(E22*0.45)</f>
+        <v>1.9500000000000002</v>
       </c>
       <c r="I22">
         <f>Sheet1!AG22+Sheet1!AH22+Sheet1!AI22</f>
@@ -5116,17 +5348,17 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="M22:M63" si="7">(L22*-0.75)+(K22*0.9)+(J22*0.45)</f>
         <v>3.6</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="b">
-        <f t="shared" ref="A23:A30" si="4">AND(D23,(G23+F23+E23))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B23" t="b">
-        <f t="shared" ref="B23:B30" si="5">AND(I23,(J23+K23+L23))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C23">
@@ -5137,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <f>Sheet1!AD23</f>
+        <f>COUNTIF(Sheet1!C23:L23,1)</f>
         <v>1</v>
       </c>
       <c r="F23">
@@ -5149,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.35</v>
       </c>
       <c r="I23">
@@ -5169,7 +5401,7 @@
         <v>3</v>
       </c>
       <c r="M23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.1500000000000004</v>
       </c>
     </row>
@@ -5190,8 +5422,8 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <f>Sheet1!AD24</f>
-        <v>2</v>
+        <f>COUNTIF(Sheet1!C24:L24,1)</f>
+        <v>1</v>
       </c>
       <c r="F24">
         <f>COUNTIF(Sheet1!C24:L24,2)</f>
@@ -5202,8 +5434,8 @@
         <v>2</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
-        <v>1.2000000000000002</v>
+        <f t="shared" si="6"/>
+        <v>0.75</v>
       </c>
       <c r="I24">
         <f>Sheet1!AG24+Sheet1!AH24+Sheet1!AI24</f>
@@ -5222,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.45</v>
       </c>
     </row>
@@ -5243,8 +5475,8 @@
         <v>6</v>
       </c>
       <c r="E25">
-        <f>Sheet1!AD25</f>
-        <v>6</v>
+        <f>COUNTIF(Sheet1!C25:L25,1)</f>
+        <v>0</v>
       </c>
       <c r="F25">
         <f>COUNTIF(Sheet1!C25:L25,2)</f>
@@ -5255,8 +5487,8 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
-        <v>8.1000000000000014</v>
+        <f t="shared" si="6"/>
+        <v>5.4</v>
       </c>
       <c r="I25">
         <f>Sheet1!AG25+Sheet1!AH25+Sheet1!AI25</f>
@@ -5275,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.85</v>
       </c>
     </row>
@@ -5296,8 +5528,8 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <f>Sheet1!AD26</f>
-        <v>6</v>
+        <f>COUNTIF(Sheet1!C26:L26,1)</f>
+        <v>1</v>
       </c>
       <c r="F26">
         <f>COUNTIF(Sheet1!C26:L26,2)</f>
@@ -5308,8 +5540,8 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
-        <v>7.3500000000000005</v>
+        <f t="shared" si="6"/>
+        <v>5.1000000000000005</v>
       </c>
       <c r="I26">
         <f>Sheet1!AG26+Sheet1!AH26+Sheet1!AI26</f>
@@ -5328,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.9500000000000002</v>
       </c>
     </row>
@@ -5349,7 +5581,7 @@
         <v>7</v>
       </c>
       <c r="E27">
-        <f>Sheet1!AD27</f>
+        <f>COUNTIF(Sheet1!C27:L27,1)</f>
         <v>3</v>
       </c>
       <c r="F27">
@@ -5361,7 +5593,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.3000000000000003</v>
       </c>
       <c r="I27">
@@ -5381,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.2</v>
       </c>
     </row>
@@ -5402,8 +5634,8 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <f>Sheet1!AD28</f>
-        <v>1</v>
+        <f>COUNTIF(Sheet1!C28:L28,1)</f>
+        <v>2</v>
       </c>
       <c r="F28">
         <f>COUNTIF(Sheet1!C28:L28,2)</f>
@@ -5414,8 +5646,8 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
-        <v>1.35</v>
+        <f t="shared" si="6"/>
+        <v>1.8</v>
       </c>
       <c r="I28">
         <f>Sheet1!AG28+Sheet1!AH28+Sheet1!AI28</f>
@@ -5434,113 +5666,1862 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.75</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>26</v>
       </c>
       <c r="D29">
         <f>Sheet1!AD29+Sheet1!AE29+Sheet1!AF29</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E29">
-        <f>Sheet1!AD29</f>
-        <v>0</v>
+        <f>COUNTIF(Sheet1!C29:L29,1)</f>
+        <v>3</v>
       </c>
       <c r="F29">
         <f>COUNTIF(Sheet1!C29:L29,2)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G29">
         <f>Sheet1!AF29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4.2</v>
       </c>
       <c r="I29">
         <f>Sheet1!AG29+Sheet1!AH29+Sheet1!AI29</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29">
         <f>Sheet1!AG29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <f>Sheet1!AH29</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <f>Sheet1!AI29</f>
         <v>0</v>
       </c>
       <c r="M29">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3.1500000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>27</v>
       </c>
       <c r="D30">
         <f>Sheet1!AD30+Sheet1!AE30+Sheet1!AF30</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <f>Sheet1!AD30</f>
-        <v>0</v>
+        <f>COUNTIF(Sheet1!C30:L30,1)</f>
+        <v>2</v>
       </c>
       <c r="F30">
         <f>COUNTIF(Sheet1!C30:L30,2)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G30">
         <f>Sheet1!AF30</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="I30">
         <f>Sheet1!AG30+Sheet1!AH30+Sheet1!AI30</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J30">
         <f>Sheet1!AG30</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30">
         <f>Sheet1!AH30</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L30">
         <f>Sheet1!AI30</f>
         <v>0</v>
       </c>
       <c r="M30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B31" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="D31">
+        <f>Sheet1!AD31+Sheet1!AE31+Sheet1!AF31</f>
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <f>COUNTIF(Sheet1!C31:L31,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f>COUNTIF(Sheet1!C31:L31,2)</f>
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <f>Sheet1!AF31</f>
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>1.8</v>
+      </c>
+      <c r="I31">
+        <f>Sheet1!AG31+Sheet1!AH31+Sheet1!AI31</f>
+        <v>13</v>
+      </c>
+      <c r="J31">
+        <f>Sheet1!AG31</f>
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <f>Sheet1!AH31</f>
+        <v>9</v>
+      </c>
+      <c r="L31">
+        <f>Sheet1!AI31</f>
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="7"/>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B32" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <f>Sheet1!AD32+Sheet1!AE32+Sheet1!AF32</f>
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <f>COUNTIF(Sheet1!C32:L32,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <f>COUNTIF(Sheet1!C32:L32,2)</f>
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <f>Sheet1!AF32</f>
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>6.45</v>
+      </c>
+      <c r="I32">
+        <f>Sheet1!AG32+Sheet1!AH32+Sheet1!AI32</f>
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <f>Sheet1!AG32</f>
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <f>Sheet1!AH32</f>
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <f>Sheet1!AI32</f>
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="7"/>
+        <v>1.6500000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B33" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <f>Sheet1!AD33+Sheet1!AE33+Sheet1!AF33</f>
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <f>COUNTIF(Sheet1!C33:L33,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <f>COUNTIF(Sheet1!C33:L33,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <f>Sheet1!AF33</f>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="I33">
+        <f>Sheet1!AG33+Sheet1!AH33+Sheet1!AI33</f>
+        <v>8</v>
+      </c>
+      <c r="J33">
+        <f>Sheet1!AG33</f>
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <f>Sheet1!AH33</f>
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <f>Sheet1!AI33</f>
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="7"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B34" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <f>Sheet1!AD34+Sheet1!AE34+Sheet1!AF34</f>
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <f>COUNTIF(Sheet1!C34:L34,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <f>COUNTIF(Sheet1!C34:L34,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <f>Sheet1!AF34</f>
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="6"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="I34">
+        <f>Sheet1!AG34+Sheet1!AH34+Sheet1!AI34</f>
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <f>Sheet1!AG34</f>
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <f>Sheet1!AH34</f>
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <f>Sheet1!AI34</f>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="7"/>
+        <v>3.1500000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B35" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <f>Sheet1!AD35+Sheet1!AE35+Sheet1!AF35</f>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f>COUNTIF(Sheet1!C35:L35,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>COUNTIF(Sheet1!C35:L35,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f>Sheet1!AF35</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>Sheet1!AG35+Sheet1!AH35+Sheet1!AI35</f>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f>Sheet1!AG35</f>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f>Sheet1!AH35</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f>Sheet1!AI35</f>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B36" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>33</v>
+      </c>
+      <c r="D36">
+        <f>Sheet1!AD36+Sheet1!AE36+Sheet1!AF36</f>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f>COUNTIF(Sheet1!C36:L36,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>COUNTIF(Sheet1!C36:L36,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f>Sheet1!AF36</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>Sheet1!AG36+Sheet1!AH36+Sheet1!AI36</f>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f>Sheet1!AG36</f>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f>Sheet1!AH36</f>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f>Sheet1!AI36</f>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B37" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>34</v>
+      </c>
+      <c r="D37">
+        <f>Sheet1!AD37+Sheet1!AE37+Sheet1!AF37</f>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f>COUNTIF(Sheet1!C37:L37,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>COUNTIF(Sheet1!C37:L37,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f>Sheet1!AF37</f>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f>Sheet1!AG37+Sheet1!AH37+Sheet1!AI37</f>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f>Sheet1!AG37</f>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f>Sheet1!AH37</f>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f>Sheet1!AI37</f>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B38" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>35</v>
+      </c>
+      <c r="D38">
+        <f>Sheet1!AD38+Sheet1!AE38+Sheet1!AF38</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f>COUNTIF(Sheet1!C38:L38,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>COUNTIF(Sheet1!C38:L38,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f>Sheet1!AF38</f>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f>Sheet1!AG38+Sheet1!AH38+Sheet1!AI38</f>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f>Sheet1!AG38</f>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f>Sheet1!AH38</f>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f>Sheet1!AI38</f>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B39" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>36</v>
+      </c>
+      <c r="D39">
+        <f>Sheet1!AD39+Sheet1!AE39+Sheet1!AF39</f>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f>COUNTIF(Sheet1!C39:L39,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>COUNTIF(Sheet1!C39:L39,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f>Sheet1!AF39</f>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f>Sheet1!AG39+Sheet1!AH39+Sheet1!AI39</f>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f>Sheet1!AG39</f>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f>Sheet1!AH39</f>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f>Sheet1!AI39</f>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B40" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>37</v>
+      </c>
+      <c r="D40">
+        <f>Sheet1!AD40+Sheet1!AE40+Sheet1!AF40</f>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f>COUNTIF(Sheet1!C40:L40,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>COUNTIF(Sheet1!C40:L40,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f>Sheet1!AF40</f>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f>Sheet1!AG40+Sheet1!AH40+Sheet1!AI40</f>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f>Sheet1!AG40</f>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f>Sheet1!AH40</f>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f>Sheet1!AI40</f>
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B41" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>38</v>
+      </c>
+      <c r="D41">
+        <f>Sheet1!AD41+Sheet1!AE41+Sheet1!AF41</f>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f>COUNTIF(Sheet1!C41:L41,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>COUNTIF(Sheet1!C41:L41,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f>Sheet1!AF41</f>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f>Sheet1!AG41+Sheet1!AH41+Sheet1!AI41</f>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f>Sheet1!AG41</f>
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f>Sheet1!AH41</f>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f>Sheet1!AI41</f>
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B42" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>39</v>
+      </c>
+      <c r="D42">
+        <f>Sheet1!AD42+Sheet1!AE42+Sheet1!AF42</f>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f>COUNTIF(Sheet1!C42:L42,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>COUNTIF(Sheet1!C42:L42,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f>Sheet1!AF42</f>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f>Sheet1!AG42+Sheet1!AH42+Sheet1!AI42</f>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f>Sheet1!AG42</f>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f>Sheet1!AH42</f>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f>Sheet1!AI42</f>
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B43" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>40</v>
+      </c>
+      <c r="D43">
+        <f>Sheet1!AD43+Sheet1!AE43+Sheet1!AF43</f>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f>COUNTIF(Sheet1!C43:L43,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>COUNTIF(Sheet1!C43:L43,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f>Sheet1!AF43</f>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f>Sheet1!AG43+Sheet1!AH43+Sheet1!AI43</f>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f>Sheet1!AG43</f>
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f>Sheet1!AH43</f>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f>Sheet1!AI43</f>
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B44" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <f>Sheet1!AD44+Sheet1!AE44+Sheet1!AF44</f>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f>COUNTIF(Sheet1!C44:L44,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>COUNTIF(Sheet1!C44:L44,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f>Sheet1!AF44</f>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f>Sheet1!AG44+Sheet1!AH44+Sheet1!AI44</f>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f>Sheet1!AG44</f>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f>Sheet1!AH44</f>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f>Sheet1!AI44</f>
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B45" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>42</v>
+      </c>
+      <c r="D45">
+        <f>Sheet1!AD45+Sheet1!AE45+Sheet1!AF45</f>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f>COUNTIF(Sheet1!C45:L45,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f>COUNTIF(Sheet1!C45:L45,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f>Sheet1!AF45</f>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f>Sheet1!AG45+Sheet1!AH45+Sheet1!AI45</f>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f>Sheet1!AG45</f>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f>Sheet1!AH45</f>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f>Sheet1!AI45</f>
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B46" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>43</v>
+      </c>
+      <c r="D46">
+        <f>Sheet1!AD46+Sheet1!AE46+Sheet1!AF46</f>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f>COUNTIF(Sheet1!C46:L46,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>COUNTIF(Sheet1!C46:L46,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f>Sheet1!AF46</f>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f>Sheet1!AG46+Sheet1!AH46+Sheet1!AI46</f>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f>Sheet1!AG46</f>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f>Sheet1!AH46</f>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f>Sheet1!AI46</f>
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B47" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>44</v>
+      </c>
+      <c r="D47">
+        <f>Sheet1!AD47+Sheet1!AE47+Sheet1!AF47</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>COUNTIF(Sheet1!C47:L47,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>COUNTIF(Sheet1!C47:L47,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f>Sheet1!AF47</f>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f>Sheet1!AG47+Sheet1!AH47+Sheet1!AI47</f>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f>Sheet1!AG47</f>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f>Sheet1!AH47</f>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f>Sheet1!AI47</f>
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B48" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>45</v>
+      </c>
+      <c r="D48">
+        <f>Sheet1!AD48+Sheet1!AE48+Sheet1!AF48</f>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f>COUNTIF(Sheet1!C48:L48,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>COUNTIF(Sheet1!C48:L48,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f>Sheet1!AF48</f>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f>Sheet1!AG48+Sheet1!AH48+Sheet1!AI48</f>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f>Sheet1!AG48</f>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f>Sheet1!AH48</f>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f>Sheet1!AI48</f>
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B49" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>46</v>
+      </c>
+      <c r="D49">
+        <f>Sheet1!AD49+Sheet1!AE49+Sheet1!AF49</f>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f>COUNTIF(Sheet1!C49:L49,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f>COUNTIF(Sheet1!C49:L49,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f>Sheet1!AF49</f>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f>Sheet1!AG49+Sheet1!AH49+Sheet1!AI49</f>
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f>Sheet1!AG49</f>
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <f>Sheet1!AH49</f>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f>Sheet1!AI49</f>
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B50" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>47</v>
+      </c>
+      <c r="D50">
+        <f>Sheet1!AD50+Sheet1!AE50+Sheet1!AF50</f>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f>COUNTIF(Sheet1!C50:L50,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>COUNTIF(Sheet1!C50:L50,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f>Sheet1!AF50</f>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f>Sheet1!AG50+Sheet1!AH50+Sheet1!AI50</f>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f>Sheet1!AG50</f>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f>Sheet1!AH50</f>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f>Sheet1!AI50</f>
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B51" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>48</v>
+      </c>
+      <c r="D51">
+        <f>Sheet1!AD51+Sheet1!AE51+Sheet1!AF51</f>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f>COUNTIF(Sheet1!C51:L51,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f>COUNTIF(Sheet1!C51:L51,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f>Sheet1!AF51</f>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f>Sheet1!AG51+Sheet1!AH51+Sheet1!AI51</f>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f>Sheet1!AG51</f>
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <f>Sheet1!AH51</f>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f>Sheet1!AI51</f>
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B52" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>49</v>
+      </c>
+      <c r="D52">
+        <f>Sheet1!AD52+Sheet1!AE52+Sheet1!AF52</f>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>COUNTIF(Sheet1!C52:L52,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f>COUNTIF(Sheet1!C52:L52,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f>Sheet1!AF52</f>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f>Sheet1!AG52+Sheet1!AH52+Sheet1!AI52</f>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f>Sheet1!AG52</f>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f>Sheet1!AH52</f>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <f>Sheet1!AI52</f>
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B53" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>50</v>
+      </c>
+      <c r="D53">
+        <f>Sheet1!AD53+Sheet1!AE53+Sheet1!AF53</f>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f>COUNTIF(Sheet1!C53:L53,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>COUNTIF(Sheet1!C53:L53,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f>Sheet1!AF53</f>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f>Sheet1!AG53+Sheet1!AH53+Sheet1!AI53</f>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f>Sheet1!AG53</f>
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <f>Sheet1!AH53</f>
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <f>Sheet1!AI53</f>
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B54" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>51</v>
+      </c>
+      <c r="D54">
+        <f>Sheet1!AD54+Sheet1!AE54+Sheet1!AF54</f>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f>COUNTIF(Sheet1!C54:L54,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f>COUNTIF(Sheet1!C54:L54,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f>Sheet1!AF54</f>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f>Sheet1!AG54+Sheet1!AH54+Sheet1!AI54</f>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f>Sheet1!AG54</f>
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <f>Sheet1!AH54</f>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f>Sheet1!AI54</f>
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B55" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>52</v>
+      </c>
+      <c r="D55">
+        <f>Sheet1!AD55+Sheet1!AE55+Sheet1!AF55</f>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f>COUNTIF(Sheet1!C55:L55,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>COUNTIF(Sheet1!C55:L55,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f>Sheet1!AF55</f>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f>Sheet1!AG55+Sheet1!AH55+Sheet1!AI55</f>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f>Sheet1!AG55</f>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <f>Sheet1!AH55</f>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f>Sheet1!AI55</f>
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B56" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>53</v>
+      </c>
+      <c r="D56">
+        <f>Sheet1!AD56+Sheet1!AE56+Sheet1!AF56</f>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f>COUNTIF(Sheet1!C56:L56,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f>COUNTIF(Sheet1!C56:L56,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f>Sheet1!AF56</f>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f>Sheet1!AG56+Sheet1!AH56+Sheet1!AI56</f>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f>Sheet1!AG56</f>
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f>Sheet1!AH56</f>
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f>Sheet1!AI56</f>
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B57" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>54</v>
+      </c>
+      <c r="D57">
+        <f>Sheet1!AD57+Sheet1!AE57+Sheet1!AF57</f>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f>COUNTIF(Sheet1!C57:L57,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f>COUNTIF(Sheet1!C57:L57,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f>Sheet1!AF57</f>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f>Sheet1!AG57+Sheet1!AH57+Sheet1!AI57</f>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f>Sheet1!AG57</f>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f>Sheet1!AH57</f>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f>Sheet1!AI57</f>
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B58" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>55</v>
+      </c>
+      <c r="D58">
+        <f>Sheet1!AD58+Sheet1!AE58+Sheet1!AF58</f>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f>COUNTIF(Sheet1!C58:L58,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>COUNTIF(Sheet1!C58:L58,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f>Sheet1!AF58</f>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f>Sheet1!AG58+Sheet1!AH58+Sheet1!AI58</f>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f>Sheet1!AG58</f>
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <f>Sheet1!AH58</f>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f>Sheet1!AI58</f>
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B59" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>56</v>
+      </c>
+      <c r="D59">
+        <f>Sheet1!AD59+Sheet1!AE59+Sheet1!AF59</f>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f>COUNTIF(Sheet1!C59:L59,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f>COUNTIF(Sheet1!C59:L59,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f>Sheet1!AF59</f>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f>Sheet1!AG59+Sheet1!AH59+Sheet1!AI59</f>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f>Sheet1!AG59</f>
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f>Sheet1!AH59</f>
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <f>Sheet1!AI59</f>
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B60" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>57</v>
+      </c>
+      <c r="D60">
+        <f>Sheet1!AD60+Sheet1!AE60+Sheet1!AF60</f>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f>COUNTIF(Sheet1!C60:L60,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f>COUNTIF(Sheet1!C60:L60,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f>Sheet1!AF60</f>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f>Sheet1!AG60+Sheet1!AH60+Sheet1!AI60</f>
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f>Sheet1!AG60</f>
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <f>Sheet1!AH60</f>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f>Sheet1!AI60</f>
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B61" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>58</v>
+      </c>
+      <c r="D61">
+        <f>Sheet1!AD61+Sheet1!AE61+Sheet1!AF61</f>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f>COUNTIF(Sheet1!C61:L61,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f>COUNTIF(Sheet1!C61:L61,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f>Sheet1!AF61</f>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f>Sheet1!AG61+Sheet1!AH61+Sheet1!AI61</f>
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <f>Sheet1!AG61</f>
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <f>Sheet1!AH61</f>
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <f>Sheet1!AI61</f>
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B62" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>59</v>
+      </c>
+      <c r="D62">
+        <f>Sheet1!AD62+Sheet1!AE62+Sheet1!AF62</f>
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f>COUNTIF(Sheet1!C62:L62,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f>COUNTIF(Sheet1!C62:L62,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f>Sheet1!AF62</f>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f>Sheet1!AG62+Sheet1!AH62+Sheet1!AI62</f>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <f>Sheet1!AG62</f>
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <f>Sheet1!AH62</f>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f>Sheet1!AI62</f>
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B63" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>60</v>
+      </c>
+      <c r="D63">
+        <f>Sheet1!AD63+Sheet1!AE63+Sheet1!AF63</f>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f>COUNTIF(Sheet1!C63:L63,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f>COUNTIF(Sheet1!C63:L63,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f>Sheet1!AF63</f>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f>Sheet1!AG63+Sheet1!AH63+Sheet1!AI63</f>
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <f>Sheet1!AG63</f>
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <f>Sheet1!AH63</f>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f>Sheet1!AI63</f>
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5554,13 +7535,13 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I2:L2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A30">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="A1:A63">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B30">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="B1:B63">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/RAW CALCULATION.xlsx
+++ b/RAW CALCULATION.xlsx
@@ -559,67 +559,7 @@
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -938,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AU31" sqref="AU31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
@@ -1165,15 +1105,15 @@
       </c>
       <c r="AC4" s="17"/>
       <c r="AD4" s="5">
-        <f t="shared" ref="AD4:AD32" si="0">COUNTIF(C4:L4,2)</f>
+        <f t="shared" ref="AD4:AD30" si="0">COUNTIF(C4:L4,2)</f>
         <v>2</v>
       </c>
       <c r="AE4" s="5">
-        <f t="shared" ref="AE4:AE32" si="1">COUNTIF(C4:L4,1)</f>
+        <f t="shared" ref="AE4:AE30" si="1">COUNTIF(C4:L4,1)</f>
         <v>1</v>
       </c>
       <c r="AF4" s="5">
-        <f t="shared" ref="AF4:AF32" si="2">COUNTIF(C4:L4,0)</f>
+        <f t="shared" ref="AF4:AF30" si="2">COUNTIF(C4:L4,0)</f>
         <v>2</v>
       </c>
       <c r="AG4" s="5">
@@ -3617,15 +3557,15 @@
       </c>
       <c r="AC31" s="17"/>
       <c r="AD31" s="5">
-        <f t="shared" ref="AD31:AD39" si="6">COUNTIF(C31:L31,2)</f>
+        <f t="shared" ref="AD31:AD33" si="6">COUNTIF(C31:L31,2)</f>
         <v>4</v>
       </c>
       <c r="AE31" s="5">
-        <f t="shared" ref="AE31:AE39" si="7">COUNTIF(C31:L31,1)</f>
+        <f t="shared" ref="AE31:AE33" si="7">COUNTIF(C31:L31,1)</f>
         <v>1</v>
       </c>
       <c r="AF31" s="5">
-        <f t="shared" ref="AF31:AF39" si="8">COUNTIF(C31:L31,0)</f>
+        <f t="shared" ref="AF31:AF33" si="8">COUNTIF(C31:L31,0)</f>
         <v>3</v>
       </c>
       <c r="AG31" s="5">
@@ -3873,7 +3813,9 @@
       <c r="R34" s="13">
         <v>2</v>
       </c>
-      <c r="S34" s="13"/>
+      <c r="S34" s="13">
+        <v>2</v>
+      </c>
       <c r="T34" s="13"/>
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
@@ -3884,7 +3826,7 @@
       <c r="AA34" s="13"/>
       <c r="AB34" s="21">
         <f>Sheet3!M34</f>
-        <v>3.1500000000000004</v>
+        <v>4.05</v>
       </c>
       <c r="AC34" s="21"/>
       <c r="AD34" s="5">
@@ -3905,7 +3847,7 @@
       </c>
       <c r="AH34" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI34" s="5">
         <f t="shared" si="5"/>
@@ -3919,10 +3861,18 @@
       <c r="B35" s="11">
         <v>45188</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="C35" s="12">
+        <v>2</v>
+      </c>
+      <c r="D35" s="12">
+        <v>2</v>
+      </c>
+      <c r="E35" s="12">
+        <v>1</v>
+      </c>
+      <c r="F35" s="12">
+        <v>1</v>
+      </c>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
@@ -3931,14 +3881,24 @@
       <c r="L35" s="12"/>
       <c r="M35" s="21">
         <f>Sheet3!H35</f>
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N35" s="21"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
+      <c r="O35" s="13">
+        <v>2</v>
+      </c>
+      <c r="P35" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="13">
+        <v>1</v>
+      </c>
+      <c r="R35" s="13">
+        <v>1</v>
+      </c>
+      <c r="S35" s="13">
+        <v>2</v>
+      </c>
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
@@ -3949,16 +3909,16 @@
       <c r="AA35" s="13"/>
       <c r="AB35" s="21">
         <f>Sheet3!M35</f>
-        <v>0</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="AC35" s="21"/>
       <c r="AD35" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE35" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF35" s="5">
         <f t="shared" si="11"/>
@@ -3966,15 +3926,15 @@
       </c>
       <c r="AG35" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH35" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI35" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -4244,7 +4204,7 @@
     <mergeCell ref="AC2:AC3"/>
   </mergeCells>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="lessThan">
       <formula>0.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4287,14 +4247,14 @@
       </c>
       <c r="G1">
         <f>AVERAGE(H:H)</f>
-        <v>1.62</v>
+        <v>1.665</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
       </c>
       <c r="L1">
         <f>AVERAGE(M:M)</f>
-        <v>1.7850000000000004</v>
+        <v>1.8325000000000002</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75">
@@ -4347,7 +4307,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="b">
-        <f t="shared" ref="A4:A22" si="0">AND(D4,(G4+F4+E4))</f>
+        <f t="shared" ref="A4:A21" si="0">AND(D4,(G4+F4+E4))</f>
         <v>1</v>
       </c>
       <c r="B4" t="b">
@@ -4404,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="b">
-        <f t="shared" ref="B5:B22" si="1">AND(I5,(J5+K5+L5))</f>
+        <f t="shared" ref="B5:B21" si="1">AND(I5,(J5+K5+L5))</f>
         <v>1</v>
       </c>
       <c r="C5">
@@ -4427,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H30" si="2">(G5*-0.75)+(F5*0.9)+(E5*0.45)</f>
+        <f t="shared" ref="H5:H21" si="2">(G5*-0.75)+(F5*0.9)+(E5*0.45)</f>
         <v>3.1500000000000004</v>
       </c>
       <c r="I5">
@@ -4447,7 +4407,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M30" si="3">(L5*-0.75)+(K5*0.9)+(J5*0.45)</f>
+        <f t="shared" ref="M5:M21" si="3">(L5*-0.75)+(K5*0.9)+(J5*0.45)</f>
         <v>1.35</v>
       </c>
     </row>
@@ -5969,7 +5929,7 @@
       </c>
       <c r="I34">
         <f>Sheet1!AG34+Sheet1!AH34+Sheet1!AI34</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J34">
         <f>Sheet1!AG34</f>
@@ -5977,7 +5937,7 @@
       </c>
       <c r="K34">
         <f>Sheet1!AH34</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L34">
         <f>Sheet1!AI34</f>
@@ -5985,32 +5945,32 @@
       </c>
       <c r="M34">
         <f t="shared" si="7"/>
-        <v>3.1500000000000004</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>32</v>
       </c>
       <c r="D35">
         <f>Sheet1!AD35+Sheet1!AE35+Sheet1!AF35</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <f>COUNTIF(Sheet1!C35:L35,1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <f>COUNTIF(Sheet1!C35:L35,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35">
         <f>Sheet1!AF35</f>
@@ -6018,27 +5978,27 @@
       </c>
       <c r="H35">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I35">
         <f>Sheet1!AG35+Sheet1!AH35+Sheet1!AI35</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J35">
         <f>Sheet1!AG35</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K35">
         <f>Sheet1!AH35</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L35">
         <f>Sheet1!AI35</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.9500000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -7536,12 +7496,12 @@
     <mergeCell ref="I2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A63">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B63">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/RAW CALCULATION.xlsx
+++ b/RAW CALCULATION.xlsx
@@ -868,7 +868,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -879,7 +879,7 @@
   <dimension ref="A1:AU39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+      <selection activeCell="AB36" sqref="AB36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
@@ -3942,11 +3942,21 @@
       <c r="B36" s="11">
         <v>45189</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="C36" s="12">
+        <v>1</v>
+      </c>
+      <c r="D36" s="12">
+        <v>2</v>
+      </c>
+      <c r="E36" s="12">
+        <v>2</v>
+      </c>
+      <c r="F36" s="12">
+        <v>2</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
@@ -3954,50 +3964,76 @@
       <c r="L36" s="12"/>
       <c r="M36" s="21">
         <f>Sheet3!H36</f>
-        <v>0</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="N36" s="21"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
+      <c r="O36" s="13">
+        <v>1</v>
+      </c>
+      <c r="P36" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>2</v>
+      </c>
+      <c r="R36" s="13">
+        <v>1</v>
+      </c>
+      <c r="S36" s="13">
+        <v>1</v>
+      </c>
+      <c r="T36" s="13">
+        <v>2</v>
+      </c>
+      <c r="U36" s="13">
+        <v>0</v>
+      </c>
+      <c r="V36" s="13">
+        <v>2</v>
+      </c>
+      <c r="W36" s="13">
+        <v>1</v>
+      </c>
+      <c r="X36" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z36" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="13">
+        <v>2</v>
+      </c>
       <c r="AB36" s="21">
         <f>Sheet3!M36</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AC36" s="21"/>
       <c r="AD36" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE36" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF36" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG36" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH36" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI36" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -4247,14 +4283,14 @@
       </c>
       <c r="G1">
         <f>AVERAGE(H:H)</f>
-        <v>1.665</v>
+        <v>1.7050000000000003</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
       </c>
       <c r="L1">
         <f>AVERAGE(M:M)</f>
-        <v>1.8325000000000002</v>
+        <v>1.9075000000000002</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75">
@@ -6004,54 +6040,54 @@
     <row r="36" spans="1:13">
       <c r="A36" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>33</v>
       </c>
       <c r="D36">
         <f>Sheet1!AD36+Sheet1!AE36+Sheet1!AF36</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E36">
         <f>COUNTIF(Sheet1!C36:L36,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <f>COUNTIF(Sheet1!C36:L36,2)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36">
         <f>Sheet1!AF36</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="I36">
         <f>Sheet1!AG36+Sheet1!AH36+Sheet1!AI36</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J36">
         <f>Sheet1!AG36</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K36">
         <f>Sheet1!AH36</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L36">
         <f>Sheet1!AI36</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="37" spans="1:13">

--- a/RAW CALCULATION.xlsx
+++ b/RAW CALCULATION.xlsx
@@ -446,7 +446,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -494,6 +494,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -559,7 +562,47 @@
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -868,7 +911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -876,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU39"/>
+  <dimension ref="A1:AU68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AB36" sqref="AB36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="AM72" sqref="AM72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
@@ -898,43 +941,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="28"/>
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="29"/>
     </row>
     <row r="2" spans="1:47">
       <c r="A2" s="14" t="s">
@@ -943,88 +986,88 @@
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="22" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="22" t="s">
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="31"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="32"/>
     </row>
     <row r="3" spans="1:47" ht="15" customHeight="1">
       <c r="A3" s="14"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="34"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
     </row>
     <row r="4" spans="1:47" ht="15" customHeight="1">
       <c r="A4" s="15" t="s">
@@ -1313,15 +1356,15 @@
         <v>0</v>
       </c>
       <c r="AG6" s="5">
-        <f t="shared" ref="AG6:AG39" si="3">COUNTIF($O6:$AA6,1)</f>
+        <f t="shared" ref="AG6:AG69" si="3">COUNTIF($O6:$AA6,1)</f>
         <v>2</v>
       </c>
       <c r="AH6" s="5">
-        <f t="shared" ref="AH6:AH39" si="4">COUNTIF($O6:$AA6,2)</f>
+        <f t="shared" ref="AH6:AH69" si="4">COUNTIF($O6:$AA6,2)</f>
         <v>7</v>
       </c>
       <c r="AI6" s="5">
-        <f t="shared" ref="AI6:AI39" si="5">COUNTIF($O6:$AA6,0)</f>
+        <f t="shared" ref="AI6:AI69" si="5">COUNTIF($O6:$AA6,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4041,11 +4084,21 @@
       <c r="B37" s="11">
         <v>45190</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
+      <c r="C37" s="12">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="E37" s="12">
+        <v>2</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0</v>
+      </c>
+      <c r="G37" s="12">
+        <v>2</v>
+      </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
@@ -4053,46 +4106,70 @@
       <c r="L37" s="12"/>
       <c r="M37" s="21">
         <f>Sheet3!H37</f>
-        <v>0</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="N37" s="21"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
+      <c r="O37" s="13">
+        <v>2</v>
+      </c>
+      <c r="P37" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="13">
+        <v>1</v>
+      </c>
+      <c r="R37" s="13">
+        <v>1</v>
+      </c>
+      <c r="S37" s="13">
+        <v>1</v>
+      </c>
+      <c r="T37" s="13">
+        <v>2</v>
+      </c>
+      <c r="U37" s="13">
+        <v>1</v>
+      </c>
+      <c r="V37" s="13">
+        <v>2</v>
+      </c>
+      <c r="W37" s="13">
+        <v>2</v>
+      </c>
+      <c r="X37" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z37" s="13">
+        <v>2</v>
+      </c>
       <c r="AA37" s="13"/>
       <c r="AB37" s="21">
         <f>Sheet3!M37</f>
-        <v>0</v>
+        <v>8.1000000000000014</v>
       </c>
       <c r="AC37" s="21"/>
       <c r="AD37" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE37" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF37" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG37" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH37" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI37" s="5">
         <f t="shared" si="5"/>
@@ -4104,29 +4181,57 @@
       <c r="B38" s="11">
         <v>45191</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="C38" s="12">
+        <v>0</v>
+      </c>
+      <c r="D38" s="12">
+        <v>2</v>
+      </c>
+      <c r="E38" s="12">
+        <v>2</v>
+      </c>
+      <c r="F38" s="12">
+        <v>2</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0</v>
+      </c>
+      <c r="H38" s="12">
+        <v>2</v>
+      </c>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="21">
         <f>Sheet3!H38</f>
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="N38" s="21"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
+      <c r="O38" s="13">
+        <v>1</v>
+      </c>
+      <c r="P38" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>0</v>
+      </c>
+      <c r="R38" s="13">
+        <v>0</v>
+      </c>
+      <c r="S38" s="13">
+        <v>0</v>
+      </c>
+      <c r="T38" s="13">
+        <v>1</v>
+      </c>
+      <c r="U38" s="13">
+        <v>2</v>
+      </c>
+      <c r="V38" s="13">
+        <v>2</v>
+      </c>
       <c r="W38" s="13"/>
       <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
@@ -4134,12 +4239,12 @@
       <c r="AA38" s="13"/>
       <c r="AB38" s="21">
         <f>Sheet3!M38</f>
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AC38" s="21"/>
       <c r="AD38" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE38" s="5">
         <f t="shared" si="10"/>
@@ -4147,24 +4252,24 @@
       </c>
       <c r="AF38" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG38" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH38" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI38" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="15"/>
-      <c r="B39" s="11"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -4219,6 +4324,1775 @@
         <v>0</v>
       </c>
       <c r="AI39" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35">
+      <c r="A40" s="15"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="22">
+        <f>Sheet3!H40</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="22"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="22">
+        <f>Sheet3!M40</f>
+        <v>0</v>
+      </c>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="5">
+        <f t="shared" ref="AD40:AD53" si="12">COUNTIF(C40:L40,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="5">
+        <f t="shared" ref="AE40:AE53" si="13">COUNTIF(C40:L40,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="5">
+        <f t="shared" ref="AF40:AF53" si="14">COUNTIF(C40:L40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH40" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI40" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35">
+      <c r="A41" s="15"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="22">
+        <f>Sheet3!H41</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="22"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
+      <c r="AA41" s="13"/>
+      <c r="AB41" s="22">
+        <f>Sheet3!M41</f>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE41" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH41" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI41" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35">
+      <c r="A42" s="15"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="22">
+        <f>Sheet3!H42</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="22"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="22">
+        <f>Sheet3!M42</f>
+        <v>0</v>
+      </c>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH42" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI42" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35">
+      <c r="A43" s="15"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="22">
+        <f>Sheet3!H43</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="22"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="22">
+        <f>Sheet3!M43</f>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH43" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI43" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35">
+      <c r="A44" s="15"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="22">
+        <f>Sheet3!H44</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="22"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="22">
+        <f>Sheet3!M44</f>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="22"/>
+      <c r="AD44" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE44" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH44" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI44" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35">
+      <c r="A45" s="15"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="22">
+        <f>Sheet3!H45</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="22"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="22">
+        <f>Sheet3!M45</f>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="22"/>
+      <c r="AD45" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH45" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI45" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35">
+      <c r="A46" s="15"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="22">
+        <f>Sheet3!H46</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="22"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="13"/>
+      <c r="Z46" s="13"/>
+      <c r="AA46" s="13"/>
+      <c r="AB46" s="22">
+        <f>Sheet3!M46</f>
+        <v>0</v>
+      </c>
+      <c r="AC46" s="22"/>
+      <c r="AD46" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE46" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH46" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI46" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35">
+      <c r="A47" s="15"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="22">
+        <f>Sheet3!H47</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="22"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="13"/>
+      <c r="AA47" s="13"/>
+      <c r="AB47" s="22">
+        <f>Sheet3!M47</f>
+        <v>0</v>
+      </c>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH47" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI47" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35">
+      <c r="A48" s="15"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="22">
+        <f>Sheet3!H48</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="22"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="22">
+        <f>Sheet3!M48</f>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="22"/>
+      <c r="AD48" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE48" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH48" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI48" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35">
+      <c r="A49" s="15"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="22">
+        <f>Sheet3!H49</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="22"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="13"/>
+      <c r="Z49" s="13"/>
+      <c r="AA49" s="13"/>
+      <c r="AB49" s="22">
+        <f>Sheet3!M49</f>
+        <v>0</v>
+      </c>
+      <c r="AC49" s="22"/>
+      <c r="AD49" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE49" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AG49" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH49" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI49" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35">
+      <c r="A50" s="15"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="22">
+        <f>Sheet3!H50</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="22"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="13"/>
+      <c r="AB50" s="22">
+        <f>Sheet3!M50</f>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="22"/>
+      <c r="AD50" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE50" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH50" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI50" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35">
+      <c r="A51" s="15"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="22">
+        <f>Sheet3!H51</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="22"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="13"/>
+      <c r="Z51" s="13"/>
+      <c r="AA51" s="13"/>
+      <c r="AB51" s="22">
+        <f>Sheet3!M51</f>
+        <v>0</v>
+      </c>
+      <c r="AC51" s="22"/>
+      <c r="AD51" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE51" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH51" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI51" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35">
+      <c r="A52" s="15"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="22">
+        <f>Sheet3!H52</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="22"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="13"/>
+      <c r="Z52" s="13"/>
+      <c r="AA52" s="13"/>
+      <c r="AB52" s="22">
+        <f>Sheet3!M52</f>
+        <v>0</v>
+      </c>
+      <c r="AC52" s="22"/>
+      <c r="AD52" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE52" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH52" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI52" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35">
+      <c r="A53" s="15"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="22">
+        <f>Sheet3!H53</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="22"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="13"/>
+      <c r="Y53" s="13"/>
+      <c r="Z53" s="13"/>
+      <c r="AA53" s="13"/>
+      <c r="AB53" s="22">
+        <f>Sheet3!M53</f>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="22"/>
+      <c r="AD53" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE53" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH53" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI53" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35">
+      <c r="A54" s="15"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="22">
+        <f>Sheet3!H54</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="22"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="13"/>
+      <c r="AA54" s="13"/>
+      <c r="AB54" s="22">
+        <f>Sheet3!M54</f>
+        <v>0</v>
+      </c>
+      <c r="AC54" s="22"/>
+      <c r="AD54" s="5">
+        <f t="shared" ref="AD54:AD64" si="15">COUNTIF(C54:L54,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE54" s="5">
+        <f t="shared" ref="AE54:AE64" si="16">COUNTIF(C54:L54,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="5">
+        <f t="shared" ref="AF54:AF64" si="17">COUNTIF(C54:L54,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH54" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI54" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35">
+      <c r="A55" s="15"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="22">
+        <f>Sheet3!H55</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="22"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="13"/>
+      <c r="Y55" s="13"/>
+      <c r="Z55" s="13"/>
+      <c r="AA55" s="13"/>
+      <c r="AB55" s="22">
+        <f>Sheet3!M55</f>
+        <v>0</v>
+      </c>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE55" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AG55" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH55" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI55" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35">
+      <c r="A56" s="15"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="22">
+        <f>Sheet3!H56</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="22"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="13"/>
+      <c r="AA56" s="13"/>
+      <c r="AB56" s="22">
+        <f>Sheet3!M56</f>
+        <v>0</v>
+      </c>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE56" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH56" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI56" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35">
+      <c r="A57" s="15"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="22">
+        <f>Sheet3!H57</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="22"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="13"/>
+      <c r="AA57" s="13"/>
+      <c r="AB57" s="22">
+        <f>Sheet3!M57</f>
+        <v>0</v>
+      </c>
+      <c r="AC57" s="22"/>
+      <c r="AD57" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE57" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH57" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI57" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35">
+      <c r="A58" s="15"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="22">
+        <f>Sheet3!H58</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="22"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="13"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="13"/>
+      <c r="Y58" s="13"/>
+      <c r="Z58" s="13"/>
+      <c r="AA58" s="13"/>
+      <c r="AB58" s="22">
+        <f>Sheet3!M58</f>
+        <v>0</v>
+      </c>
+      <c r="AC58" s="22"/>
+      <c r="AD58" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE58" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AF58" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AG58" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH58" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI58" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35">
+      <c r="A59" s="15"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="22">
+        <f>Sheet3!H59</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="22"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="13"/>
+      <c r="Y59" s="13"/>
+      <c r="Z59" s="13"/>
+      <c r="AA59" s="13"/>
+      <c r="AB59" s="22">
+        <f>Sheet3!M59</f>
+        <v>0</v>
+      </c>
+      <c r="AC59" s="22"/>
+      <c r="AD59" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE59" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AF59" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AG59" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH59" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI59" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35">
+      <c r="A60" s="15"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="22">
+        <f>Sheet3!H60</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="22"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="13"/>
+      <c r="Y60" s="13"/>
+      <c r="Z60" s="13"/>
+      <c r="AA60" s="13"/>
+      <c r="AB60" s="22">
+        <f>Sheet3!M60</f>
+        <v>0</v>
+      </c>
+      <c r="AC60" s="22"/>
+      <c r="AD60" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE60" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AF60" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AG60" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH60" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI60" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35">
+      <c r="A61" s="15"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="22">
+        <f>Sheet3!H61</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="22"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="13"/>
+      <c r="W61" s="13"/>
+      <c r="X61" s="13"/>
+      <c r="Y61" s="13"/>
+      <c r="Z61" s="13"/>
+      <c r="AA61" s="13"/>
+      <c r="AB61" s="22">
+        <f>Sheet3!M61</f>
+        <v>0</v>
+      </c>
+      <c r="AC61" s="22"/>
+      <c r="AD61" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE61" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH61" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI61" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35">
+      <c r="A62" s="15"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="22">
+        <f>Sheet3!H62</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="22"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="13"/>
+      <c r="X62" s="13"/>
+      <c r="Y62" s="13"/>
+      <c r="Z62" s="13"/>
+      <c r="AA62" s="13"/>
+      <c r="AB62" s="22">
+        <f>Sheet3!M62</f>
+        <v>0</v>
+      </c>
+      <c r="AC62" s="22"/>
+      <c r="AD62" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE62" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AF62" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH62" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI62" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35">
+      <c r="A63" s="15"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="22">
+        <f>Sheet3!H63</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="22"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13"/>
+      <c r="V63" s="13"/>
+      <c r="W63" s="13"/>
+      <c r="X63" s="13"/>
+      <c r="Y63" s="13"/>
+      <c r="Z63" s="13"/>
+      <c r="AA63" s="13"/>
+      <c r="AB63" s="22">
+        <f>Sheet3!M63</f>
+        <v>0</v>
+      </c>
+      <c r="AC63" s="22"/>
+      <c r="AD63" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE63" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AF63" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH63" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI63" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35">
+      <c r="A64" s="15"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="22">
+        <f>Sheet3!H64</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="22"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="13"/>
+      <c r="W64" s="13"/>
+      <c r="X64" s="13"/>
+      <c r="Y64" s="13"/>
+      <c r="Z64" s="13"/>
+      <c r="AA64" s="13"/>
+      <c r="AB64" s="22">
+        <f>Sheet3!M64</f>
+        <v>0</v>
+      </c>
+      <c r="AC64" s="22"/>
+      <c r="AD64" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE64" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH64" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI64" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35">
+      <c r="A65" s="15"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="22">
+        <f>Sheet3!H65</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="22"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
+      <c r="U65" s="13"/>
+      <c r="V65" s="13"/>
+      <c r="W65" s="13"/>
+      <c r="X65" s="13"/>
+      <c r="Y65" s="13"/>
+      <c r="Z65" s="13"/>
+      <c r="AA65" s="13"/>
+      <c r="AB65" s="22">
+        <f>Sheet3!M65</f>
+        <v>0</v>
+      </c>
+      <c r="AC65" s="22"/>
+      <c r="AD65" s="5">
+        <f t="shared" ref="AD65:AD68" si="18">COUNTIF(C65:L65,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE65" s="5">
+        <f t="shared" ref="AE65:AE68" si="19">COUNTIF(C65:L65,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="5">
+        <f t="shared" ref="AF65:AF68" si="20">COUNTIF(C65:L65,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH65" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI65" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35">
+      <c r="A66" s="15"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="22">
+        <f>Sheet3!H66</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="22"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="13"/>
+      <c r="V66" s="13"/>
+      <c r="W66" s="13"/>
+      <c r="X66" s="13"/>
+      <c r="Y66" s="13"/>
+      <c r="Z66" s="13"/>
+      <c r="AA66" s="13"/>
+      <c r="AB66" s="22">
+        <f>Sheet3!M66</f>
+        <v>0</v>
+      </c>
+      <c r="AC66" s="22"/>
+      <c r="AD66" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE66" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AF66" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH66" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI66" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35">
+      <c r="A67" s="15"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="22">
+        <f>Sheet3!H67</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="22"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13"/>
+      <c r="U67" s="13"/>
+      <c r="V67" s="13"/>
+      <c r="W67" s="13"/>
+      <c r="X67" s="13"/>
+      <c r="Y67" s="13"/>
+      <c r="Z67" s="13"/>
+      <c r="AA67" s="13"/>
+      <c r="AB67" s="22">
+        <f>Sheet3!M67</f>
+        <v>0</v>
+      </c>
+      <c r="AC67" s="22"/>
+      <c r="AD67" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE67" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AF67" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH67" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI67" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35">
+      <c r="A68" s="15"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="22">
+        <f>Sheet3!H68</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="22"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="13"/>
+      <c r="V68" s="13"/>
+      <c r="W68" s="13"/>
+      <c r="X68" s="13"/>
+      <c r="Y68" s="13"/>
+      <c r="Z68" s="13"/>
+      <c r="AA68" s="13"/>
+      <c r="AB68" s="22">
+        <f>Sheet3!M68</f>
+        <v>0</v>
+      </c>
+      <c r="AC68" s="22"/>
+      <c r="AD68" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE68" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AF68" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH68" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI68" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4240,12 +6114,12 @@
     <mergeCell ref="AC2:AC3"/>
   </mergeCells>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="3" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="lessThan">
       <formula>0.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB4:AB39 M4:M39">
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="lessThan">
+  <conditionalFormatting sqref="AB4:AB68 M4:M68">
+    <cfRule type="cellIs" dxfId="4" priority="14" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4257,10 +6131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4283,30 +6157,30 @@
       </c>
       <c r="G1">
         <f>AVERAGE(H:H)</f>
-        <v>1.7050000000000003</v>
+        <v>1.6361538461538463</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
       </c>
       <c r="L1">
         <f>AVERAGE(M:M)</f>
-        <v>1.9075000000000002</v>
+        <v>1.9061538461538463</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75">
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="30">
@@ -6093,46 +7967,46 @@
     <row r="37" spans="1:13">
       <c r="A37" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>34</v>
       </c>
       <c r="D37">
         <f>Sheet1!AD37+Sheet1!AE37+Sheet1!AF37</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E37">
         <f>COUNTIF(Sheet1!C37:L37,1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <f>COUNTIF(Sheet1!C37:L37,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37">
         <f>Sheet1!AF37</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="I37">
         <f>Sheet1!AG37+Sheet1!AH37+Sheet1!AI37</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J37">
         <f>Sheet1!AG37</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K37">
         <f>Sheet1!AH37</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L37">
         <f>Sheet1!AI37</f>
@@ -6140,24 +8014,24 @@
       </c>
       <c r="M37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.1000000000000014</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>35</v>
       </c>
       <c r="D38">
         <f>Sheet1!AD38+Sheet1!AE38+Sheet1!AF38</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E38">
         <f>COUNTIF(Sheet1!C38:L38,1)</f>
@@ -6165,35 +8039,35 @@
       </c>
       <c r="F38">
         <f>COUNTIF(Sheet1!C38:L38,2)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G38">
         <f>Sheet1!AF38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I38">
         <f>Sheet1!AG38+Sheet1!AH38+Sheet1!AI38</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J38">
         <f>Sheet1!AG38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K38">
         <f>Sheet1!AH38</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L38">
         <f>Sheet1!AI38</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M38">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -7518,6 +9392,271 @@
       </c>
       <c r="M63">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" t="b">
+        <f t="shared" ref="A64:A68" si="8">AND(D64,(G64+F64+E64))</f>
+        <v>0</v>
+      </c>
+      <c r="B64" t="b">
+        <f t="shared" ref="B64:B68" si="9">AND(I64,(J64+K64+L64))</f>
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>61</v>
+      </c>
+      <c r="D64">
+        <f>Sheet1!AD64+Sheet1!AE64+Sheet1!AF64</f>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f>COUNTIF(Sheet1!C64:L64,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f>COUNTIF(Sheet1!C64:L64,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f>Sheet1!AF64</f>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ref="H64:H68" si="10">(G64*-0.75)+(F64*0.9)+(E64*0.45)</f>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f>Sheet1!AG64+Sheet1!AH64+Sheet1!AI64</f>
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <f>Sheet1!AG64</f>
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <f>Sheet1!AH64</f>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f>Sheet1!AI64</f>
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <f t="shared" ref="M64:M68" si="11">(L64*-0.75)+(K64*0.9)+(J64*0.45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="B65" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>62</v>
+      </c>
+      <c r="D65">
+        <f>Sheet1!AD65+Sheet1!AE65+Sheet1!AF65</f>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f>COUNTIF(Sheet1!C65:L65,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f>COUNTIF(Sheet1!C65:L65,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f>Sheet1!AF65</f>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f>Sheet1!AG65+Sheet1!AH65+Sheet1!AI65</f>
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <f>Sheet1!AG65</f>
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <f>Sheet1!AH65</f>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f>Sheet1!AI65</f>
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="B66" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>63</v>
+      </c>
+      <c r="D66">
+        <f>Sheet1!AD66+Sheet1!AE66+Sheet1!AF66</f>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f>COUNTIF(Sheet1!C66:L66,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f>COUNTIF(Sheet1!C66:L66,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f>Sheet1!AF66</f>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f>Sheet1!AG66+Sheet1!AH66+Sheet1!AI66</f>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f>Sheet1!AG66</f>
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <f>Sheet1!AH66</f>
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f>Sheet1!AI66</f>
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="B67" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>64</v>
+      </c>
+      <c r="D67">
+        <f>Sheet1!AD67+Sheet1!AE67+Sheet1!AF67</f>
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <f>COUNTIF(Sheet1!C67:L67,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f>COUNTIF(Sheet1!C67:L67,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f>Sheet1!AF67</f>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f>Sheet1!AG67+Sheet1!AH67+Sheet1!AI67</f>
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f>Sheet1!AG67</f>
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <f>Sheet1!AH67</f>
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f>Sheet1!AI67</f>
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="B68" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>65</v>
+      </c>
+      <c r="D68">
+        <f>Sheet1!AD68+Sheet1!AE68+Sheet1!AF68</f>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f>COUNTIF(Sheet1!C68:L68,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f>COUNTIF(Sheet1!C68:L68,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f>Sheet1!AF68</f>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f>Sheet1!AG68+Sheet1!AH68+Sheet1!AI68</f>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f>Sheet1!AG68</f>
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <f>Sheet1!AH68</f>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f>Sheet1!AI68</f>
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -7531,13 +9670,13 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I2:L2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A63">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="A1:A68">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B63">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="B1:B68">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/RAW CALCULATION.xlsx
+++ b/RAW CALCULATION.xlsx
@@ -562,47 +562,7 @@
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -911,7 +871,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -921,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AM72" sqref="AM72"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
@@ -1356,15 +1316,15 @@
         <v>0</v>
       </c>
       <c r="AG6" s="5">
-        <f t="shared" ref="AG6:AG69" si="3">COUNTIF($O6:$AA6,1)</f>
+        <f t="shared" ref="AG6:AG68" si="3">COUNTIF($O6:$AA6,1)</f>
         <v>2</v>
       </c>
       <c r="AH6" s="5">
-        <f t="shared" ref="AH6:AH69" si="4">COUNTIF($O6:$AA6,2)</f>
+        <f t="shared" ref="AH6:AH68" si="4">COUNTIF($O6:$AA6,2)</f>
         <v>7</v>
       </c>
       <c r="AI6" s="5">
-        <f t="shared" ref="AI6:AI69" si="5">COUNTIF($O6:$AA6,0)</f>
+        <f t="shared" ref="AI6:AI68" si="5">COUNTIF($O6:$AA6,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4269,7 +4229,9 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="15"/>
-      <c r="B39" s="10"/>
+      <c r="B39" s="10">
+        <v>45194</v>
+      </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -4330,7 +4292,9 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" s="15"/>
-      <c r="B40" s="11"/>
+      <c r="B40" s="11">
+        <v>45195</v>
+      </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -4391,7 +4355,9 @@
     </row>
     <row r="41" spans="1:35">
       <c r="A41" s="15"/>
-      <c r="B41" s="11"/>
+      <c r="B41" s="11">
+        <v>45196</v>
+      </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -4452,7 +4418,9 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" s="15"/>
-      <c r="B42" s="11"/>
+      <c r="B42" s="11">
+        <v>45197</v>
+      </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -4513,7 +4481,9 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" s="15"/>
-      <c r="B43" s="11"/>
+      <c r="B43" s="11">
+        <v>45198</v>
+      </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -6114,12 +6084,12 @@
     <mergeCell ref="AC2:AC3"/>
   </mergeCells>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="lessThan">
       <formula>0.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4:AB68 M4:M68">
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9671,12 +9641,12 @@
     <mergeCell ref="I2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A68">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B68">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/RAW CALCULATION.xlsx
+++ b/RAW CALCULATION.xlsx
@@ -871,7 +871,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
@@ -4232,10 +4232,18 @@
       <c r="B39" s="10">
         <v>45194</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="C39" s="12">
+        <v>0</v>
+      </c>
+      <c r="D39" s="12">
+        <v>2</v>
+      </c>
+      <c r="E39" s="12">
+        <v>2</v>
+      </c>
+      <c r="F39" s="12">
+        <v>1</v>
+      </c>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
@@ -4244,15 +4252,27 @@
       <c r="L39" s="12"/>
       <c r="M39" s="21">
         <f>Sheet3!H39</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N39" s="21"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
+      <c r="O39" s="13">
+        <v>1</v>
+      </c>
+      <c r="P39" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="13">
+        <v>2</v>
+      </c>
+      <c r="R39" s="13">
+        <v>1</v>
+      </c>
+      <c r="S39" s="13">
+        <v>0</v>
+      </c>
+      <c r="T39" s="13">
+        <v>2</v>
+      </c>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
       <c r="W39" s="13"/>
@@ -4262,32 +4282,32 @@
       <c r="AA39" s="13"/>
       <c r="AB39" s="21">
         <f>Sheet3!M39</f>
-        <v>0</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="AC39" s="21"/>
       <c r="AD39" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE39" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF39" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG39" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH39" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI39" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:35">
@@ -4295,62 +4315,102 @@
       <c r="B40" s="11">
         <v>45195</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
+      <c r="C40" s="12">
+        <v>1</v>
+      </c>
+      <c r="D40" s="12">
+        <v>2</v>
+      </c>
+      <c r="E40" s="12">
+        <v>2</v>
+      </c>
+      <c r="F40" s="12">
+        <v>2</v>
+      </c>
+      <c r="G40" s="12">
+        <v>1</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
+      <c r="I40" s="12">
+        <v>2</v>
+      </c>
+      <c r="J40" s="12">
+        <v>0</v>
+      </c>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="22">
         <f>Sheet3!H40</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N40" s="22"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
+      <c r="O40" s="13">
+        <v>0</v>
+      </c>
+      <c r="P40" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="13">
+        <v>2</v>
+      </c>
+      <c r="R40" s="13">
+        <v>0</v>
+      </c>
+      <c r="S40" s="13">
+        <v>1</v>
+      </c>
+      <c r="T40" s="13">
+        <v>1</v>
+      </c>
+      <c r="U40" s="13">
+        <v>2</v>
+      </c>
+      <c r="V40" s="13">
+        <v>2</v>
+      </c>
+      <c r="W40" s="13">
+        <v>2</v>
+      </c>
+      <c r="X40" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y40" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="13">
+        <v>2</v>
+      </c>
       <c r="AA40" s="13"/>
       <c r="AB40" s="22">
         <f>Sheet3!M40</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AC40" s="22"/>
       <c r="AD40" s="5">
         <f t="shared" ref="AD40:AD53" si="12">COUNTIF(C40:L40,2)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE40" s="5">
         <f t="shared" ref="AE40:AE53" si="13">COUNTIF(C40:L40,1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF40" s="5">
         <f t="shared" ref="AF40:AF53" si="14">COUNTIF(C40:L40,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG40" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH40" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI40" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:35">
@@ -6127,14 +6187,14 @@
       </c>
       <c r="G1">
         <f>AVERAGE(H:H)</f>
-        <v>1.6361538461538463</v>
+        <v>1.7053846153846155</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
       </c>
       <c r="L1">
         <f>AVERAGE(M:M)</f>
-        <v>1.9061538461538463</v>
+        <v>2.0123076923076924</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75">
@@ -8043,107 +8103,107 @@
     <row r="39" spans="1:13">
       <c r="A39" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>36</v>
       </c>
       <c r="D39">
         <f>Sheet1!AD39+Sheet1!AE39+Sheet1!AF39</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <f>COUNTIF(Sheet1!C39:L39,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <f>COUNTIF(Sheet1!C39:L39,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39">
         <f>Sheet1!AF39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I39">
         <f>Sheet1!AG39+Sheet1!AH39+Sheet1!AI39</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J39">
         <f>Sheet1!AG39</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K39">
         <f>Sheet1!AH39</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L39">
         <f>Sheet1!AI39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>37</v>
       </c>
       <c r="D40">
         <f>Sheet1!AD40+Sheet1!AE40+Sheet1!AF40</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E40">
         <f>COUNTIF(Sheet1!C40:L40,1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F40">
         <f>COUNTIF(Sheet1!C40:L40,2)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G40">
         <f>Sheet1!AF40</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <f>Sheet1!AG40+Sheet1!AH40+Sheet1!AI40</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J40">
         <f>Sheet1!AG40</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K40">
         <f>Sheet1!AH40</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L40">
         <f>Sheet1!AI40</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="41" spans="1:13">
